--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N534"/>
+  <dimension ref="A1:N542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23454,6 +23454,388 @@
         </is>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>370.0466666666667</v>
+      </c>
+      <c r="C535" t="n">
+        <v>358.375</v>
+      </c>
+      <c r="D535" t="n">
+        <v>368.925</v>
+      </c>
+      <c r="E535" t="n">
+        <v>369.4071428571429</v>
+      </c>
+      <c r="F535" t="n">
+        <v>371.3071428571428</v>
+      </c>
+      <c r="G535" t="n">
+        <v>362.2066666666666</v>
+      </c>
+      <c r="H535" t="n">
+        <v>363.0571428571428</v>
+      </c>
+      <c r="I535" t="n">
+        <v>363.3071428571428</v>
+      </c>
+      <c r="J535" t="n">
+        <v>360.4871428571428</v>
+      </c>
+      <c r="K535" t="n">
+        <v>355.0492307692307</v>
+      </c>
+      <c r="L535" t="n">
+        <v>376.99</v>
+      </c>
+      <c r="M535" t="n">
+        <v>378.4142857142857</v>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>373.2466666666666</v>
+      </c>
+      <c r="C536" t="n">
+        <v>364.475</v>
+      </c>
+      <c r="D536" t="n">
+        <v>369.075</v>
+      </c>
+      <c r="E536" t="n">
+        <v>374.8442857142857</v>
+      </c>
+      <c r="F536" t="n">
+        <v>377.7542857142857</v>
+      </c>
+      <c r="G536" t="n">
+        <v>368.3066666666667</v>
+      </c>
+      <c r="H536" t="n">
+        <v>362.5942857142857</v>
+      </c>
+      <c r="I536" t="n">
+        <v>365.2842857142857</v>
+      </c>
+      <c r="J536" t="n">
+        <v>368.8442857142857</v>
+      </c>
+      <c r="K536" t="n">
+        <v>355.2123076923077</v>
+      </c>
+      <c r="L536" t="n">
+        <v>380.43</v>
+      </c>
+      <c r="M536" t="n">
+        <v>375.8585714285715</v>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>362.4633333333334</v>
+      </c>
+      <c r="C537" t="n">
+        <v>360.06</v>
+      </c>
+      <c r="D537" t="n">
+        <v>369.42</v>
+      </c>
+      <c r="E537" t="n">
+        <v>373.2714285714285</v>
+      </c>
+      <c r="F537" t="n">
+        <v>372.4414285714286</v>
+      </c>
+      <c r="G537" t="n">
+        <v>367.5133333333333</v>
+      </c>
+      <c r="H537" t="n">
+        <v>361.6714285714286</v>
+      </c>
+      <c r="I537" t="n">
+        <v>365.5814285714285</v>
+      </c>
+      <c r="J537" t="n">
+        <v>366.3214285714286</v>
+      </c>
+      <c r="K537" t="n">
+        <v>348.6384615384616</v>
+      </c>
+      <c r="L537" t="inlineStr"/>
+      <c r="M537" t="n">
+        <v>351.7528571428572</v>
+      </c>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>377.9166666666666</v>
+      </c>
+      <c r="C538" t="n">
+        <v>368.435</v>
+      </c>
+      <c r="D538" t="n">
+        <v>370.955</v>
+      </c>
+      <c r="E538" t="n">
+        <v>374.5028571428572</v>
+      </c>
+      <c r="F538" t="n">
+        <v>376.1628571428572</v>
+      </c>
+      <c r="G538" t="n">
+        <v>371.3466666666666</v>
+      </c>
+      <c r="H538" t="n">
+        <v>369.7028571428572</v>
+      </c>
+      <c r="I538" t="n">
+        <v>370.2828571428572</v>
+      </c>
+      <c r="J538" t="n">
+        <v>369.6328571428572</v>
+      </c>
+      <c r="K538" t="n">
+        <v>366.39</v>
+      </c>
+      <c r="L538" t="n">
+        <v>371.49</v>
+      </c>
+      <c r="M538" t="n">
+        <v>364.5257142857143</v>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>369.3133333333333</v>
+      </c>
+      <c r="C539" t="n">
+        <v>362.48</v>
+      </c>
+      <c r="D539" t="n">
+        <v>374.03</v>
+      </c>
+      <c r="E539" t="n">
+        <v>375.9742857142857</v>
+      </c>
+      <c r="F539" t="n">
+        <v>378.2342857142857</v>
+      </c>
+      <c r="G539" t="n">
+        <v>371.6233333333333</v>
+      </c>
+      <c r="H539" t="n">
+        <v>369.9742857142857</v>
+      </c>
+      <c r="I539" t="n">
+        <v>372.1442857142857</v>
+      </c>
+      <c r="J539" t="n">
+        <v>373.2342857142857</v>
+      </c>
+      <c r="K539" t="n">
+        <v>373.4523076923077</v>
+      </c>
+      <c r="L539" t="n">
+        <v>365.86</v>
+      </c>
+      <c r="M539" t="n">
+        <v>356.4285714285714</v>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>383.3666666666666</v>
+      </c>
+      <c r="C540" t="n">
+        <v>363.27</v>
+      </c>
+      <c r="D540" t="n">
+        <v>369.73</v>
+      </c>
+      <c r="E540" t="n">
+        <v>370.61</v>
+      </c>
+      <c r="F540" t="n">
+        <v>373.51</v>
+      </c>
+      <c r="G540" t="n">
+        <v>365.7766666666666</v>
+      </c>
+      <c r="H540" t="n">
+        <v>366.74</v>
+      </c>
+      <c r="I540" t="n">
+        <v>366.53</v>
+      </c>
+      <c r="J540" t="n">
+        <v>371.26</v>
+      </c>
+      <c r="K540" t="n">
+        <v>374.0053846153846</v>
+      </c>
+      <c r="L540" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="M540" t="n">
+        <v>336.02</v>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>376.2666666666667</v>
+      </c>
+      <c r="C541" t="n">
+        <v>366.495</v>
+      </c>
+      <c r="D541" t="n">
+        <v>378.435</v>
+      </c>
+      <c r="E541" t="n">
+        <v>372.7642857142857</v>
+      </c>
+      <c r="F541" t="n">
+        <v>378.1142857142857</v>
+      </c>
+      <c r="G541" t="n">
+        <v>369.7266666666667</v>
+      </c>
+      <c r="H541" t="n">
+        <v>367.5342857142857</v>
+      </c>
+      <c r="I541" t="n">
+        <v>369.8242857142857</v>
+      </c>
+      <c r="J541" t="n">
+        <v>371.8942857142857</v>
+      </c>
+      <c r="K541" t="n">
+        <v>371.0276923076924</v>
+      </c>
+      <c r="L541" t="n">
+        <v>365.42</v>
+      </c>
+      <c r="M541" t="n">
+        <v>357.0885714285715</v>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>373.49</v>
+      </c>
+      <c r="C542" t="n">
+        <v>358.445</v>
+      </c>
+      <c r="D542" t="n">
+        <v>367.135</v>
+      </c>
+      <c r="E542" t="n">
+        <v>371.8328571428572</v>
+      </c>
+      <c r="F542" t="n">
+        <v>369.7428571428572</v>
+      </c>
+      <c r="G542" t="n">
+        <v>363.71</v>
+      </c>
+      <c r="H542" t="n">
+        <v>363.4328571428572</v>
+      </c>
+      <c r="I542" t="n">
+        <v>367.2228571428572</v>
+      </c>
+      <c r="J542" t="n">
+        <v>373.5228571428572</v>
+      </c>
+      <c r="K542" t="n">
+        <v>379.2107692307693</v>
+      </c>
+      <c r="L542" t="n">
+        <v>383.27</v>
+      </c>
+      <c r="M542" t="n">
+        <v>377.4357142857143</v>
+      </c>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23465,7 +23847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28893,6 +29275,86 @@
       </c>
       <c r="B542" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -29061,28 +29523,28 @@
         <v>0.0853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3551475264370384</v>
+        <v>0.3559345254771089</v>
       </c>
       <c r="J2" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K2" t="n">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05875765503984787</v>
+        <v>0.06091545190489633</v>
       </c>
       <c r="M2" t="n">
-        <v>8.430733735674471</v>
+        <v>8.35615765943203</v>
       </c>
       <c r="N2" t="n">
-        <v>112.6800169121835</v>
+        <v>111.1945753542993</v>
       </c>
       <c r="O2" t="n">
-        <v>10.61508440438339</v>
+        <v>10.54488384735931</v>
       </c>
       <c r="P2" t="n">
-        <v>364.0192068731513</v>
+        <v>364.0114418110765</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -29138,28 +29600,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5026996395185044</v>
+        <v>0.5015788884403786</v>
       </c>
       <c r="J3" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K3" t="n">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1500216365627999</v>
+        <v>0.1541576854587065</v>
       </c>
       <c r="M3" t="n">
-        <v>7.020411488878344</v>
+        <v>6.943563509196902</v>
       </c>
       <c r="N3" t="n">
-        <v>79.54333054344031</v>
+        <v>78.26746563891709</v>
       </c>
       <c r="O3" t="n">
-        <v>8.918706775280837</v>
+        <v>8.846890167675706</v>
       </c>
       <c r="P3" t="n">
-        <v>350.2699699486687</v>
+        <v>350.2806045757359</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -29215,28 +29677,28 @@
         <v>0.0992</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4415705849599624</v>
+        <v>0.4935447068582589</v>
       </c>
       <c r="J4" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05278470337015795</v>
+        <v>0.06620766466468708</v>
       </c>
       <c r="M4" t="n">
-        <v>11.20798515184333</v>
+        <v>11.2312760491687</v>
       </c>
       <c r="N4" t="n">
-        <v>190.9820978962303</v>
+        <v>191.3895511749694</v>
       </c>
       <c r="O4" t="n">
-        <v>13.81962727052471</v>
+        <v>13.83436124925793</v>
       </c>
       <c r="P4" t="n">
-        <v>345.1089666825582</v>
+        <v>344.6102395327059</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -29292,28 +29754,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4247564266835924</v>
+        <v>0.4717562416408186</v>
       </c>
       <c r="J5" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K5" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05606480912373457</v>
+        <v>0.06952029588868791</v>
       </c>
       <c r="M5" t="n">
-        <v>10.46691733120545</v>
+        <v>10.50131939917685</v>
       </c>
       <c r="N5" t="n">
-        <v>167.0568840413044</v>
+        <v>167.2240087733915</v>
       </c>
       <c r="O5" t="n">
-        <v>12.92504870556798</v>
+        <v>12.9315122384581</v>
       </c>
       <c r="P5" t="n">
-        <v>348.5940145880527</v>
+        <v>348.1482863286214</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -29369,28 +29831,28 @@
         <v>0.0795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4050951040612668</v>
+        <v>0.4460766036526975</v>
       </c>
       <c r="J6" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K6" t="n">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05396934370643325</v>
+        <v>0.06606182135938143</v>
       </c>
       <c r="M6" t="n">
-        <v>10.1806609000201</v>
+        <v>10.2054613915486</v>
       </c>
       <c r="N6" t="n">
-        <v>158.848405036451</v>
+        <v>158.5518483238947</v>
       </c>
       <c r="O6" t="n">
-        <v>12.60350764812919</v>
+        <v>12.59173730364062</v>
       </c>
       <c r="P6" t="n">
-        <v>352.4943597911909</v>
+        <v>352.1069216195565</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -29446,28 +29908,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3783251784564788</v>
+        <v>0.4162591997971036</v>
       </c>
       <c r="J7" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K7" t="n">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05126768069203358</v>
+        <v>0.06273359974478354</v>
       </c>
       <c r="M7" t="n">
-        <v>9.572447410335515</v>
+        <v>9.581433610374603</v>
       </c>
       <c r="N7" t="n">
-        <v>145.2503729360954</v>
+        <v>144.8960701911391</v>
       </c>
       <c r="O7" t="n">
-        <v>12.05198626518033</v>
+        <v>12.03727835480841</v>
       </c>
       <c r="P7" t="n">
-        <v>346.8602670122268</v>
+        <v>346.5003029661599</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -29523,28 +29985,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3270507135414164</v>
+        <v>0.361432252344365</v>
       </c>
       <c r="J8" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K8" t="n">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L8" t="n">
-        <v>0.037984552200652</v>
+        <v>0.04715346441237223</v>
       </c>
       <c r="M8" t="n">
-        <v>9.448683705431288</v>
+        <v>9.448621825191955</v>
       </c>
       <c r="N8" t="n">
-        <v>143.9086933462161</v>
+        <v>143.1383366935243</v>
       </c>
       <c r="O8" t="n">
-        <v>11.99619495282634</v>
+        <v>11.96404349262925</v>
       </c>
       <c r="P8" t="n">
-        <v>347.4354882478124</v>
+        <v>347.1006309949759</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -29600,28 +30062,28 @@
         <v>0.0815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2573569628450026</v>
+        <v>0.2908533237766781</v>
       </c>
       <c r="J9" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K9" t="n">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02583144063273279</v>
+        <v>0.03358495417955565</v>
       </c>
       <c r="M9" t="n">
-        <v>9.067120385380449</v>
+        <v>9.070581627656598</v>
       </c>
       <c r="N9" t="n">
-        <v>134.7647997130499</v>
+        <v>134.0376333555448</v>
       </c>
       <c r="O9" t="n">
-        <v>11.60882421751014</v>
+        <v>11.57746230205674</v>
       </c>
       <c r="P9" t="n">
-        <v>351.3836799026372</v>
+        <v>351.0605016055194</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29677,28 +30139,28 @@
         <v>0.0788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2804318732184802</v>
+        <v>0.3064036731722496</v>
       </c>
       <c r="J10" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K10" t="n">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03391626969011929</v>
+        <v>0.04138166680582056</v>
       </c>
       <c r="M10" t="n">
-        <v>8.91046912019285</v>
+        <v>8.878177715765277</v>
       </c>
       <c r="N10" t="n">
-        <v>121.1788835557598</v>
+        <v>120.1940598714631</v>
       </c>
       <c r="O10" t="n">
-        <v>11.00812806773976</v>
+        <v>10.96330515271116</v>
       </c>
       <c r="P10" t="n">
-        <v>354.9380325925181</v>
+        <v>354.6897101183392</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29754,28 +30216,28 @@
         <v>0.0736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2094982701535129</v>
+        <v>0.2242104106504668</v>
       </c>
       <c r="J11" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K11" t="n">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01561852796470387</v>
+        <v>0.01828497220677705</v>
       </c>
       <c r="M11" t="n">
-        <v>9.524000045180744</v>
+        <v>9.536649100515277</v>
       </c>
       <c r="N11" t="n">
-        <v>148.2770582619862</v>
+        <v>147.831515409334</v>
       </c>
       <c r="O11" t="n">
-        <v>12.1769067608316</v>
+        <v>12.15859841467486</v>
       </c>
       <c r="P11" t="n">
-        <v>355.8745692710917</v>
+        <v>355.7329152788078</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29831,28 +30293,28 @@
         <v>0.0543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3832427770673626</v>
+        <v>0.4345795912494829</v>
       </c>
       <c r="J12" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K12" t="n">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03951464515419234</v>
+        <v>0.05075851873623838</v>
       </c>
       <c r="M12" t="n">
-        <v>11.30037912214511</v>
+        <v>11.37436419976662</v>
       </c>
       <c r="N12" t="n">
-        <v>192.7321478450289</v>
+        <v>194.3830418769029</v>
       </c>
       <c r="O12" t="n">
-        <v>13.88280043237059</v>
+        <v>13.9421318985621</v>
       </c>
       <c r="P12" t="n">
-        <v>347.4181649128126</v>
+        <v>346.9293175259149</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -29908,28 +30370,28 @@
         <v>0.0395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5226751159564165</v>
+        <v>0.5527909770747857</v>
       </c>
       <c r="J13" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="K13" t="n">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04668919591792386</v>
+        <v>0.05344239931070982</v>
       </c>
       <c r="M13" t="n">
-        <v>13.43574462177657</v>
+        <v>13.4062803448705</v>
       </c>
       <c r="N13" t="n">
-        <v>281.6629637793407</v>
+        <v>280.4598381294698</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7828175161187</v>
+        <v>16.74693518616077</v>
       </c>
       <c r="P13" t="n">
-        <v>342.4426475954161</v>
+        <v>342.1361155957657</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -29966,7 +30428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N534"/>
+  <dimension ref="A1:N542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63146,6 +63608,578 @@
         </is>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-34.96161957692864,173.67017039361</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-34.96166168868284,173.67107765675115</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-34.961485755958904,173.6719506083116</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-34.96127957417634,173.67280633295363</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-34.961034665998795,173.67364118520277</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-34.9607623006195,173.67447441932367</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>-34.960401878911696,173.67525774072683</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>-34.960018681519095,173.67602505815086</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>-34.95960844413799,173.6767686044552</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>-34.95910523895369,173.67744034772122</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>-34.958391062568836,173.6777391259094</t>
+        </is>
+      </c>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>-34.95771922150264,173.67804329200354</t>
+        </is>
+      </c>
+      <c r="N535" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-34.96159083836936,173.6701672525089</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-34.9616069779361,173.67107076434718</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-34.96148443069371,173.67195027990053</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-34.961232821103046,173.6727884058884</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-34.96098138971982,173.67361292568637</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-34.960714073702626,173.6744422902483</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-34.96040548369919,173.6752602957871</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>-34.96000388306811,173.67601298168645</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>-34.959551960110346,173.67670801387501</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>-34.959104323659,173.67743894977835</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>-34.95837680650098,173.67770566380148</t>
+        </is>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>-34.957727513569246,173.6780694087877</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-34.961687681325984,173.67017783737464</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-34.961646575960266,173.67107575286482</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-34.961481382583784,173.67194952455512</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-34.961246345836344,173.67279359182922</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-34.96102529277409,173.6736362133286</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-34.96072034583769,173.67444646878164</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>-34.96041267102228,173.67526539013633</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>-34.960001659023355,173.67601116672688</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>-34.959569011531265,173.67672630497128</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>-34.95914122038399,173.67749530272621</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr"/>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>-34.95780572476613,173.6783157447698</t>
+        </is>
+      </c>
+      <c r="N537" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-34.96154889803399,173.67016266846872</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>-34.96157146079506,173.67106628993935</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-34.96146782070327,173.67194616381613</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-34.96123575698977,173.67278953162835</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-34.96099454056801,173.67361990133134</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-34.96069003930125,173.6744262783954</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>-34.96035012127717,173.6752210551334</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>-34.95996646992657,173.67598245023999</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>-34.95954663033379,173.67670229661428</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>-34.959041587075845,173.67734313141912</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>-34.95841385568111,173.67779262639652</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>-34.95776428318454,173.67818521905068</t>
+        </is>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-34.96162616284845,173.67017111344597</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-34.96162487104109,173.67107301850118</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-34.96144065276634,173.67193943139455</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-34.96122310442346,173.6727846801137</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-34.960977423216164,173.6736108217221</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>-34.96068785195977,173.6744248211768</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>-34.960348007358064,173.67521955679757</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>-34.95995253756567,173.67597108057728</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>-34.95952228908621,173.67667618572835</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>-34.95900194870589,173.677282591383</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>-34.95843718751482,173.677847391471</t>
+        </is>
+      </c>
+      <c r="M539" t="inlineStr">
+        <is>
+          <t>-34.95779055441056,173.67826796367007</t>
+        </is>
+      </c>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-34.96149995267405,173.67015731879218</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-34.9616177855509,173.67107212587868</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-34.96147864370239,173.671948845839</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>-34.96126923101117,173.67280236695373</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>-34.96101646258235,173.67363152949855</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>-34.960734076015186,173.67445561590938</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>-34.960373196371954,173.67523741065662</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>-34.95999455918795,173.67600537281808</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>-34.95953563284105,173.67669049958778</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>-34.95899884446888,173.67727785025855</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>-34.958412778189064,173.67779009728196</t>
+        </is>
+      </c>
+      <c r="M540" t="inlineStr">
+        <is>
+          <t>-34.95785676988324,173.67847651888178</t>
+        </is>
+      </c>
+      <c r="N540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-34.96156371635382,173.67016428809688</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-34.96158886060663,173.67106848194672</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-34.961401734143536,173.67192978707183</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-34.96125070667219,173.672795263954</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>-34.960978414842074,173.67361134771315</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>-34.96070284710752,173.67443481102637</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>-34.960367010377645,173.67523302605065</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>-34.95996990222712,173.67598525120889</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>-34.9595313458462,173.6766859009233</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>-34.95901555726425,173.6773033758437</t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>-34.9584390109608,173.67785167151365</t>
+        </is>
+      </c>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>-34.95778841303895,173.6782612191349</t>
+        </is>
+      </c>
+      <c r="N541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-34.96158865304142,173.6701670136544</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-34.961661060854595,173.67107757765797</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>-34.96150157079002,173.67195452735112</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>-34.961258715869214,173.67279833501183</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-34.96104759254884,173.6736480418825</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>-34.96075041518895,173.67446650117094</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>-34.96039895280327,173.67525566671205</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>-34.95998937331401,173.67600114082208</t>
+        </is>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>-34.95952033869641,173.67667409354382</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>-34.958969628365104,173.67723322831625</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>-34.95836503694949,173.67767803811637</t>
+        </is>
+      </c>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>-34.95772239649808,173.67805329200132</t>
+        </is>
+      </c>
+      <c r="N542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -29368,7 +29368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29459,35 +29459,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -29546,27 +29551,28 @@
       <c r="P2" t="n">
         <v>364.0114418110765</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.67053364514953 -34.96494289032113, 173.6696241321867 -34.95662139414673)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.6705336451495</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.96494289032113</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.6696241321867</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.95662139414673</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.6700788886681</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.96078214223393</v>
       </c>
     </row>
@@ -29623,27 +29629,28 @@
       <c r="P3" t="n">
         <v>350.2806045757359</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.6714826026264 -34.964875943323925, 173.67043566982323 -34.95656536724064)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.6714826026264</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.96487594332392</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.6704356698232</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.95656536724064</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.6709591362248</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.96072065528229</v>
       </c>
     </row>
@@ -29700,27 +29707,28 @@
       <c r="P4" t="n">
         <v>344.6102395327059</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.67275836836103 -34.96474524176233, 173.67072963120836 -34.956558329474284)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.672758368361</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.96474524176233</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.6707296312084</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.95655832947428</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.6717439997847</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.96065178561831</v>
       </c>
     </row>
@@ -29777,27 +29785,28 @@
       <c r="P5" t="n">
         <v>348.1482863286214</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.67402437165325 -34.96445603623875, 173.67096893352584 -34.956487410993795)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.6740243716532</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.96445603623875</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.6709689335258</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.95648741099379</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.6724966525895</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.96047172361627</v>
       </c>
     </row>
@@ -29854,27 +29863,28 @@
       <c r="P6" t="n">
         <v>352.1069216195565</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.6752687842193 -34.964102968070954, 173.6712063967465 -34.95644419523038)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.6752687842193</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.96410296807095</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.6712063967465</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.95644419523038</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.6732375904829</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.96027358165067</v>
       </c>
     </row>
@@ -29931,27 +29941,28 @@
       <c r="P7" t="n">
         <v>346.5003029661599</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.67638225221722 -34.963625908649995, 173.67150020979477 -34.95629762226256)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.6763822522172</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.96362590864999</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.6715002097948</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.95629762226256</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.673941231006</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.95996176545628</v>
       </c>
     </row>
@@ -30008,27 +30019,28 @@
       <c r="P8" t="n">
         <v>347.1006309949759</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.67726195513683 -34.9632293939724, 173.67214509399088 -34.9560101450018)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.6772619551368</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.9632293939724</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.6721450939909</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.9560101450018</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.6747035245639</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.9596197694871</v>
       </c>
     </row>
@@ -30085,27 +30097,28 @@
       <c r="P9" t="n">
         <v>351.0605016055194</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.6782442262426 -34.96273792851, 173.6725819412966 -34.95579923111461)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.6782442262426</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.96273792851</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.6725819412966</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.95579923111461</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.6754130837696</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.9592685798123</v>
       </c>
     </row>
@@ -30162,27 +30175,28 @@
       <c r="P10" t="n">
         <v>354.6897101183392</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.67938227137498 -34.96204486455924, 173.67265983368335 -34.95577789933388)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.679382271375</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.96204486455924</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.6726598336834</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.95577789933388</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.6760210525292</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.95891138194656</v>
       </c>
     </row>
@@ -30239,27 +30253,28 @@
       <c r="P11" t="n">
         <v>355.7329152788078</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.68048400658782 -34.96109796887939, 173.672533426059 -34.95589223436386)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.6804840065878</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.96109796887939</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.672533426059</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.95589223436386</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.6765087163234</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.95849510162162</v>
       </c>
     </row>
@@ -30316,27 +30331,28 @@
       <c r="P12" t="n">
         <v>346.9293175259149</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.68140631175203 -34.95995332982531, 173.67238181543425 -34.9561084727933)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.681406311752</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.95995332982531</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.6723818154342</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.9561084727933</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.6768940635931</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.9580309013093</v>
       </c>
     </row>
@@ -30393,27 +30409,28 @@
       <c r="P13" t="n">
         <v>342.1361155957657</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.68191035509085 -34.95894693236286, 173.67242847548397 -34.955936349669805)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.6819103550908</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.95894693236286</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.672428475484</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.95593634966981</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.6771694152874</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.95744164101633</v>
       </c>
     </row>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N542"/>
+  <dimension ref="A1:N546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23836,6 +23836,198 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>381.24</v>
+      </c>
+      <c r="C543" t="n">
+        <v>381.56</v>
+      </c>
+      <c r="D543" t="n">
+        <v>381.16</v>
+      </c>
+      <c r="E543" t="n">
+        <v>382.2628571428572</v>
+      </c>
+      <c r="F543" t="n">
+        <v>377.8828571428572</v>
+      </c>
+      <c r="G543" t="n">
+        <v>369.19</v>
+      </c>
+      <c r="H543" t="n">
+        <v>369.6528571428572</v>
+      </c>
+      <c r="I543" t="n">
+        <v>367.7828571428572</v>
+      </c>
+      <c r="J543" t="n">
+        <v>377.0828571428572</v>
+      </c>
+      <c r="K543" t="n">
+        <v>373.2653846153846</v>
+      </c>
+      <c r="L543" t="n">
+        <v>372.17</v>
+      </c>
+      <c r="M543" t="n">
+        <v>356.5457142857143</v>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>380.61</v>
+      </c>
+      <c r="C544" t="n">
+        <v>373.27</v>
+      </c>
+      <c r="D544" t="n">
+        <v>382.91</v>
+      </c>
+      <c r="E544" t="n">
+        <v>381.3571428571428</v>
+      </c>
+      <c r="F544" t="n">
+        <v>378.5271428571429</v>
+      </c>
+      <c r="G544" t="n">
+        <v>370.21</v>
+      </c>
+      <c r="H544" t="n">
+        <v>368.8271428571429</v>
+      </c>
+      <c r="I544" t="n">
+        <v>369.9071428571429</v>
+      </c>
+      <c r="J544" t="n">
+        <v>374.2471428571428</v>
+      </c>
+      <c r="K544" t="n">
+        <v>372.6915384615385</v>
+      </c>
+      <c r="L544" t="n">
+        <v>367.51</v>
+      </c>
+      <c r="M544" t="n">
+        <v>359.5042857142857</v>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>389.23</v>
+      </c>
+      <c r="C545" t="n">
+        <v>378.98</v>
+      </c>
+      <c r="D545" t="n">
+        <v>383.61</v>
+      </c>
+      <c r="E545" t="n">
+        <v>385.5757142857143</v>
+      </c>
+      <c r="F545" t="n">
+        <v>383.0257142857143</v>
+      </c>
+      <c r="G545" t="n">
+        <v>375.38</v>
+      </c>
+      <c r="H545" t="n">
+        <v>376.5657142857143</v>
+      </c>
+      <c r="I545" t="n">
+        <v>374.2957142857143</v>
+      </c>
+      <c r="J545" t="n">
+        <v>378.4457142857143</v>
+      </c>
+      <c r="K545" t="n">
+        <v>375.7123076923077</v>
+      </c>
+      <c r="L545" t="n">
+        <v>371.35</v>
+      </c>
+      <c r="M545" t="n">
+        <v>352.9314285714286</v>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>369.93</v>
+      </c>
+      <c r="C546" t="n">
+        <v>360.475</v>
+      </c>
+      <c r="D546" t="n">
+        <v>352.635</v>
+      </c>
+      <c r="E546" t="n">
+        <v>360.3071428571428</v>
+      </c>
+      <c r="F546" t="n">
+        <v>368.3471428571429</v>
+      </c>
+      <c r="G546" t="n">
+        <v>363.91</v>
+      </c>
+      <c r="H546" t="n">
+        <v>361.2171428571429</v>
+      </c>
+      <c r="I546" t="n">
+        <v>367.9671428571429</v>
+      </c>
+      <c r="J546" t="n">
+        <v>368.2071428571429</v>
+      </c>
+      <c r="K546" t="n">
+        <v>362.5823076923077</v>
+      </c>
+      <c r="L546" t="n">
+        <v>368.64</v>
+      </c>
+      <c r="M546" t="n">
+        <v>365.5442857142857</v>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23847,7 +24039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B550"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29355,6 +29547,46 @@
       </c>
       <c r="B550" t="n">
         <v>0.99</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -29528,28 +29760,28 @@
         <v>0.0853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3559345254771089</v>
+        <v>0.3684476553389242</v>
       </c>
       <c r="J2" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06091545190489633</v>
+        <v>0.06568388148534665</v>
       </c>
       <c r="M2" t="n">
-        <v>8.35615765943203</v>
+        <v>8.348983768814458</v>
       </c>
       <c r="N2" t="n">
-        <v>111.1945753542993</v>
+        <v>111.0546686958033</v>
       </c>
       <c r="O2" t="n">
-        <v>10.54488384735931</v>
+        <v>10.53824789496828</v>
       </c>
       <c r="P2" t="n">
-        <v>364.0114418110765</v>
+        <v>363.8924242241853</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29606,28 +29838,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5015788884403786</v>
+        <v>0.5198358586153307</v>
       </c>
       <c r="J3" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K3" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1541576854587065</v>
+        <v>0.1635536444731198</v>
       </c>
       <c r="M3" t="n">
-        <v>6.943563509196902</v>
+        <v>6.97847171517728</v>
       </c>
       <c r="N3" t="n">
-        <v>78.26746563891709</v>
+        <v>79.14343987351458</v>
       </c>
       <c r="O3" t="n">
-        <v>8.846890167675706</v>
+        <v>8.896259881181225</v>
       </c>
       <c r="P3" t="n">
-        <v>350.2806045757359</v>
+        <v>350.1061201190007</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29684,28 +29916,28 @@
         <v>0.0992</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4935447068582589</v>
+        <v>0.5247865131473836</v>
       </c>
       <c r="J4" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K4" t="n">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06620766466468708</v>
+        <v>0.07395897902231452</v>
       </c>
       <c r="M4" t="n">
-        <v>11.2312760491687</v>
+        <v>11.29168560301065</v>
       </c>
       <c r="N4" t="n">
-        <v>191.3895511749694</v>
+        <v>194.0310823689655</v>
       </c>
       <c r="O4" t="n">
-        <v>13.83436124925793</v>
+        <v>13.92950402451449</v>
       </c>
       <c r="P4" t="n">
-        <v>344.6102395327059</v>
+        <v>344.3079511406106</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29762,28 +29994,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4717562416408186</v>
+        <v>0.5012278394931582</v>
       </c>
       <c r="J5" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K5" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06952029588868791</v>
+        <v>0.07766766633005728</v>
       </c>
       <c r="M5" t="n">
-        <v>10.50131939917685</v>
+        <v>10.54997029212294</v>
       </c>
       <c r="N5" t="n">
-        <v>167.2240087733915</v>
+        <v>169.185527180604</v>
       </c>
       <c r="O5" t="n">
-        <v>12.9315122384581</v>
+        <v>13.00713370349533</v>
       </c>
       <c r="P5" t="n">
-        <v>348.1482863286214</v>
+        <v>347.8662460571952</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29840,28 +30072,28 @@
         <v>0.0795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4460766036526975</v>
+        <v>0.4689955395937038</v>
       </c>
       <c r="J6" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K6" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06606182135938143</v>
+        <v>0.07302571806381364</v>
       </c>
       <c r="M6" t="n">
-        <v>10.2054613915486</v>
+        <v>10.23054802051069</v>
       </c>
       <c r="N6" t="n">
-        <v>158.5518483238947</v>
+        <v>158.9510251469092</v>
       </c>
       <c r="O6" t="n">
-        <v>12.59173730364062</v>
+        <v>12.60757808410915</v>
       </c>
       <c r="P6" t="n">
-        <v>352.1069216195565</v>
+        <v>351.888097679779</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29918,28 +30150,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4162591997971036</v>
+        <v>0.4375230156536741</v>
       </c>
       <c r="J7" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K7" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06273359974478354</v>
+        <v>0.06940735464749015</v>
       </c>
       <c r="M7" t="n">
-        <v>9.581433610374603</v>
+        <v>9.598537930922173</v>
       </c>
       <c r="N7" t="n">
-        <v>144.8960701911391</v>
+        <v>145.1033997707659</v>
       </c>
       <c r="O7" t="n">
-        <v>12.03727835480841</v>
+        <v>12.04588725543975</v>
       </c>
       <c r="P7" t="n">
-        <v>346.5003029661599</v>
+        <v>346.2965042333637</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29996,28 +30228,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.361432252344365</v>
+        <v>0.3833988573781917</v>
       </c>
       <c r="J8" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K8" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04715346441237223</v>
+        <v>0.05311942169132799</v>
       </c>
       <c r="M8" t="n">
-        <v>9.448621825191955</v>
+        <v>9.472722497020211</v>
       </c>
       <c r="N8" t="n">
-        <v>143.1383366935243</v>
+        <v>143.5197819938479</v>
       </c>
       <c r="O8" t="n">
-        <v>11.96404349262925</v>
+        <v>11.97997420672715</v>
       </c>
       <c r="P8" t="n">
-        <v>347.1006309949759</v>
+        <v>346.8847419244021</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30074,28 +30306,28 @@
         <v>0.0815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2908533237766781</v>
+        <v>0.3106898550952047</v>
       </c>
       <c r="J9" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K9" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03358495417955565</v>
+        <v>0.0385082403842758</v>
       </c>
       <c r="M9" t="n">
-        <v>9.070581627656598</v>
+        <v>9.08631647472423</v>
       </c>
       <c r="N9" t="n">
-        <v>134.0376333555448</v>
+        <v>134.0428198346554</v>
       </c>
       <c r="O9" t="n">
-        <v>11.57746230205674</v>
+        <v>11.57768629021599</v>
       </c>
       <c r="P9" t="n">
-        <v>351.0605016055194</v>
+        <v>350.8672270621151</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30152,28 +30384,28 @@
         <v>0.0788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3064036731722496</v>
+        <v>0.3272924788367286</v>
       </c>
       <c r="J10" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K10" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04138166680582056</v>
+        <v>0.04729897613672773</v>
       </c>
       <c r="M10" t="n">
-        <v>8.878177715765277</v>
+        <v>8.897789464970144</v>
       </c>
       <c r="N10" t="n">
-        <v>120.1940598714631</v>
+        <v>120.4986400447295</v>
       </c>
       <c r="O10" t="n">
-        <v>10.96330515271116</v>
+        <v>10.97718725561013</v>
       </c>
       <c r="P10" t="n">
-        <v>354.6897101183392</v>
+        <v>354.4884229981096</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30230,28 +30462,28 @@
         <v>0.0736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2242104106504668</v>
+        <v>0.2406647802937421</v>
       </c>
       <c r="J11" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K11" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01828497220677705</v>
+        <v>0.02126822228082037</v>
       </c>
       <c r="M11" t="n">
-        <v>9.536649100515277</v>
+        <v>9.534004949127489</v>
       </c>
       <c r="N11" t="n">
-        <v>147.831515409334</v>
+        <v>147.5424439062161</v>
       </c>
       <c r="O11" t="n">
-        <v>12.15859841467486</v>
+        <v>12.14670506377001</v>
       </c>
       <c r="P11" t="n">
-        <v>355.7329152788078</v>
+        <v>355.5744328565548</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30308,28 +30540,28 @@
         <v>0.0543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4345795912494829</v>
+        <v>0.4554999882360357</v>
       </c>
       <c r="J12" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K12" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05075851873623838</v>
+        <v>0.05618953642652413</v>
       </c>
       <c r="M12" t="n">
-        <v>11.37436419976662</v>
+        <v>11.37676058216297</v>
       </c>
       <c r="N12" t="n">
-        <v>194.3830418769029</v>
+        <v>193.8934256522582</v>
       </c>
       <c r="O12" t="n">
-        <v>13.9421318985621</v>
+        <v>13.92456195548924</v>
       </c>
       <c r="P12" t="n">
-        <v>346.9293175259149</v>
+        <v>346.7281498663298</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30386,28 +30618,28 @@
         <v>0.0395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5527909770747857</v>
+        <v>0.5581617127358136</v>
       </c>
       <c r="J13" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K13" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05344239931070982</v>
+        <v>0.05563329657898675</v>
       </c>
       <c r="M13" t="n">
-        <v>13.4062803448705</v>
+        <v>13.29415069321857</v>
       </c>
       <c r="N13" t="n">
-        <v>280.4598381294698</v>
+        <v>277.4512981587638</v>
       </c>
       <c r="O13" t="n">
-        <v>16.74693518616077</v>
+        <v>16.65686939850234</v>
       </c>
       <c r="P13" t="n">
-        <v>342.1361155957657</v>
+        <v>342.0805382069552</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30445,7 +30677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N542"/>
+  <dimension ref="A1:N546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64197,6 +64429,294 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-34.96151905184212,173.67015940631043</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-34.9614537429951,173.6710514600185</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-34.961377658490974,173.67192382095178</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-34.96116903005484,173.67276394579324</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>-34.960980327263485,173.6736123621245</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>-34.96070709002264,173.67443763768043</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>-34.960350510683334,173.67522133114264</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>-34.95998518184463,173.6759977203226</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>-34.95949627744898,173.67664828303754</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>-34.95900299784297,173.67728419373805</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>-34.958411037624906,173.6777860117893</t>
+        </is>
+      </c>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>-34.95779017434029,173.67826676658802</t>
+        </is>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-34.961524709746115,173.67016002471334</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-34.96152809580032,173.6710608268737</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-34.96136219706246,173.67191998950045</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-34.96117681813999,173.6727669320612</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-34.960975003176685,173.6736095380535</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>-34.96069902584852,173.6744322652823</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>-34.960356941447685,173.67522588923836</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>-34.95996928206068,173.67598474511482</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>-34.95951544341097,173.67666884236817</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>-34.95900621865052,173.67728911290246</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>-34.95843034959103,173.67783134131278</t>
+        </is>
+      </c>
+      <c r="M544" t="inlineStr">
+        <is>
+          <t>-34.957780575244804,173.67823653297137</t>
+        </is>
+      </c>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-34.96144729524935,173.67015156339863</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>-34.96147688295157,173.67105437515366</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>-34.96135601249102,173.67191845692034</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>-34.961140543351405,173.67275302284006</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>-34.96093782900759,173.6735898196613</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>-34.9606581515502,173.67440503461393</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>-34.960296672494934,173.6751831709193</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>-34.95993643462065,173.67595793959052</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>-34.95948706619944,173.67663840213345</t>
+        </is>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>-34.95898926407554,173.6772632180562</t>
+        </is>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>-34.95841443586911,173.6777939882275</t>
+        </is>
+      </c>
+      <c r="M545" t="inlineStr">
+        <is>
+          <t>-34.95780190089278,173.6783037009529</t>
+        </is>
+      </c>
+      <c r="N545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-34.96162062468862,173.67017050812933</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-34.96164285383571,173.67107528395525</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-34.96162967975041,173.671986273818</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>-34.961357823532445,173.6728363370478</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>-34.961059126100416,173.67365415967075</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>-34.96074883397863,173.67446544775837</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>-34.96041620905429,173.67526789788133</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>-34.95998380250902,173.67599659469914</t>
+        </is>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>-34.9595562664151,173.67671263325647</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>-34.95906295836575,173.6773757720248</t>
+        </is>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>-34.95842566664803,173.67782034938776</t>
+        </is>
+      </c>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>-34.95776097841969,173.67817481028342</t>
+        </is>
+      </c>
+      <c r="N546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N546"/>
+  <dimension ref="A1:N551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24028,6 +24028,236 @@
         </is>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>378.4133333333333</v>
+      </c>
+      <c r="C547" t="n">
+        <v>365.23</v>
+      </c>
+      <c r="D547" t="n">
+        <v>354.2</v>
+      </c>
+      <c r="E547" t="n">
+        <v>359.8342857142857</v>
+      </c>
+      <c r="F547" t="n">
+        <v>368.8342857142857</v>
+      </c>
+      <c r="G547" t="n">
+        <v>359.6433333333333</v>
+      </c>
+      <c r="H547" t="n">
+        <v>359.6142857142857</v>
+      </c>
+      <c r="I547" t="n">
+        <v>362.4242857142857</v>
+      </c>
+      <c r="J547" t="n">
+        <v>368.3442857142857</v>
+      </c>
+      <c r="K547" t="n">
+        <v>371.4007692307693</v>
+      </c>
+      <c r="L547" t="n">
+        <v>377.15</v>
+      </c>
+      <c r="M547" t="n">
+        <v>382.1685714285715</v>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>357.9833333333333</v>
+      </c>
+      <c r="C548" t="n">
+        <v>349.61</v>
+      </c>
+      <c r="D548" t="n">
+        <v>343.03</v>
+      </c>
+      <c r="E548" t="n">
+        <v>345.5657142857143</v>
+      </c>
+      <c r="F548" t="n">
+        <v>350.4157142857143</v>
+      </c>
+      <c r="G548" t="n">
+        <v>348.2133333333333</v>
+      </c>
+      <c r="H548" t="n">
+        <v>348.8957142857143</v>
+      </c>
+      <c r="I548" t="n">
+        <v>351.9357142857143</v>
+      </c>
+      <c r="J548" t="n">
+        <v>355.7057142857143</v>
+      </c>
+      <c r="K548" t="n">
+        <v>348.0015384615385</v>
+      </c>
+      <c r="L548" t="n">
+        <v>332.53</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>372.09</v>
+      </c>
+      <c r="C549" t="n">
+        <v>363.91</v>
+      </c>
+      <c r="D549" t="n">
+        <v>356.74</v>
+      </c>
+      <c r="E549" t="n">
+        <v>364.1585714285715</v>
+      </c>
+      <c r="F549" t="n">
+        <v>372.6885714285714</v>
+      </c>
+      <c r="G549" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="H549" t="n">
+        <v>361.7685714285714</v>
+      </c>
+      <c r="I549" t="n">
+        <v>366.3285714285714</v>
+      </c>
+      <c r="J549" t="n">
+        <v>370.7385714285714</v>
+      </c>
+      <c r="K549" t="n">
+        <v>376.7807692307693</v>
+      </c>
+      <c r="L549" t="n">
+        <v>372.08</v>
+      </c>
+      <c r="M549" t="n">
+        <v>378.7771428571429</v>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>370.56</v>
+      </c>
+      <c r="C550" t="n">
+        <v>360.85</v>
+      </c>
+      <c r="D550" t="n">
+        <v>352.29</v>
+      </c>
+      <c r="E550" t="n">
+        <v>359.3657142857143</v>
+      </c>
+      <c r="F550" t="n">
+        <v>364.5057142857143</v>
+      </c>
+      <c r="G550" t="n">
+        <v>357.06</v>
+      </c>
+      <c r="H550" t="n">
+        <v>360.0157142857143</v>
+      </c>
+      <c r="I550" t="n">
+        <v>360.4557142857143</v>
+      </c>
+      <c r="J550" t="n">
+        <v>366.3257142857143</v>
+      </c>
+      <c r="K550" t="n">
+        <v>375.4623076923077</v>
+      </c>
+      <c r="L550" t="n">
+        <v>366.29</v>
+      </c>
+      <c r="M550" t="n">
+        <v>379.1014285714285</v>
+      </c>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>354.69</v>
+      </c>
+      <c r="C551" t="n">
+        <v>348.62</v>
+      </c>
+      <c r="D551" t="n">
+        <v>336.39</v>
+      </c>
+      <c r="E551" t="n">
+        <v>340.85</v>
+      </c>
+      <c r="F551" t="n">
+        <v>346.07</v>
+      </c>
+      <c r="G551" t="n">
+        <v>334.82</v>
+      </c>
+      <c r="H551" t="n">
+        <v>336.01</v>
+      </c>
+      <c r="I551" t="n">
+        <v>328.44</v>
+      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr"/>
+      <c r="N551" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24039,7 +24269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B554"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29587,6 +29817,56 @@
       </c>
       <c r="B554" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -29760,28 +30040,28 @@
         <v>0.0853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3684476553389242</v>
+        <v>0.3540423974207199</v>
       </c>
       <c r="J2" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06568388148534665</v>
+        <v>0.06159172407348512</v>
       </c>
       <c r="M2" t="n">
-        <v>8.348983768814458</v>
+        <v>8.363170321636424</v>
       </c>
       <c r="N2" t="n">
-        <v>111.0546686958033</v>
+        <v>111.1944590092005</v>
       </c>
       <c r="O2" t="n">
-        <v>10.53824789496828</v>
+        <v>10.54487833069687</v>
       </c>
       <c r="P2" t="n">
-        <v>363.8924242241853</v>
+        <v>364.0308355897495</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29838,28 +30118,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5198358586153307</v>
+        <v>0.5071702695745761</v>
       </c>
       <c r="J3" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1635536444731198</v>
+        <v>0.1584373469062398</v>
       </c>
       <c r="M3" t="n">
-        <v>6.97847171517728</v>
+        <v>6.981632410583532</v>
       </c>
       <c r="N3" t="n">
-        <v>79.14343987351458</v>
+        <v>79.20029011878643</v>
       </c>
       <c r="O3" t="n">
-        <v>8.896259881181225</v>
+        <v>8.899454484337028</v>
       </c>
       <c r="P3" t="n">
-        <v>350.1061201190007</v>
+        <v>350.2283712747265</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29916,28 +30196,28 @@
         <v>0.0992</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5247865131473836</v>
+        <v>0.5046794823391693</v>
       </c>
       <c r="J4" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07395897902231452</v>
+        <v>0.06976757957925817</v>
       </c>
       <c r="M4" t="n">
-        <v>11.29168560301065</v>
+        <v>11.27905146451953</v>
       </c>
       <c r="N4" t="n">
-        <v>194.0310823689655</v>
+        <v>193.440383373192</v>
       </c>
       <c r="O4" t="n">
-        <v>13.92950402451449</v>
+        <v>13.9082847027659</v>
       </c>
       <c r="P4" t="n">
-        <v>344.3079511406106</v>
+        <v>344.5043674385655</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29994,28 +30274,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5012278394931582</v>
+        <v>0.4867461808438239</v>
       </c>
       <c r="J5" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07766766633005728</v>
+        <v>0.07460488037478197</v>
       </c>
       <c r="M5" t="n">
-        <v>10.54997029212294</v>
+        <v>10.5264742283026</v>
       </c>
       <c r="N5" t="n">
-        <v>169.185527180604</v>
+        <v>168.7202706901033</v>
       </c>
       <c r="O5" t="n">
-        <v>13.00713370349533</v>
+        <v>12.98923672469261</v>
       </c>
       <c r="P5" t="n">
-        <v>347.8662460571952</v>
+        <v>348.0060993056655</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30072,28 +30352,28 @@
         <v>0.0795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4689955395937038</v>
+        <v>0.461652625963643</v>
       </c>
       <c r="J6" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07302571806381364</v>
+        <v>0.07190796797306309</v>
       </c>
       <c r="M6" t="n">
-        <v>10.23054802051069</v>
+        <v>10.21914862188228</v>
       </c>
       <c r="N6" t="n">
-        <v>158.9510251469092</v>
+        <v>158.5265226991771</v>
       </c>
       <c r="O6" t="n">
-        <v>12.60757808410915</v>
+        <v>12.59073161890035</v>
       </c>
       <c r="P6" t="n">
-        <v>351.888097679779</v>
+        <v>351.958858015502</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30150,28 +30430,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4375230156536741</v>
+        <v>0.4286823468634104</v>
       </c>
       <c r="J7" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06940735464749015</v>
+        <v>0.06761197366684557</v>
       </c>
       <c r="M7" t="n">
-        <v>9.598537930922173</v>
+        <v>9.59285876870312</v>
       </c>
       <c r="N7" t="n">
-        <v>145.1033997707659</v>
+        <v>145.0442178582397</v>
       </c>
       <c r="O7" t="n">
-        <v>12.04588725543975</v>
+        <v>12.0434304854655</v>
       </c>
       <c r="P7" t="n">
-        <v>346.2965042333637</v>
+        <v>346.3819910403989</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30228,28 +30508,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3833988573781917</v>
+        <v>0.3759047920567341</v>
       </c>
       <c r="J8" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05311942169132799</v>
+        <v>0.05190790022708203</v>
       </c>
       <c r="M8" t="n">
-        <v>9.472722497020211</v>
+        <v>9.457780103407091</v>
       </c>
       <c r="N8" t="n">
-        <v>143.5197819938479</v>
+        <v>143.1209628990337</v>
       </c>
       <c r="O8" t="n">
-        <v>11.97997420672715</v>
+        <v>11.96331738687199</v>
       </c>
       <c r="P8" t="n">
-        <v>346.8847419244021</v>
+        <v>346.9590649286785</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30306,28 +30586,28 @@
         <v>0.0815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3106898550952047</v>
+        <v>0.3001266086323408</v>
       </c>
       <c r="J9" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K9" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0385082403842758</v>
+        <v>0.03623995170684968</v>
       </c>
       <c r="M9" t="n">
-        <v>9.08631647472423</v>
+        <v>9.09962964433009</v>
       </c>
       <c r="N9" t="n">
-        <v>134.0428198346554</v>
+        <v>134.8655000626428</v>
       </c>
       <c r="O9" t="n">
-        <v>11.57768629021599</v>
+        <v>11.61316064052516</v>
       </c>
       <c r="P9" t="n">
-        <v>350.8672270621151</v>
+        <v>350.9710521293024</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30384,28 +30664,28 @@
         <v>0.0788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3272924788367286</v>
+        <v>0.3313377051853653</v>
       </c>
       <c r="J10" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04729897613672773</v>
+        <v>0.04917859296458882</v>
       </c>
       <c r="M10" t="n">
-        <v>8.897789464970144</v>
+        <v>8.870085393248464</v>
       </c>
       <c r="N10" t="n">
-        <v>120.4986400447295</v>
+        <v>119.7681172283742</v>
       </c>
       <c r="O10" t="n">
-        <v>10.97718725561013</v>
+        <v>10.94386208010564</v>
       </c>
       <c r="P10" t="n">
-        <v>354.4884229981096</v>
+        <v>354.44914581402</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30462,28 +30742,28 @@
         <v>0.0736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2406647802937421</v>
+        <v>0.251068850637988</v>
       </c>
       <c r="J11" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K11" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02126822228082037</v>
+        <v>0.02330646188537944</v>
       </c>
       <c r="M11" t="n">
-        <v>9.534004949127489</v>
+        <v>9.561861254630013</v>
       </c>
       <c r="N11" t="n">
-        <v>147.5424439062161</v>
+        <v>147.7574211562813</v>
       </c>
       <c r="O11" t="n">
-        <v>12.14670506377001</v>
+        <v>12.15555104288906</v>
       </c>
       <c r="P11" t="n">
-        <v>355.5744328565548</v>
+        <v>355.4734049101709</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30540,28 +30820,28 @@
         <v>0.0543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4554999882360357</v>
+        <v>0.4616426411712189</v>
       </c>
       <c r="J12" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K12" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05618953642652413</v>
+        <v>0.05790196779968537</v>
       </c>
       <c r="M12" t="n">
-        <v>11.37676058216297</v>
+        <v>11.42163736638962</v>
       </c>
       <c r="N12" t="n">
-        <v>193.8934256522582</v>
+        <v>194.9817823691212</v>
       </c>
       <c r="O12" t="n">
-        <v>13.92456195548924</v>
+        <v>13.96358773271115</v>
       </c>
       <c r="P12" t="n">
-        <v>346.7281498663298</v>
+        <v>346.6686982577958</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30618,28 +30898,28 @@
         <v>0.0395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5581617127358136</v>
+        <v>0.5984039908521375</v>
       </c>
       <c r="J13" t="n">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K13" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05563329657898675</v>
+        <v>0.06346205827395601</v>
       </c>
       <c r="M13" t="n">
-        <v>13.29415069321857</v>
+        <v>13.38024825154569</v>
       </c>
       <c r="N13" t="n">
-        <v>277.4512981587638</v>
+        <v>279.7736260462814</v>
       </c>
       <c r="O13" t="n">
-        <v>16.65686939850234</v>
+        <v>16.72643494730068</v>
       </c>
       <c r="P13" t="n">
-        <v>342.0805382069552</v>
+        <v>341.6632030875324</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30677,7 +30957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N546"/>
+  <dimension ref="A1:N551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64717,6 +64997,346 @@
         </is>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-34.96154443757002,173.6701621809444</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-34.961600206359996,173.67106991127162</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-34.96161585281837,173.67198284738407</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-34.96136188955055,173.67283789613185</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-34.96105510057223,173.6736520243934</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>-34.96078256646321,173.67448792056942</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>-34.96042869229887,173.67527674596442</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>-34.96002528949751,173.67603045067753</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>-34.959555339497506,173.67671163895008</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>-34.95901346330801,173.67730017772666</t>
+        </is>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>-34.958390399496125,173.67773756953204</t>
+        </is>
+      </c>
+      <c r="M547" t="inlineStr">
+        <is>
+          <t>-34.95770704063653,173.67800492705553</t>
+        </is>
+      </c>
+      <c r="N547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-34.96172791530777,173.67018223492795</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>-34.9617403017459,173.67108756036185</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>-34.961714540886106,173.6720073031717</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>-34.961484582556494,173.6728849419197</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>-34.961207303284894,173.67373275806264</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>-34.960872932604545,173.67454812321495</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>-34.96051216980677,173.67533591463257</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>-34.96010379397226,173.6760945153574</t>
+        </is>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>-34.95964076071187,173.67680327059043</t>
+        </is>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>-34.95914479521152,173.67750076262135</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>-34.9585753131131,173.6781716052325</t>
+        </is>
+      </c>
+      <c r="M548" t="inlineStr"/>
+      <c r="N548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-34.961601226161136,173.67016838788578</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-34.961612045406945,173.67107140274157</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-34.96159341166319,173.6719772862734</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>-34.9613247057527,173.67282363829062</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>-34.96102325049715,173.67363513003627</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>-34.96072377179376,173.67444875117405</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>-34.96041191446196,173.675264853889</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>-34.959996066833725,173.67600660315105</t>
+        </is>
+      </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>-34.95953915705966,173.67669428002174</t>
+        </is>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>-34.95898326715424,173.67725405891906</t>
+        </is>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>-34.95841141060294,173.67778688725198</t>
+        </is>
+      </c>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>-34.95771804420486,173.67803958397536</t>
+        </is>
+      </c>
+      <c r="N549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>-34.96161496678477,173.67016988972486</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>-34.96163949047014,173.67107486024182</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>-34.96163272786001,173.6719870291662</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>-34.961365918716496,173.67283944108533</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>-34.9610908699269,173.67367099768643</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>-34.960802990426274,173.67450152716324</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>-34.960425565924844,173.6752745300004</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>-34.9600400237915,173.6760424747936</t>
+        </is>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>-34.95956898256509,173.67672627389922</t>
+        </is>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>-34.95899066724279,173.677265361123</t>
+        </is>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>-34.95843540551065,173.67784320870226</t>
+        </is>
+      </c>
+      <c r="M550" t="inlineStr">
+        <is>
+          <t>-34.9577169920528,173.67803627010773</t>
+        </is>
+      </c>
+      <c r="N550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>-34.96175749207383,173.67018546765613</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>-34.96174918103069,173.67108867896832</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>-34.961773205947146,173.67202184092912</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>-34.961525132172405,173.67290049042387</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>-34.961243214286,173.67375180656882</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>-34.96097882091407,173.67461866705037</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>-34.96061252523929,173.67540704652492</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>-34.960279653701456,173.676238028714</t>
+        </is>
+      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr"/>
+      <c r="N551" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N551"/>
+  <dimension ref="A1:N552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24248,11 +24248,63 @@
       <c r="I551" t="n">
         <v>328.44</v>
       </c>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>325.26</v>
+      </c>
+      <c r="K551" t="n">
+        <v>328.4330769230769</v>
+      </c>
       <c r="L551" t="inlineStr"/>
       <c r="M551" t="inlineStr"/>
       <c r="N551" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>358.33</v>
+      </c>
+      <c r="C552" t="n">
+        <v>351.84</v>
+      </c>
+      <c r="D552" t="n">
+        <v>338.62</v>
+      </c>
+      <c r="E552" t="n">
+        <v>339.9614285714285</v>
+      </c>
+      <c r="F552" t="n">
+        <v>344.2014285714285</v>
+      </c>
+      <c r="G552" t="n">
+        <v>336.72</v>
+      </c>
+      <c r="H552" t="n">
+        <v>338.0914285714285</v>
+      </c>
+      <c r="I552" t="n">
+        <v>340.9314285714286</v>
+      </c>
+      <c r="J552" t="n">
+        <v>342.6114285714286</v>
+      </c>
+      <c r="K552" t="n">
+        <v>343.9661538461539</v>
+      </c>
+      <c r="L552" t="n">
+        <v>360.11</v>
+      </c>
+      <c r="M552" t="n">
+        <v>342.3828571428572</v>
+      </c>
+      <c r="N552" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24269,7 +24321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29867,6 +29919,16 @@
       </c>
       <c r="B559" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -30040,28 +30102,28 @@
         <v>0.0853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3540423974207199</v>
+        <v>0.3476364017719375</v>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K2" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06159172407348512</v>
+        <v>0.05952259600843812</v>
       </c>
       <c r="M2" t="n">
-        <v>8.363170321636424</v>
+        <v>8.382679339865156</v>
       </c>
       <c r="N2" t="n">
-        <v>111.1944590092005</v>
+        <v>111.4445023967452</v>
       </c>
       <c r="O2" t="n">
-        <v>10.54487833069687</v>
+        <v>10.55672782621325</v>
       </c>
       <c r="P2" t="n">
-        <v>364.0308355897495</v>
+        <v>364.0924929687267</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30118,28 +30180,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5071702695745761</v>
+        <v>0.5022309094547782</v>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K3" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1584373469062398</v>
+        <v>0.1559557938131548</v>
       </c>
       <c r="M3" t="n">
-        <v>6.981632410583532</v>
+        <v>6.994732648625306</v>
       </c>
       <c r="N3" t="n">
-        <v>79.20029011878643</v>
+        <v>79.32072548010568</v>
       </c>
       <c r="O3" t="n">
-        <v>8.899454484337028</v>
+        <v>8.906218360230435</v>
       </c>
       <c r="P3" t="n">
-        <v>350.2283712747265</v>
+        <v>350.2761423075931</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30196,28 +30258,28 @@
         <v>0.0992</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5046794823391693</v>
+        <v>0.4965368095422621</v>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K4" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06976757957925817</v>
+        <v>0.06771465912729302</v>
       </c>
       <c r="M4" t="n">
-        <v>11.27905146451953</v>
+        <v>11.3004913131591</v>
       </c>
       <c r="N4" t="n">
-        <v>193.440383373192</v>
+        <v>193.8110323560638</v>
       </c>
       <c r="O4" t="n">
-        <v>13.9082847027659</v>
+        <v>13.92160308140064</v>
       </c>
       <c r="P4" t="n">
-        <v>344.5043674385655</v>
+        <v>344.5840782094134</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30274,28 +30336,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4867461808438239</v>
+        <v>0.4780490114604057</v>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K5" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07460488037478197</v>
+        <v>0.07209005578304284</v>
       </c>
       <c r="M5" t="n">
-        <v>10.5264742283026</v>
+        <v>10.55113903389532</v>
       </c>
       <c r="N5" t="n">
-        <v>168.7202706901033</v>
+        <v>169.2850284867756</v>
       </c>
       <c r="O5" t="n">
-        <v>12.98923672469261</v>
+        <v>13.01095801571797</v>
       </c>
       <c r="P5" t="n">
-        <v>348.0060993056655</v>
+        <v>348.090258557475</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30352,28 +30414,28 @@
         <v>0.0795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.461652625963643</v>
+        <v>0.4534058755096437</v>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K6" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07190796797306309</v>
+        <v>0.06948857191780289</v>
       </c>
       <c r="M6" t="n">
-        <v>10.21914862188228</v>
+        <v>10.24138739995541</v>
       </c>
       <c r="N6" t="n">
-        <v>158.5265226991771</v>
+        <v>159.0283896719519</v>
       </c>
       <c r="O6" t="n">
-        <v>12.59073161890035</v>
+        <v>12.61064588639106</v>
       </c>
       <c r="P6" t="n">
-        <v>351.958858015502</v>
+        <v>352.038424128478</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30430,28 +30492,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4286823468634104</v>
+        <v>0.4200437321208484</v>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K7" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06761197366684557</v>
+        <v>0.06497717859945962</v>
       </c>
       <c r="M7" t="n">
-        <v>9.59285876870312</v>
+        <v>9.620423488244416</v>
       </c>
       <c r="N7" t="n">
-        <v>145.0442178582397</v>
+        <v>145.6612532979377</v>
       </c>
       <c r="O7" t="n">
-        <v>12.0434304854655</v>
+        <v>12.06902039512477</v>
       </c>
       <c r="P7" t="n">
-        <v>346.3819910403989</v>
+        <v>346.465618302328</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30508,28 +30570,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3759047920567341</v>
+        <v>0.3680308580036077</v>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K8" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05190790022708203</v>
+        <v>0.04983275222224559</v>
       </c>
       <c r="M8" t="n">
-        <v>9.457780103407091</v>
+        <v>9.479303455916053</v>
       </c>
       <c r="N8" t="n">
-        <v>143.1209628990337</v>
+        <v>143.5579546179611</v>
       </c>
       <c r="O8" t="n">
-        <v>11.96331738687199</v>
+        <v>11.98156728554162</v>
       </c>
       <c r="P8" t="n">
-        <v>346.9590649286785</v>
+        <v>347.037224156704</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30586,28 +30648,28 @@
         <v>0.0815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3001266086323408</v>
+        <v>0.2926013172544896</v>
       </c>
       <c r="J9" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K9" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03623995170684968</v>
+        <v>0.03448861361091171</v>
       </c>
       <c r="M9" t="n">
-        <v>9.09962964433009</v>
+        <v>9.120933742668072</v>
       </c>
       <c r="N9" t="n">
-        <v>134.8655000626428</v>
+        <v>135.2626456570113</v>
       </c>
       <c r="O9" t="n">
-        <v>11.61316064052516</v>
+        <v>11.63024701616484</v>
       </c>
       <c r="P9" t="n">
-        <v>350.9710521293024</v>
+        <v>351.0450682238479</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30664,28 +30726,28 @@
         <v>0.0788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3313377051853653</v>
+        <v>0.3065080467775825</v>
       </c>
       <c r="J10" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K10" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04917859296458882</v>
+        <v>0.04143127315672313</v>
       </c>
       <c r="M10" t="n">
-        <v>8.870085393248464</v>
+        <v>8.968354574989174</v>
       </c>
       <c r="N10" t="n">
-        <v>119.7681172283742</v>
+        <v>123.2612845736059</v>
       </c>
       <c r="O10" t="n">
-        <v>10.94386208010564</v>
+        <v>11.10230987558922</v>
       </c>
       <c r="P10" t="n">
-        <v>354.44914581402</v>
+        <v>354.6906624686651</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30742,28 +30804,28 @@
         <v>0.0736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.251068850637988</v>
+        <v>0.2294220902406621</v>
       </c>
       <c r="J11" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K11" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02330646188537944</v>
+        <v>0.01932164635234068</v>
       </c>
       <c r="M11" t="n">
-        <v>9.561861254630013</v>
+        <v>9.634468506577582</v>
       </c>
       <c r="N11" t="n">
-        <v>147.7574211562813</v>
+        <v>150.1872844290328</v>
       </c>
       <c r="O11" t="n">
-        <v>12.15555104288906</v>
+        <v>12.25509218362036</v>
       </c>
       <c r="P11" t="n">
-        <v>355.4734049101709</v>
+        <v>355.6839365361901</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30820,28 +30882,28 @@
         <v>0.0543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4616426411712189</v>
+        <v>0.4622944429063633</v>
       </c>
       <c r="J12" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K12" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05790196779968537</v>
+        <v>0.05831920105696631</v>
       </c>
       <c r="M12" t="n">
-        <v>11.42163736638962</v>
+        <v>11.39960263433857</v>
       </c>
       <c r="N12" t="n">
-        <v>194.9817823691212</v>
+        <v>194.5553573175469</v>
       </c>
       <c r="O12" t="n">
-        <v>13.96358773271115</v>
+        <v>13.9483101957745</v>
       </c>
       <c r="P12" t="n">
-        <v>346.6686982577958</v>
+        <v>346.6623729141705</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30898,28 +30960,28 @@
         <v>0.0395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5984039908521375</v>
+        <v>0.5900179300240572</v>
       </c>
       <c r="J13" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K13" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06346205827395601</v>
+        <v>0.06201627320589997</v>
       </c>
       <c r="M13" t="n">
-        <v>13.38024825154569</v>
+        <v>13.38343691704701</v>
       </c>
       <c r="N13" t="n">
-        <v>279.7736260462814</v>
+        <v>279.5867946313019</v>
       </c>
       <c r="O13" t="n">
-        <v>16.72643494730068</v>
+        <v>16.72084910018932</v>
       </c>
       <c r="P13" t="n">
-        <v>341.6632030875324</v>
+        <v>341.7504125148355</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30957,7 +31019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N551"/>
+  <dimension ref="A1:N552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44415,7 +44477,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-34.961718825909486,173.6720083650403</t>
+          <t>-34.96171882590948,173.6720083650403</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -47451,7 +47513,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>-34.96172757265818,173.67201053256628</t>
+          <t>-34.961727572658184,173.67201053256628</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -53298,7 +53360,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>-34.95908606957071,173.6774110700563</t>
+          <t>-34.959086069570716,173.6774110700563</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -60174,7 +60236,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>-34.961762813871964,173.67109039642523</t>
+          <t>-34.96176281387197,173.67109039642523</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -65327,11 +65389,91 @@
           <t>-34.960279653701456,173.676238028714</t>
         </is>
       </c>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>-34.959846536035336,173.67702400761308</t>
+        </is>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>-34.9592546260514,173.677668509557</t>
+        </is>
+      </c>
       <c r="L551" t="inlineStr"/>
       <c r="M551" t="inlineStr"/>
       <c r="N551" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>-34.96172480196395,173.6701818946409</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>-34.96172030093257,173.67108504067346</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>-34.961753503675425,173.67201695851725</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>-34.96153277284497,173.67290342019527</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>-34.96125865530715,173.67375999705598</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>-34.96096379942937,173.67460865957625</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>-34.96059631483602,173.67539555658325</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>-34.960186158407474,173.6761617301761</t>
+        </is>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>-34.95972926191842,173.6768982064323</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>-34.95916744441483,173.67753535515624</t>
+        </is>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>-34.95846101662631,173.67790332386122</t>
+        </is>
+      </c>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>-34.95783612567496,173.67841149680285</t>
+        </is>
+      </c>
+      <c r="N552" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N552"/>
+  <dimension ref="A1:N555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24310,6 +24310,150 @@
         </is>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>367.7933333333334</v>
+      </c>
+      <c r="C553" t="n">
+        <v>357.3</v>
+      </c>
+      <c r="D553" t="n">
+        <v>343.55</v>
+      </c>
+      <c r="E553" t="n">
+        <v>346.1057142857143</v>
+      </c>
+      <c r="F553" t="n">
+        <v>349.8457142857143</v>
+      </c>
+      <c r="G553" t="n">
+        <v>340.7533333333333</v>
+      </c>
+      <c r="H553" t="n">
+        <v>338.6057142857143</v>
+      </c>
+      <c r="I553" t="n">
+        <v>344.7957142857143</v>
+      </c>
+      <c r="J553" t="n">
+        <v>348.5857142857143</v>
+      </c>
+      <c r="K553" t="n">
+        <v>346.4784615384615</v>
+      </c>
+      <c r="L553" t="n">
+        <v>346.78</v>
+      </c>
+      <c r="M553" t="n">
+        <v>345.4514285714285</v>
+      </c>
+      <c r="N553" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>373.42</v>
+      </c>
+      <c r="C554" t="n">
+        <v>367.9</v>
+      </c>
+      <c r="D554" t="n">
+        <v>339.96</v>
+      </c>
+      <c r="E554" t="n">
+        <v>347.9842857142857</v>
+      </c>
+      <c r="F554" t="n">
+        <v>351.7642857142857</v>
+      </c>
+      <c r="G554" t="n">
+        <v>344.08</v>
+      </c>
+      <c r="H554" t="n">
+        <v>343.3142857142857</v>
+      </c>
+      <c r="I554" t="n">
+        <v>347.2542857142857</v>
+      </c>
+      <c r="J554" t="n">
+        <v>345.5842857142857</v>
+      </c>
+      <c r="K554" t="n">
+        <v>350.8876923076923</v>
+      </c>
+      <c r="L554" t="n">
+        <v>336.59</v>
+      </c>
+      <c r="M554" t="n">
+        <v>348.6185714285714</v>
+      </c>
+      <c r="N554" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>359.08</v>
+      </c>
+      <c r="C555" t="n">
+        <v>357.825</v>
+      </c>
+      <c r="D555" t="n">
+        <v>339.525</v>
+      </c>
+      <c r="E555" t="n">
+        <v>352.3442857142857</v>
+      </c>
+      <c r="F555" t="n">
+        <v>364.0642857142857</v>
+      </c>
+      <c r="G555" t="n">
+        <v>357.62</v>
+      </c>
+      <c r="H555" t="n">
+        <v>351.3942857142857</v>
+      </c>
+      <c r="I555" t="n">
+        <v>358.9542857142857</v>
+      </c>
+      <c r="J555" t="n">
+        <v>356.3642857142857</v>
+      </c>
+      <c r="K555" t="n">
+        <v>348.3323076923077</v>
+      </c>
+      <c r="L555" t="n">
+        <v>354.9299999999999</v>
+      </c>
+      <c r="M555" t="n">
+        <v>374.7585714285714</v>
+      </c>
+      <c r="N555" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24321,7 +24465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B560"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29929,6 +30073,36 @@
       </c>
       <c r="B560" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -30102,28 +30276,28 @@
         <v>0.0853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3476364017719375</v>
+        <v>0.3395968718022816</v>
       </c>
       <c r="J2" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K2" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05952259600843812</v>
+        <v>0.05745907172430609</v>
       </c>
       <c r="M2" t="n">
-        <v>8.382679339865156</v>
+        <v>8.375413771119314</v>
       </c>
       <c r="N2" t="n">
-        <v>111.4445023967452</v>
+        <v>111.1866419903943</v>
       </c>
       <c r="O2" t="n">
-        <v>10.55672782621325</v>
+        <v>10.54450766941702</v>
       </c>
       <c r="P2" t="n">
-        <v>364.0924929687267</v>
+        <v>364.1700034515789</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30180,28 +30354,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5022309094547782</v>
+        <v>0.499362379323373</v>
       </c>
       <c r="J3" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K3" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1559557938131548</v>
+        <v>0.1559351135341154</v>
       </c>
       <c r="M3" t="n">
-        <v>6.994732648625306</v>
+        <v>6.984883898730687</v>
       </c>
       <c r="N3" t="n">
-        <v>79.32072548010568</v>
+        <v>78.97415469167878</v>
       </c>
       <c r="O3" t="n">
-        <v>8.906218360230435</v>
+        <v>8.886740386197786</v>
       </c>
       <c r="P3" t="n">
-        <v>350.2761423075931</v>
+        <v>350.3039174880848</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30258,28 +30432,28 @@
         <v>0.0992</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4965368095422621</v>
+        <v>0.4757325614238653</v>
       </c>
       <c r="J4" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K4" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06771465912729302</v>
+        <v>0.06276359200838222</v>
       </c>
       <c r="M4" t="n">
-        <v>11.3004913131591</v>
+        <v>11.34418146635618</v>
       </c>
       <c r="N4" t="n">
-        <v>193.8110323560638</v>
+        <v>194.311923877674</v>
       </c>
       <c r="O4" t="n">
-        <v>13.92160308140064</v>
+        <v>13.93958119448622</v>
       </c>
       <c r="P4" t="n">
-        <v>344.5840782094134</v>
+        <v>344.787986523381</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30336,28 +30510,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4780490114604057</v>
+        <v>0.46358356421749</v>
       </c>
       <c r="J5" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K5" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07209005578304284</v>
+        <v>0.06860675746327782</v>
       </c>
       <c r="M5" t="n">
-        <v>10.55113903389532</v>
+        <v>10.56214805333065</v>
       </c>
       <c r="N5" t="n">
-        <v>169.2850284867756</v>
+        <v>169.090278959397</v>
       </c>
       <c r="O5" t="n">
-        <v>13.01095801571797</v>
+        <v>13.0034718040759</v>
       </c>
       <c r="P5" t="n">
-        <v>348.090258557475</v>
+        <v>348.2303681736217</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30414,28 +30588,28 @@
         <v>0.0795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4534058755096437</v>
+        <v>0.4428699795521338</v>
       </c>
       <c r="J6" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K6" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06948857191780289</v>
+        <v>0.06706810609857394</v>
       </c>
       <c r="M6" t="n">
-        <v>10.24138739995541</v>
+        <v>10.23310235203296</v>
       </c>
       <c r="N6" t="n">
-        <v>159.0283896719519</v>
+        <v>158.7133835058271</v>
       </c>
       <c r="O6" t="n">
-        <v>12.61064588639106</v>
+        <v>12.59815000330712</v>
       </c>
       <c r="P6" t="n">
-        <v>352.038424128478</v>
+        <v>352.1401324354355</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30492,28 +30666,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4200437321208484</v>
+        <v>0.4079676379467563</v>
       </c>
       <c r="J7" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K7" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06497717859945962</v>
+        <v>0.06192040998977655</v>
       </c>
       <c r="M7" t="n">
-        <v>9.620423488244416</v>
+        <v>9.627970108627856</v>
       </c>
       <c r="N7" t="n">
-        <v>145.6612532979377</v>
+        <v>145.6784553475972</v>
       </c>
       <c r="O7" t="n">
-        <v>12.06902039512477</v>
+        <v>12.06973302718818</v>
       </c>
       <c r="P7" t="n">
-        <v>346.465618302328</v>
+        <v>346.5825845134315</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30570,28 +30744,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3680308580036077</v>
+        <v>0.3529072784008706</v>
       </c>
       <c r="J8" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K8" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04983275222224559</v>
+        <v>0.04625945047637736</v>
       </c>
       <c r="M8" t="n">
-        <v>9.479303455916053</v>
+        <v>9.498322688725155</v>
       </c>
       <c r="N8" t="n">
-        <v>143.5579546179611</v>
+        <v>143.7427247251785</v>
       </c>
       <c r="O8" t="n">
-        <v>11.98156728554162</v>
+        <v>11.98927540450959</v>
       </c>
       <c r="P8" t="n">
-        <v>347.037224156704</v>
+        <v>347.1874570182011</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30648,28 +30822,28 @@
         <v>0.0815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2926013172544896</v>
+        <v>0.2822942900203667</v>
       </c>
       <c r="J9" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K9" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03448861361091171</v>
+        <v>0.03244214469333873</v>
       </c>
       <c r="M9" t="n">
-        <v>9.120933742668072</v>
+        <v>9.119574931069819</v>
       </c>
       <c r="N9" t="n">
-        <v>135.2626456570113</v>
+        <v>135.0659793028328</v>
       </c>
       <c r="O9" t="n">
-        <v>11.63024701616484</v>
+        <v>11.62178898891358</v>
       </c>
       <c r="P9" t="n">
-        <v>351.0450682238479</v>
+        <v>351.1464978093304</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30726,28 +30900,28 @@
         <v>0.0788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3065080467775825</v>
+        <v>0.2908462278068763</v>
       </c>
       <c r="J10" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K10" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04143127315672313</v>
+        <v>0.03762888188736968</v>
       </c>
       <c r="M10" t="n">
-        <v>8.968354574989174</v>
+        <v>8.997592998601757</v>
       </c>
       <c r="N10" t="n">
-        <v>123.2612845736059</v>
+        <v>123.585202583877</v>
       </c>
       <c r="O10" t="n">
-        <v>11.10230987558922</v>
+        <v>11.11688816998161</v>
       </c>
       <c r="P10" t="n">
-        <v>354.6906624686651</v>
+        <v>354.8432313232684</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30804,28 +30978,28 @@
         <v>0.0736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2294220902406621</v>
+        <v>0.2132461951935881</v>
       </c>
       <c r="J11" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K11" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01932164635234068</v>
+        <v>0.0168450951521989</v>
       </c>
       <c r="M11" t="n">
-        <v>9.634468506577582</v>
+        <v>9.658279136951492</v>
       </c>
       <c r="N11" t="n">
-        <v>150.1872844290328</v>
+        <v>150.3158866578434</v>
       </c>
       <c r="O11" t="n">
-        <v>12.25509218362036</v>
+        <v>12.26033795039286</v>
       </c>
       <c r="P11" t="n">
-        <v>355.6839365361901</v>
+        <v>355.8415159807736</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30882,28 +31056,28 @@
         <v>0.0543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4622944429063633</v>
+        <v>0.4462843959417048</v>
       </c>
       <c r="J12" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K12" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05831920105696631</v>
+        <v>0.05493569331845594</v>
       </c>
       <c r="M12" t="n">
-        <v>11.39960263433857</v>
+        <v>11.40758159800172</v>
       </c>
       <c r="N12" t="n">
-        <v>194.5553573175469</v>
+        <v>194.6571254072323</v>
       </c>
       <c r="O12" t="n">
-        <v>13.9483101957745</v>
+        <v>13.95195776252323</v>
       </c>
       <c r="P12" t="n">
-        <v>346.6623729141705</v>
+        <v>346.8178727344906</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30960,28 +31134,28 @@
         <v>0.0395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5900179300240572</v>
+        <v>0.588805678147987</v>
       </c>
       <c r="J13" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K13" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06201627320589997</v>
+        <v>0.06247420299555062</v>
       </c>
       <c r="M13" t="n">
-        <v>13.38343691704701</v>
+        <v>13.37620442222406</v>
       </c>
       <c r="N13" t="n">
-        <v>279.5867946313019</v>
+        <v>278.6580062600103</v>
       </c>
       <c r="O13" t="n">
-        <v>16.72084910018932</v>
+        <v>16.6930526345546</v>
       </c>
       <c r="P13" t="n">
-        <v>341.7504125148355</v>
+        <v>341.7628599246065</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31019,7 +31193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N552"/>
+  <dimension ref="A1:N555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65479,6 +65653,222 @@
         </is>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>-34.96163981366401,173.6701726054701</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>-34.961671330330724,173.67107887139716</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>-34.96170994663424,173.67200616467352</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>-34.961479939189225,173.67288316144976</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>-34.961212013505154,173.67373525653437</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>-34.9609319117133,173.67458741565218</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>-34.96059230951999,173.67539271761413</t>
+        </is>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>-34.96015723516168,173.67613812687827</t>
+        </is>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>-34.9596888831319,173.67685489179962</t>
+        </is>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>-34.95915334371111,173.6775138188942</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>-34.958516258622204,173.67803298985612</t>
+        </is>
+      </c>
+      <c r="M553" t="inlineStr">
+        <is>
+          <t>-34.95782616972178,173.67838013906277</t>
+        </is>
+      </c>
+      <c r="N553" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>-34.96158928169741,173.67016708236596</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>-34.96157625919672,173.67106689443614</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-34.96174166464206,173.67201402469243</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>-34.96146378567589,173.67287696748843</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>-34.96119615930489,173.67372684689255</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>-34.960905610932834,173.6745698938166</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>-34.96055563862329,173.67536672528777</t>
+        </is>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>-34.960138833345454,173.67612310977952</t>
+        </is>
+      </c>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>-34.95970916908095,173.6768766526846</t>
+        </is>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>-34.959128596232574,173.67747602165107</t>
+        </is>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>-34.958558487779825,173.6781321119894</t>
+        </is>
+      </c>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>-34.95781589394585,173.6783477740288</t>
+        </is>
+      </c>
+      <c r="N554" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>-34.96171806636435,173.6701811584431</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>-34.961666621618974,173.6710782781979</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>-34.961745507910365,173.67201497709067</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>-34.96142629478261,173.67286259185548</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>-34.96109451769259,173.67367293258755</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>-34.960798563038296,173.67449857760425</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>-34.960492710638405,173.6753221220054</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>-34.96005126163025,173.67605164558458</t>
+        </is>
+      </c>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>-34.95963630957996,173.67679849583877</t>
+        </is>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>-34.95914293871899,173.6774979271685</t>
+        </is>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>-34.95848248352518,173.67795371167674</t>
+        </is>
+      </c>
+      <c r="M555" t="inlineStr">
+        <is>
+          <t>-34.9577310825397,173.6780806496634</t>
+        </is>
+      </c>
+      <c r="N555" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N555"/>
+  <dimension ref="A1:N560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24454,6 +24454,242 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>363.8066666666667</v>
+      </c>
+      <c r="C556" t="n">
+        <v>356.41</v>
+      </c>
+      <c r="D556" t="n">
+        <v>342.22</v>
+      </c>
+      <c r="E556" t="n">
+        <v>353.5585714285714</v>
+      </c>
+      <c r="F556" t="n">
+        <v>362.4685714285715</v>
+      </c>
+      <c r="G556" t="n">
+        <v>360.1966666666667</v>
+      </c>
+      <c r="H556" t="n">
+        <v>352.1285714285714</v>
+      </c>
+      <c r="I556" t="n">
+        <v>355.8085714285714</v>
+      </c>
+      <c r="J556" t="n">
+        <v>357.4285714285714</v>
+      </c>
+      <c r="K556" t="n">
+        <v>349.7915384615384</v>
+      </c>
+      <c r="L556" t="n">
+        <v>337.45</v>
+      </c>
+      <c r="M556" t="n">
+        <v>333.2371428571428</v>
+      </c>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>371.7233333333334</v>
+      </c>
+      <c r="C557" t="n">
+        <v>362.485</v>
+      </c>
+      <c r="D557" t="n">
+        <v>342.315</v>
+      </c>
+      <c r="E557" t="n">
+        <v>347.7414285714286</v>
+      </c>
+      <c r="F557" t="n">
+        <v>354.3314285714285</v>
+      </c>
+      <c r="G557" t="n">
+        <v>347.3133333333333</v>
+      </c>
+      <c r="H557" t="n">
+        <v>349.1214285714286</v>
+      </c>
+      <c r="I557" t="n">
+        <v>348.8514285714285</v>
+      </c>
+      <c r="J557" t="n">
+        <v>351.6914285714286</v>
+      </c>
+      <c r="K557" t="n">
+        <v>348.6176923076923</v>
+      </c>
+      <c r="L557" t="n">
+        <v>342.22</v>
+      </c>
+      <c r="M557" t="n">
+        <v>352.8828571428572</v>
+      </c>
+      <c r="N557" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>366.8733333333333</v>
+      </c>
+      <c r="C558" t="n">
+        <v>360.22</v>
+      </c>
+      <c r="D558" t="n">
+        <v>338.26</v>
+      </c>
+      <c r="E558" t="n">
+        <v>343.2042857142857</v>
+      </c>
+      <c r="F558" t="n">
+        <v>345.9542857142857</v>
+      </c>
+      <c r="G558" t="n">
+        <v>340.7233333333333</v>
+      </c>
+      <c r="H558" t="n">
+        <v>340.1842857142857</v>
+      </c>
+      <c r="I558" t="n">
+        <v>345.7142857142857</v>
+      </c>
+      <c r="J558" t="n">
+        <v>343.4942857142857</v>
+      </c>
+      <c r="K558" t="n">
+        <v>347.4638461538461</v>
+      </c>
+      <c r="L558" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="M558" t="n">
+        <v>320.9285714285714</v>
+      </c>
+      <c r="N558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>350.6966666666667</v>
+      </c>
+      <c r="C559" t="n">
+        <v>348.985</v>
+      </c>
+      <c r="D559" t="n">
+        <v>332.855</v>
+      </c>
+      <c r="E559" t="n">
+        <v>341.55</v>
+      </c>
+      <c r="F559" t="n">
+        <v>339.85</v>
+      </c>
+      <c r="G559" t="n">
+        <v>335.5366666666667</v>
+      </c>
+      <c r="H559" t="n">
+        <v>336.05</v>
+      </c>
+      <c r="I559" t="n">
+        <v>337.65</v>
+      </c>
+      <c r="J559" t="n">
+        <v>340.45</v>
+      </c>
+      <c r="K559" t="n">
+        <v>346.3346153846153</v>
+      </c>
+      <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr"/>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>365.45</v>
+      </c>
+      <c r="C560" t="n">
+        <v>359.12</v>
+      </c>
+      <c r="D560" t="n">
+        <v>337.53</v>
+      </c>
+      <c r="E560" t="n">
+        <v>341.73</v>
+      </c>
+      <c r="F560" t="n">
+        <v>348.11</v>
+      </c>
+      <c r="G560" t="n">
+        <v>348.7</v>
+      </c>
+      <c r="H560" t="n">
+        <v>349.03</v>
+      </c>
+      <c r="I560" t="n">
+        <v>345.88</v>
+      </c>
+      <c r="J560" t="n">
+        <v>347.48</v>
+      </c>
+      <c r="K560" t="n">
+        <v>348.1284615384615</v>
+      </c>
+      <c r="L560" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="M560" t="n">
+        <v>352.63</v>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24465,7 +24701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30103,6 +30339,56 @@
       </c>
       <c r="B563" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -30276,28 +30562,28 @@
         <v>0.0853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3395968718022816</v>
+        <v>0.3205089264982213</v>
       </c>
       <c r="J2" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K2" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05745907172430609</v>
+        <v>0.05194748743015987</v>
       </c>
       <c r="M2" t="n">
-        <v>8.375413771119314</v>
+        <v>8.397545661909993</v>
       </c>
       <c r="N2" t="n">
-        <v>111.1866419903943</v>
+        <v>111.4286119516837</v>
       </c>
       <c r="O2" t="n">
-        <v>10.54450766941702</v>
+        <v>10.55597517767467</v>
       </c>
       <c r="P2" t="n">
-        <v>364.1700034515789</v>
+        <v>364.3546327792596</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30354,28 +30640,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.499362379323373</v>
+        <v>0.4874339997154296</v>
       </c>
       <c r="J3" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K3" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1559351135341154</v>
+        <v>0.1515419501087354</v>
       </c>
       <c r="M3" t="n">
-        <v>6.984883898730687</v>
+        <v>6.976428761584001</v>
       </c>
       <c r="N3" t="n">
-        <v>78.97415469167878</v>
+        <v>78.69711877805732</v>
       </c>
       <c r="O3" t="n">
-        <v>8.886740386197786</v>
+        <v>8.871139654974288</v>
       </c>
       <c r="P3" t="n">
-        <v>350.3039174880848</v>
+        <v>350.4198430922226</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30432,28 +30718,28 @@
         <v>0.0992</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4757325614238653</v>
+        <v>0.4377514455167358</v>
       </c>
       <c r="J4" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K4" t="n">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06276359200838222</v>
+        <v>0.05379113964143489</v>
       </c>
       <c r="M4" t="n">
-        <v>11.34418146635618</v>
+        <v>11.43790969227876</v>
       </c>
       <c r="N4" t="n">
-        <v>194.311923877674</v>
+        <v>195.9764785336532</v>
       </c>
       <c r="O4" t="n">
-        <v>13.93958119448622</v>
+        <v>13.99915992242582</v>
       </c>
       <c r="P4" t="n">
-        <v>344.787986523381</v>
+        <v>345.1614764402549</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30510,28 +30796,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.46358356421749</v>
+        <v>0.4339605714752233</v>
       </c>
       <c r="J5" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K5" t="n">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06860675746327782</v>
+        <v>0.06105241226095792</v>
       </c>
       <c r="M5" t="n">
-        <v>10.56214805333065</v>
+        <v>10.6115755945551</v>
       </c>
       <c r="N5" t="n">
-        <v>169.090278959397</v>
+        <v>169.757750131348</v>
       </c>
       <c r="O5" t="n">
-        <v>13.0034718040759</v>
+        <v>13.02911164014447</v>
       </c>
       <c r="P5" t="n">
-        <v>348.2303681736217</v>
+        <v>348.5183629701299</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30588,28 +30874,28 @@
         <v>0.0795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4428699795521338</v>
+        <v>0.4158567496273896</v>
       </c>
       <c r="J6" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K6" t="n">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06706810609857394</v>
+        <v>0.05994328133829463</v>
       </c>
       <c r="M6" t="n">
-        <v>10.23310235203296</v>
+        <v>10.26892476483083</v>
       </c>
       <c r="N6" t="n">
-        <v>158.7133835058271</v>
+        <v>159.5491976795815</v>
       </c>
       <c r="O6" t="n">
-        <v>12.59815000330712</v>
+        <v>12.63127854492891</v>
       </c>
       <c r="P6" t="n">
-        <v>352.1401324354355</v>
+        <v>352.4020501583115</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30666,28 +30952,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4079676379467563</v>
+        <v>0.3867028183807176</v>
       </c>
       <c r="J7" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K7" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06192040998977655</v>
+        <v>0.05644949584479408</v>
       </c>
       <c r="M7" t="n">
-        <v>9.627970108627856</v>
+        <v>9.661255113312148</v>
       </c>
       <c r="N7" t="n">
-        <v>145.6784553475972</v>
+        <v>146.0436035299939</v>
       </c>
       <c r="O7" t="n">
-        <v>12.06973302718818</v>
+        <v>12.08485016580652</v>
       </c>
       <c r="P7" t="n">
-        <v>346.5825845134315</v>
+        <v>346.7894405127615</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30744,28 +31030,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3529072784008706</v>
+        <v>0.3305413037050638</v>
       </c>
       <c r="J8" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K8" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04625945047637736</v>
+        <v>0.04122425520150563</v>
       </c>
       <c r="M8" t="n">
-        <v>9.498322688725155</v>
+        <v>9.516316782712066</v>
       </c>
       <c r="N8" t="n">
-        <v>143.7427247251785</v>
+        <v>143.8678812669405</v>
       </c>
       <c r="O8" t="n">
-        <v>11.98927540450959</v>
+        <v>11.99449378952445</v>
       </c>
       <c r="P8" t="n">
-        <v>347.1874570182011</v>
+        <v>347.4104494100787</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30822,28 +31108,28 @@
         <v>0.0815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2822942900203667</v>
+        <v>0.2586543952087348</v>
       </c>
       <c r="J9" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K9" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03244214469333873</v>
+        <v>0.02761046395476008</v>
       </c>
       <c r="M9" t="n">
-        <v>9.119574931069819</v>
+        <v>9.149702041335967</v>
       </c>
       <c r="N9" t="n">
-        <v>135.0659793028328</v>
+        <v>135.407260614495</v>
       </c>
       <c r="O9" t="n">
-        <v>11.62178898891358</v>
+        <v>11.63646254729052</v>
       </c>
       <c r="P9" t="n">
-        <v>351.1464978093304</v>
+        <v>351.3801217663515</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30900,28 +31186,28 @@
         <v>0.0788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2908462278068763</v>
+        <v>0.2616858381649944</v>
       </c>
       <c r="J10" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K10" t="n">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03762888188736968</v>
+        <v>0.03074412859295228</v>
       </c>
       <c r="M10" t="n">
-        <v>8.997592998601757</v>
+        <v>9.064115707754302</v>
       </c>
       <c r="N10" t="n">
-        <v>123.585202583877</v>
+        <v>124.7777926976016</v>
       </c>
       <c r="O10" t="n">
-        <v>11.11688816998161</v>
+        <v>11.1703980545727</v>
       </c>
       <c r="P10" t="n">
-        <v>354.8432313232684</v>
+        <v>355.1283405880357</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30978,28 +31264,28 @@
         <v>0.0736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2132461951935881</v>
+        <v>0.1865049418469297</v>
       </c>
       <c r="J11" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K11" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0168450951521989</v>
+        <v>0.01306882041653545</v>
       </c>
       <c r="M11" t="n">
-        <v>9.658279136951492</v>
+        <v>9.698533970589367</v>
       </c>
       <c r="N11" t="n">
-        <v>150.3158866578434</v>
+        <v>150.5513072798455</v>
       </c>
       <c r="O11" t="n">
-        <v>12.26033795039286</v>
+        <v>12.26993509680656</v>
       </c>
       <c r="P11" t="n">
-        <v>355.8415159807736</v>
+        <v>356.1028251725024</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31056,28 +31342,28 @@
         <v>0.0543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4462843959417048</v>
+        <v>0.4117925569821426</v>
       </c>
       <c r="J12" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K12" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05493569331845594</v>
+        <v>0.04714130301050501</v>
       </c>
       <c r="M12" t="n">
-        <v>11.40758159800172</v>
+        <v>11.4899215715166</v>
       </c>
       <c r="N12" t="n">
-        <v>194.6571254072323</v>
+        <v>196.6573925308331</v>
       </c>
       <c r="O12" t="n">
-        <v>13.95195776252323</v>
+        <v>14.02345865080484</v>
       </c>
       <c r="P12" t="n">
-        <v>346.8178727344906</v>
+        <v>347.1538810275003</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31134,28 +31420,28 @@
         <v>0.0395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.588805678147987</v>
+        <v>0.551935090359635</v>
       </c>
       <c r="J13" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K13" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06247420299555062</v>
+        <v>0.05548423621383292</v>
       </c>
       <c r="M13" t="n">
-        <v>13.37620442222406</v>
+        <v>13.41519911262243</v>
       </c>
       <c r="N13" t="n">
-        <v>278.6580062600103</v>
+        <v>280.8133976413215</v>
       </c>
       <c r="O13" t="n">
-        <v>16.6930526345546</v>
+        <v>16.7574878081806</v>
       </c>
       <c r="P13" t="n">
-        <v>341.7628599246065</v>
+        <v>342.1474840694067</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31193,7 +31479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N555"/>
+  <dimension ref="A1:N560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65869,6 +66155,358 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>-34.96167561711855,173.6701765187639</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>-34.96167931271827,173.67107987701124</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>-34.9617216973169,173.67200907660182</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>-34.961415853347354,173.67285858815927</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>-34.961107703952074,173.6736799270374</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>-34.96077819178187,173.67448500612568</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>-34.960486991934516,173.67531806859878</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>-34.96007480655738,173.67607085975237</t>
+        </is>
+      </c>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>-34.95962911631866,173.67679077959264</t>
+        </is>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>-34.95913474856394,173.67748541820714</t>
+        </is>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>-34.9585549237913,173.67812374642767</t>
+        </is>
+      </c>
+      <c r="M556" t="inlineStr">
+        <is>
+          <t>-34.957865798816414,173.67850495692727</t>
+        </is>
+      </c>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>-34.96160451912106,173.6701687478036</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>-34.961624826196214,173.67107301285168</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>-34.96172085798242,173.6720088686069</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>-34.961465873962815,173.67287776822855</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>-34.961174945604775,173.6737155943836</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>-34.96088004804737,173.6745528635864</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>-34.960510411917426,173.67533466864313</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>-34.960126879113965,173.6761133543407</t>
+        </is>
+      </c>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>-34.95966789233594,173.67683237483615</t>
+        </is>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>-34.95914133695446,173.67749548076625</t>
+        </is>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>-34.95853515607681,173.67807734675512</t>
+        </is>
+      </c>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>-34.957802058482734,173.67830419730416</t>
+        </is>
+      </c>
+      <c r="N557" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>-34.9616480759997,173.67017350853757</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>-34.9616451409243,173.6710755720804</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>-34.96175668431124,173.67201774670914</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>-34.96150488807486,173.67289272794542</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>-34.96124417049606,173.6737523137778</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>-34.96093214889466,173.6745875736648</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>-34.96058001542453,173.67538400355795</t>
+        </is>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>-34.96015035987555,173.6761325161892</t>
+        </is>
+      </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>-34.95972329489647,173.6768918055585</t>
+        </is>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>-34.95914781309108,173.677505371881</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>-34.95855989679838,173.67813541930474</t>
+        </is>
+      </c>
+      <c r="M558" t="inlineStr">
+        <is>
+          <t>-34.95790573368844,173.6786307384178</t>
+        </is>
+      </c>
+      <c r="N558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>-34.96179335539915,173.67018938750599</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>-34.961745907354995,173.67108826655277</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>-34.96180443802303,173.67202958054216</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>-34.961519112992974,173.67289818240502</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-34.96129461352368,173.67377907063363</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>-34.96097315491556,173.67461489230092</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>-34.96061221371473,173.6754068257161</t>
+        </is>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>-34.96021071910438,173.6761817733593</t>
+        </is>
+      </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>-34.95974387049979,173.67691387718386</t>
+        </is>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>-34.95915415106932,173.67751505198677</t>
+        </is>
+      </c>
+      <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr"/>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>-34.961660858671195,173.67017490567497</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>-34.961655006796605,173.67107681497345</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>-34.961763133933836,173.67201934498735</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>-34.96151756520398,173.6728975889145</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>-34.96122635665672,173.67374286466443</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>-34.960869084994656,173.67454555990332</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>-34.960511123973866,173.67533517334772</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>-34.96014911954397,173.67613150399657</t>
+        </is>
+      </c>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>-34.9596963563949,173.67686290842138</t>
+        </is>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>-34.95914408283649,173.67749967459872</t>
+        </is>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>-34.95856549142999,173.6781485512931</t>
+        </is>
+      </c>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>-34.957802878877466,173.67830678125023</t>
+        </is>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N560"/>
+  <dimension ref="A1:N565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24690,6 +24690,226 @@
         </is>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>368.5433333333333</v>
+      </c>
+      <c r="C561" t="n">
+        <v>362.78</v>
+      </c>
+      <c r="D561" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="E561" t="n">
+        <v>340.4785714285715</v>
+      </c>
+      <c r="F561" t="n">
+        <v>347.1385714285714</v>
+      </c>
+      <c r="G561" t="n">
+        <v>334.8333333333333</v>
+      </c>
+      <c r="H561" t="n">
+        <v>335.5385714285715</v>
+      </c>
+      <c r="I561" t="n">
+        <v>337.9585714285714</v>
+      </c>
+      <c r="J561" t="n">
+        <v>351.0585714285714</v>
+      </c>
+      <c r="K561" t="n">
+        <v>348.3684615384616</v>
+      </c>
+      <c r="L561" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="M561" t="n">
+        <v>344.1971428571428</v>
+      </c>
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>372.2866666666667</v>
+      </c>
+      <c r="C562" t="n">
+        <v>363.04</v>
+      </c>
+      <c r="D562" t="n">
+        <v>336.37</v>
+      </c>
+      <c r="E562" t="n">
+        <v>338.6471428571429</v>
+      </c>
+      <c r="F562" t="n">
+        <v>346.5871428571429</v>
+      </c>
+      <c r="G562" t="n">
+        <v>334.8966666666666</v>
+      </c>
+      <c r="H562" t="n">
+        <v>336.7071428571429</v>
+      </c>
+      <c r="I562" t="n">
+        <v>343.2871428571428</v>
+      </c>
+      <c r="J562" t="n">
+        <v>344.8271428571429</v>
+      </c>
+      <c r="K562" t="n">
+        <v>346.0153846153846</v>
+      </c>
+      <c r="L562" t="n">
+        <v>345.55</v>
+      </c>
+      <c r="M562" t="n">
+        <v>345.0042857142857</v>
+      </c>
+      <c r="N562" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>364.2533333333333</v>
+      </c>
+      <c r="C563" t="n">
+        <v>360.89</v>
+      </c>
+      <c r="D563" t="n">
+        <v>335.93</v>
+      </c>
+      <c r="E563" t="n">
+        <v>341.57</v>
+      </c>
+      <c r="F563" t="n">
+        <v>344.71</v>
+      </c>
+      <c r="G563" t="n">
+        <v>338.7933333333333</v>
+      </c>
+      <c r="H563" t="n">
+        <v>336.45</v>
+      </c>
+      <c r="I563" t="n">
+        <v>345.9</v>
+      </c>
+      <c r="J563" t="n">
+        <v>351.37</v>
+      </c>
+      <c r="K563" t="n">
+        <v>354.3161538461539</v>
+      </c>
+      <c r="L563" t="n">
+        <v>341.75</v>
+      </c>
+      <c r="M563" t="n">
+        <v>322.18</v>
+      </c>
+      <c r="N563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>362.8266666666667</v>
+      </c>
+      <c r="C564" t="n">
+        <v>357.91</v>
+      </c>
+      <c r="D564" t="n">
+        <v>336.49</v>
+      </c>
+      <c r="E564" t="n">
+        <v>342.3042857142857</v>
+      </c>
+      <c r="F564" t="n">
+        <v>344.2542857142857</v>
+      </c>
+      <c r="G564" t="n">
+        <v>337.1566666666666</v>
+      </c>
+      <c r="H564" t="n">
+        <v>334.7042857142857</v>
+      </c>
+      <c r="I564" t="n">
+        <v>342.3642857142857</v>
+      </c>
+      <c r="J564" t="n">
+        <v>344.7542857142857</v>
+      </c>
+      <c r="K564" t="n">
+        <v>349.31</v>
+      </c>
+      <c r="L564" t="n">
+        <v>334.57</v>
+      </c>
+      <c r="M564" t="n">
+        <v>326.2885714285715</v>
+      </c>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="n">
+        <v>355.405</v>
+      </c>
+      <c r="D565" t="n">
+        <v>321.595</v>
+      </c>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr"/>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr"/>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24701,7 +24921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B568"/>
+  <dimension ref="A1:B573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30389,6 +30609,56 @@
       </c>
       <c r="B568" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -30562,28 +30832,28 @@
         <v>0.0853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3205089264982213</v>
+        <v>0.3112715130278911</v>
       </c>
       <c r="J2" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K2" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05194748743015987</v>
+        <v>0.04979603316398096</v>
       </c>
       <c r="M2" t="n">
-        <v>8.397545661909993</v>
+        <v>8.378613320120264</v>
       </c>
       <c r="N2" t="n">
-        <v>111.4286119516837</v>
+        <v>110.8364808176832</v>
       </c>
       <c r="O2" t="n">
-        <v>10.55597517767467</v>
+        <v>10.5278906157731</v>
       </c>
       <c r="P2" t="n">
-        <v>364.3546327792596</v>
+        <v>364.4443438431809</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30640,28 +30910,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4874339997154296</v>
+        <v>0.4812186374288211</v>
       </c>
       <c r="J3" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K3" t="n">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1515419501087354</v>
+        <v>0.1507162015389187</v>
       </c>
       <c r="M3" t="n">
-        <v>6.976428761584001</v>
+        <v>6.935201178392743</v>
       </c>
       <c r="N3" t="n">
-        <v>78.69711877805732</v>
+        <v>78.01850464654157</v>
       </c>
       <c r="O3" t="n">
-        <v>8.871139654974288</v>
+        <v>8.83280842351636</v>
       </c>
       <c r="P3" t="n">
-        <v>350.4198430922226</v>
+        <v>350.4805468441272</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30718,28 +30988,28 @@
         <v>0.0992</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4377514455167358</v>
+        <v>0.3908163441727573</v>
       </c>
       <c r="J4" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K4" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05379113964143489</v>
+        <v>0.04293695131118203</v>
       </c>
       <c r="M4" t="n">
-        <v>11.43790969227876</v>
+        <v>11.59265154975477</v>
       </c>
       <c r="N4" t="n">
-        <v>195.9764785336532</v>
+        <v>200.0563259891169</v>
       </c>
       <c r="O4" t="n">
-        <v>13.99915992242582</v>
+        <v>14.14412690798258</v>
       </c>
       <c r="P4" t="n">
-        <v>345.1614764402549</v>
+        <v>345.6250721139185</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30796,28 +31066,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4339605714752233</v>
+        <v>0.4038241892626651</v>
       </c>
       <c r="J5" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K5" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06105241226095792</v>
+        <v>0.05326401104121992</v>
       </c>
       <c r="M5" t="n">
-        <v>10.6115755945551</v>
+        <v>10.6893027457655</v>
       </c>
       <c r="N5" t="n">
-        <v>169.757750131348</v>
+        <v>171.3701337797073</v>
       </c>
       <c r="O5" t="n">
-        <v>13.02911164014447</v>
+        <v>13.09084159936661</v>
       </c>
       <c r="P5" t="n">
-        <v>348.5183629701299</v>
+        <v>348.8124276127471</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30874,28 +31144,28 @@
         <v>0.0795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4158567496273896</v>
+        <v>0.3882803314728276</v>
       </c>
       <c r="J6" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K6" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05994328133829463</v>
+        <v>0.05270999833021783</v>
       </c>
       <c r="M6" t="n">
-        <v>10.26892476483083</v>
+        <v>10.33212918903758</v>
       </c>
       <c r="N6" t="n">
-        <v>159.5491976795815</v>
+        <v>160.7751209249729</v>
       </c>
       <c r="O6" t="n">
-        <v>12.63127854492891</v>
+        <v>12.6797129669789</v>
       </c>
       <c r="P6" t="n">
-        <v>352.4020501583115</v>
+        <v>352.6703721567133</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30952,28 +31222,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3867028183807176</v>
+        <v>0.3547664211887334</v>
       </c>
       <c r="J7" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K7" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05644949584479408</v>
+        <v>0.04763932348606359</v>
       </c>
       <c r="M7" t="n">
-        <v>9.661255113312148</v>
+        <v>9.763628050124947</v>
       </c>
       <c r="N7" t="n">
-        <v>146.0436035299939</v>
+        <v>148.2877209802103</v>
       </c>
       <c r="O7" t="n">
-        <v>12.08485016580652</v>
+        <v>12.17734457836397</v>
       </c>
       <c r="P7" t="n">
-        <v>346.7894405127615</v>
+        <v>347.1011747585252</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31030,28 +31300,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3305413037050638</v>
+        <v>0.2984764636343274</v>
       </c>
       <c r="J8" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K8" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04122425520150563</v>
+        <v>0.03367149465463215</v>
       </c>
       <c r="M8" t="n">
-        <v>9.516316782712066</v>
+        <v>9.609020755494759</v>
       </c>
       <c r="N8" t="n">
-        <v>143.8678812669405</v>
+        <v>146.0211266790848</v>
       </c>
       <c r="O8" t="n">
-        <v>11.99449378952445</v>
+        <v>12.0839201701718</v>
       </c>
       <c r="P8" t="n">
-        <v>347.4104494100787</v>
+        <v>347.7313233001784</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31108,28 +31378,28 @@
         <v>0.0815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2586543952087348</v>
+        <v>0.2336928731088054</v>
       </c>
       <c r="J9" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K9" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02761046395476008</v>
+        <v>0.02268436524982298</v>
       </c>
       <c r="M9" t="n">
-        <v>9.149702041335967</v>
+        <v>9.206613157388835</v>
       </c>
       <c r="N9" t="n">
-        <v>135.407260614495</v>
+        <v>136.3883199437077</v>
       </c>
       <c r="O9" t="n">
-        <v>11.63646254729052</v>
+        <v>11.67854100235589</v>
       </c>
       <c r="P9" t="n">
-        <v>351.3801217663515</v>
+        <v>351.6276532062695</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31186,28 +31456,28 @@
         <v>0.0788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2616858381649944</v>
+        <v>0.2393622956206869</v>
       </c>
       <c r="J10" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K10" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03074412859295228</v>
+        <v>0.02594945911411717</v>
       </c>
       <c r="M10" t="n">
-        <v>9.064115707754302</v>
+        <v>9.111052469359764</v>
       </c>
       <c r="N10" t="n">
-        <v>124.7777926976016</v>
+        <v>125.4222929816626</v>
       </c>
       <c r="O10" t="n">
-        <v>11.1703980545727</v>
+        <v>11.19920948021166</v>
       </c>
       <c r="P10" t="n">
-        <v>355.1283405880357</v>
+        <v>355.3473953865294</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31264,28 +31534,28 @@
         <v>0.0736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1865049418469297</v>
+        <v>0.1684352791269808</v>
       </c>
       <c r="J11" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K11" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01306882041653545</v>
+        <v>0.01079008579006735</v>
       </c>
       <c r="M11" t="n">
-        <v>9.698533970589367</v>
+        <v>9.712721619172433</v>
       </c>
       <c r="N11" t="n">
-        <v>150.5513072798455</v>
+        <v>150.4382810638927</v>
       </c>
       <c r="O11" t="n">
-        <v>12.26993509680656</v>
+        <v>12.26532841239454</v>
       </c>
       <c r="P11" t="n">
-        <v>356.1028251725024</v>
+        <v>356.2800594889173</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31342,28 +31612,28 @@
         <v>0.0543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4117925569821426</v>
+        <v>0.3794450840534034</v>
       </c>
       <c r="J12" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K12" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04714130301050501</v>
+        <v>0.04031300314909558</v>
       </c>
       <c r="M12" t="n">
-        <v>11.4899215715166</v>
+        <v>11.5621904172925</v>
       </c>
       <c r="N12" t="n">
-        <v>196.6573925308331</v>
+        <v>198.5491316533498</v>
       </c>
       <c r="O12" t="n">
-        <v>14.02345865080484</v>
+        <v>14.09074631285901</v>
       </c>
       <c r="P12" t="n">
-        <v>347.1538810275003</v>
+        <v>347.4703021390309</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31420,28 +31690,28 @@
         <v>0.0395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.551935090359635</v>
+        <v>0.5054188848902798</v>
       </c>
       <c r="J13" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K13" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05548423621383292</v>
+        <v>0.04688100323339695</v>
       </c>
       <c r="M13" t="n">
-        <v>13.41519911262243</v>
+        <v>13.51068109437053</v>
       </c>
       <c r="N13" t="n">
-        <v>280.8133976413215</v>
+        <v>284.1843811387748</v>
       </c>
       <c r="O13" t="n">
-        <v>16.7574878081806</v>
+        <v>16.85776916257827</v>
       </c>
       <c r="P13" t="n">
-        <v>342.1474840694067</v>
+        <v>342.6352810986081</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31479,7 +31749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N560"/>
+  <dimension ref="A1:N565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66507,6 +66777,326 @@
         </is>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>-34.96163307806424,173.6701718692739</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>-34.961622180348606,173.6710726795306</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>-34.961783277960386,173.67202433687157</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>-34.96152832602269,173.67290171508708</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>-34.96123438409933,173.67374712271368</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>-34.96097871550014,173.67461859682246</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>-34.96061619677864,173.67540964891452</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>-34.96020840952223,173.67617988858407</t>
+        </is>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>-34.95967216966961,173.6768369631585</t>
+        </is>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>-34.959142735800036,173.67749761724693</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>-34.95858372577484,173.67819135186008</t>
+        </is>
+      </c>
+      <c r="M561" t="inlineStr">
+        <is>
+          <t>-34.957830239241794,173.6783929566111</t>
+        </is>
+      </c>
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>-34.96159945993718,173.67016819483896</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>-34.96161984841513,173.6710723857561</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>-34.96177338264914,173.6720218847176</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>-34.96154407416119,173.67290775362022</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>-34.96123894085345,173.6737495397832</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>-34.96097821478399,173.67461826323992</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>-34.960607095811284,173.6754031981431</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>-34.96016852645526,173.67614734132454</t>
+        </is>
+      </c>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>-34.959714286430625,173.67688214210517</t>
+        </is>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>-34.95915594280009,173.6775177885292</t>
+        </is>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>-34.95852135596356,173.678044954544</t>
+        </is>
+      </c>
+      <c r="M562" t="inlineStr">
+        <is>
+          <t>-34.95782762047338,173.67838470841642</t>
+        </is>
+      </c>
+      <c r="N562" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>-34.96167160569473,173.6701760803178</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>-34.96163913171115,173.67107481504573</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>-34.96177727009284,173.67202284806373</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>-34.961518941016415,173.67289811646162</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>-34.961254452705134,173.6737577678405</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>-34.96094740756261,173.6745977391438</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>-34.96060909846918,173.67540461762815</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>-34.96014896984878,173.6761313818354</t>
+        </is>
+      </c>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>-34.95967006479664,173.67683470524813</t>
+        </is>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>-34.9591093534622,173.6774466318704</t>
+        </is>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>-34.958537103839845,173.67808191862963</t>
+        </is>
+      </c>
+      <c r="M563" t="inlineStr">
+        <is>
+          <t>-34.95790167346373,173.67861795004353</t>
+        </is>
+      </c>
+      <c r="N563" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>-34.96168441830214,173.67017748072803</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>-34.961665859256115,173.67107818215615</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>-34.961772322437206,173.67202162198686</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>-34.96151262701998,173.6728956953973</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>-34.961258218519866,173.67375976536783</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>-34.96096034712312,173.67460635961342</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>-34.960622694290564,173.67541425435613</t>
+        </is>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>-34.9601754338182,173.67615297819347</t>
+        </is>
+      </c>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>-34.95971477885482,173.67688267033245</t>
+        </is>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>-34.95913745127209,173.67748954609817</t>
+        </is>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>-34.95856685900639,173.678151761335</t>
+        </is>
+      </c>
+      <c r="M564" t="inlineStr">
+        <is>
+          <t>-34.95788834331005,173.67857596447632</t>
+        </is>
+      </c>
+      <c r="N564" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>-34.96168832653786,173.67108101256449</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>-34.96190392123591,173.6720542334942</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr"/>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr"/>
+      <c r="N565" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N565"/>
+  <dimension ref="A1:N566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24910,6 +24910,54 @@
         </is>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>369.6</v>
+      </c>
+      <c r="C566" t="n">
+        <v>360.505</v>
+      </c>
+      <c r="D566" t="n">
+        <v>337.775</v>
+      </c>
+      <c r="E566" t="n">
+        <v>343.2671428571429</v>
+      </c>
+      <c r="F566" t="n">
+        <v>347.1771428571428</v>
+      </c>
+      <c r="G566" t="n">
+        <v>346.63</v>
+      </c>
+      <c r="H566" t="n">
+        <v>346.3471428571428</v>
+      </c>
+      <c r="I566" t="n">
+        <v>354.5671428571428</v>
+      </c>
+      <c r="J566" t="n">
+        <v>358.6671428571428</v>
+      </c>
+      <c r="K566" t="n">
+        <v>355.7707692307692</v>
+      </c>
+      <c r="L566" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="M566" t="n">
+        <v>374.3842857142857</v>
+      </c>
+      <c r="N566" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24921,7 +24969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B573"/>
+  <dimension ref="A1:B574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30659,6 +30707,16 @@
       </c>
       <c r="B573" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -30832,28 +30890,28 @@
         <v>0.0853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3112715130278911</v>
+        <v>0.3100719848331223</v>
       </c>
       <c r="J2" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K2" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04979603316398096</v>
+        <v>0.04962959170924297</v>
       </c>
       <c r="M2" t="n">
-        <v>8.378613320120264</v>
+        <v>8.367089467545151</v>
       </c>
       <c r="N2" t="n">
-        <v>110.8364808176832</v>
+        <v>110.6071155302207</v>
       </c>
       <c r="O2" t="n">
-        <v>10.5278906157731</v>
+        <v>10.51699175288355</v>
       </c>
       <c r="P2" t="n">
-        <v>364.4443438431809</v>
+        <v>364.4560375881507</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30910,28 +30968,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4812186374288211</v>
+        <v>0.4802037821369287</v>
       </c>
       <c r="J3" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K3" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1507162015389187</v>
+        <v>0.1507034279784559</v>
       </c>
       <c r="M3" t="n">
-        <v>6.935201178392743</v>
+        <v>6.925773086070395</v>
       </c>
       <c r="N3" t="n">
-        <v>78.01850464654157</v>
+        <v>77.85865501493689</v>
       </c>
       <c r="O3" t="n">
-        <v>8.83280842351636</v>
+        <v>8.823755153841072</v>
       </c>
       <c r="P3" t="n">
-        <v>350.4805468441272</v>
+        <v>350.4904881102218</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30988,28 +31046,28 @@
         <v>0.0992</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3908163441727573</v>
+        <v>0.3835850835031514</v>
       </c>
       <c r="J4" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K4" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04293695131118203</v>
+        <v>0.04145669399255314</v>
       </c>
       <c r="M4" t="n">
-        <v>11.59265154975477</v>
+        <v>11.6111613924537</v>
       </c>
       <c r="N4" t="n">
-        <v>200.0563259891169</v>
+        <v>200.3295277940881</v>
       </c>
       <c r="O4" t="n">
-        <v>14.14412690798258</v>
+        <v>14.15378139558783</v>
       </c>
       <c r="P4" t="n">
-        <v>345.6250721139185</v>
+        <v>345.6967512476252</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31066,28 +31124,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4038241892626651</v>
+        <v>0.3974611596962221</v>
       </c>
       <c r="J5" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K5" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05326401104121992</v>
+        <v>0.05173706567929026</v>
       </c>
       <c r="M5" t="n">
-        <v>10.6893027457655</v>
+        <v>10.70221863817718</v>
       </c>
       <c r="N5" t="n">
-        <v>171.3701337797073</v>
+        <v>171.5554388886335</v>
       </c>
       <c r="O5" t="n">
-        <v>13.09084159936661</v>
+        <v>13.09791734928242</v>
       </c>
       <c r="P5" t="n">
-        <v>348.8124276127471</v>
+        <v>348.8747689626088</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31144,28 +31202,28 @@
         <v>0.0795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3882803314728276</v>
+        <v>0.382137611526976</v>
       </c>
       <c r="J6" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K6" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05270999833021783</v>
+        <v>0.05119053501336024</v>
       </c>
       <c r="M6" t="n">
-        <v>10.33212918903758</v>
+        <v>10.34438427150615</v>
       </c>
       <c r="N6" t="n">
-        <v>160.7751209249729</v>
+        <v>160.9513981244664</v>
       </c>
       <c r="O6" t="n">
-        <v>12.6797129669789</v>
+        <v>12.68666221369775</v>
       </c>
       <c r="P6" t="n">
-        <v>352.6703721567133</v>
+        <v>352.7303807473197</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31222,28 +31280,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3547664211887334</v>
+        <v>0.350960279365542</v>
       </c>
       <c r="J7" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K7" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04763932348606359</v>
+        <v>0.04680023640003361</v>
       </c>
       <c r="M7" t="n">
-        <v>9.763628050124947</v>
+        <v>9.764980168747616</v>
       </c>
       <c r="N7" t="n">
-        <v>148.2877209802103</v>
+        <v>148.1727497022564</v>
       </c>
       <c r="O7" t="n">
-        <v>12.17734457836397</v>
+        <v>12.1726229590116</v>
       </c>
       <c r="P7" t="n">
-        <v>347.1011747585252</v>
+        <v>347.1384767662308</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31300,28 +31358,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2984764636343274</v>
+        <v>0.2948251533823513</v>
       </c>
       <c r="J8" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K8" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03367149465463215</v>
+        <v>0.03297732058650094</v>
       </c>
       <c r="M8" t="n">
-        <v>9.609020755494759</v>
+        <v>9.608414042370509</v>
       </c>
       <c r="N8" t="n">
-        <v>146.0211266790848</v>
+        <v>145.8887597786697</v>
       </c>
       <c r="O8" t="n">
-        <v>12.0839201701718</v>
+        <v>12.07844194334144</v>
       </c>
       <c r="P8" t="n">
-        <v>347.7313233001784</v>
+        <v>347.7680036465831</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31378,28 +31436,28 @@
         <v>0.0815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2336928731088054</v>
+        <v>0.2324377609883877</v>
       </c>
       <c r="J9" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K9" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02268436524982298</v>
+        <v>0.02253755541871694</v>
       </c>
       <c r="M9" t="n">
-        <v>9.206613157388835</v>
+        <v>9.193631922474415</v>
       </c>
       <c r="N9" t="n">
-        <v>136.3883199437077</v>
+        <v>136.1169563144046</v>
       </c>
       <c r="O9" t="n">
-        <v>11.67854100235589</v>
+        <v>11.66691717268982</v>
       </c>
       <c r="P9" t="n">
-        <v>351.6276532062695</v>
+        <v>351.6401496611973</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31456,28 +31514,28 @@
         <v>0.0788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2393622956206869</v>
+        <v>0.2381885173251536</v>
       </c>
       <c r="J10" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K10" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02594945911411717</v>
+        <v>0.02580838768135063</v>
       </c>
       <c r="M10" t="n">
-        <v>9.111052469359764</v>
+        <v>9.097974134207595</v>
       </c>
       <c r="N10" t="n">
-        <v>125.4222929816626</v>
+        <v>125.1709039819641</v>
       </c>
       <c r="O10" t="n">
-        <v>11.19920948021166</v>
+        <v>11.18798033525105</v>
       </c>
       <c r="P10" t="n">
-        <v>355.3473953865294</v>
+        <v>355.3589583647221</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31534,28 +31592,28 @@
         <v>0.0736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1684352791269808</v>
+        <v>0.1664985662506172</v>
       </c>
       <c r="J11" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K11" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01079008579006735</v>
+        <v>0.01058802622611754</v>
       </c>
       <c r="M11" t="n">
-        <v>9.712721619172433</v>
+        <v>9.702593390228142</v>
       </c>
       <c r="N11" t="n">
-        <v>150.4382810638927</v>
+        <v>150.174706268067</v>
       </c>
       <c r="O11" t="n">
-        <v>12.26532841239454</v>
+        <v>12.25457899187349</v>
       </c>
       <c r="P11" t="n">
-        <v>356.2800594889173</v>
+        <v>356.299130065774</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31612,28 +31670,28 @@
         <v>0.0543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3794450840534034</v>
+        <v>0.3859577098842565</v>
       </c>
       <c r="J12" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K12" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04031300314909558</v>
+        <v>0.04172212528744501</v>
       </c>
       <c r="M12" t="n">
-        <v>11.5621904172925</v>
+        <v>11.5705240376718</v>
       </c>
       <c r="N12" t="n">
-        <v>198.5491316533498</v>
+        <v>198.6640163830895</v>
       </c>
       <c r="O12" t="n">
-        <v>14.09074631285901</v>
+        <v>14.09482232534662</v>
       </c>
       <c r="P12" t="n">
-        <v>347.4703021390309</v>
+        <v>347.4063523761702</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31690,28 +31748,28 @@
         <v>0.0395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5054188848902798</v>
+        <v>0.5151727048154072</v>
       </c>
       <c r="J13" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04688100323339695</v>
+        <v>0.04871168147884775</v>
       </c>
       <c r="M13" t="n">
-        <v>13.51068109437053</v>
+        <v>13.52426038660244</v>
       </c>
       <c r="N13" t="n">
-        <v>284.1843811387748</v>
+        <v>284.3460372929517</v>
       </c>
       <c r="O13" t="n">
-        <v>16.85776916257827</v>
+        <v>16.86256318870152</v>
       </c>
       <c r="P13" t="n">
-        <v>342.6352810986081</v>
+        <v>342.5326220292464</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31749,7 +31807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N565"/>
+  <dimension ref="A1:N566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67097,6 +67155,78 @@
         </is>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>-34.96162358835253,173.67017083205553</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>-34.961642584766466,173.67107525005818</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>-34.96176096933448,173.67201880857888</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>-34.96150434757709,173.67289252069486</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>-34.961234065362646,173.67374695364407</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>-34.96088545051307,173.67455646275786</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>-34.96053201837928,173.6753499832768</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>-34.9600840983556,173.6760784424583</t>
+        </is>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>-34.95962074509983,173.67678179974817</t>
+        </is>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>-34.95910118920628,173.67743416248368</t>
+        </is>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>-34.95840635467772,173.67777501986936</t>
+        </is>
+      </c>
+      <c r="M566" t="inlineStr">
+        <is>
+          <t>-34.957732296916426,173.6780844744811</t>
+        </is>
+      </c>
+      <c r="N566" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N566"/>
+  <dimension ref="A1:N568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24958,6 +24958,100 @@
         </is>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>352.5733333333333</v>
+      </c>
+      <c r="C567" t="n">
+        <v>353.83</v>
+      </c>
+      <c r="D567" t="n">
+        <v>340.25</v>
+      </c>
+      <c r="E567" t="n">
+        <v>337.2728571428572</v>
+      </c>
+      <c r="F567" t="n">
+        <v>346.2528571428572</v>
+      </c>
+      <c r="G567" t="n">
+        <v>321.4233333333333</v>
+      </c>
+      <c r="H567" t="n">
+        <v>319.0928571428572</v>
+      </c>
+      <c r="I567" t="n">
+        <v>335.0128571428572</v>
+      </c>
+      <c r="J567" t="n">
+        <v>348.7928571428571</v>
+      </c>
+      <c r="K567" t="n">
+        <v>361.7415384615384</v>
+      </c>
+      <c r="L567" t="n">
+        <v>374.05</v>
+      </c>
+      <c r="M567" t="n">
+        <v>364.7557142857143</v>
+      </c>
+      <c r="N567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>349.6633333333334</v>
+      </c>
+      <c r="C568" t="n">
+        <v>356.77</v>
+      </c>
+      <c r="D568" t="n">
+        <v>335.11</v>
+      </c>
+      <c r="E568" t="n">
+        <v>341.6014285714285</v>
+      </c>
+      <c r="F568" t="n">
+        <v>346.6914285714286</v>
+      </c>
+      <c r="G568" t="n">
+        <v>339.9233333333333</v>
+      </c>
+      <c r="H568" t="n">
+        <v>343.9014285714285</v>
+      </c>
+      <c r="I568" t="n">
+        <v>344.3214285714286</v>
+      </c>
+      <c r="J568" t="n">
+        <v>348.8614285714286</v>
+      </c>
+      <c r="K568" t="n">
+        <v>348.9984615384615</v>
+      </c>
+      <c r="L568" t="n">
+        <v>347.51</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24969,7 +25063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B574"/>
+  <dimension ref="A1:B576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30717,6 +30811,26 @@
       </c>
       <c r="B574" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -31807,7 +31921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N566"/>
+  <dimension ref="A1:N568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67227,6 +67341,146 @@
         </is>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>-34.96177650143245,173.67018754537239</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>-34.961702452673,173.67108279216345</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>-34.96173910246318,173.6720133897603</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>-34.96155589140683,173.67291228487673</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>-34.96124170323804,173.67375100505345</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>-34.96108473553214,173.6746892286259</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>-34.9607442778348,173.67550043302856</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>-34.96023045747643,173.67619788121138</t>
+        </is>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>-34.959687483101945,173.67685338997788</t>
+        </is>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>-34.95906767731804,173.67738297933653</t>
+        </is>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>-34.958403246526395,173.67776772434797</t>
+        </is>
+      </c>
+      <c r="M567" t="inlineStr">
+        <is>
+          <t>-34.95776353694739,173.6781828686838</t>
+        </is>
+      </c>
+      <c r="N567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-34.961802635558385,173.67019040182498</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-34.961676083887355,173.67107947024596</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-34.96178451487429,173.67202464339084</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>-34.96151867076754,173.67289801283627</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>-34.9612380790839,173.673749082669</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>-34.96093847373125,173.67459178733438</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>-34.960551065886655,173.67536348413464</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>-34.960160785076035,173.67614102384405</t>
+        </is>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>-34.95968701964375,173.6768528928231</t>
+        </is>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>-34.95913919982918,173.67749221669874</t>
+        </is>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>-34.958513233370255,173.6780258888632</t>
+        </is>
+      </c>
+      <c r="M568" t="inlineStr"/>
+      <c r="N568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -31004,28 +31004,28 @@
         <v>0.0853</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3100719848331223</v>
+        <v>0.292814563168777</v>
       </c>
       <c r="J2" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K2" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04962959170924297</v>
+        <v>0.04409180667037238</v>
       </c>
       <c r="M2" t="n">
-        <v>8.367089467545151</v>
+        <v>8.433595704024393</v>
       </c>
       <c r="N2" t="n">
-        <v>110.6071155302207</v>
+        <v>112.1557159236834</v>
       </c>
       <c r="O2" t="n">
-        <v>10.51699175288355</v>
+        <v>10.59035957480592</v>
       </c>
       <c r="P2" t="n">
-        <v>364.4560375881507</v>
+        <v>364.6251366374227</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31082,28 +31082,28 @@
         <v>0.0871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4802037821369287</v>
+        <v>0.4740158945070522</v>
       </c>
       <c r="J3" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K3" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1507034279784559</v>
+        <v>0.148057673457444</v>
       </c>
       <c r="M3" t="n">
-        <v>6.925773086070395</v>
+        <v>6.93141506600185</v>
       </c>
       <c r="N3" t="n">
-        <v>77.85865501493689</v>
+        <v>77.78729025482627</v>
       </c>
       <c r="O3" t="n">
-        <v>8.823755153841072</v>
+        <v>8.819710327149428</v>
       </c>
       <c r="P3" t="n">
-        <v>350.4904881102218</v>
+        <v>350.5514076147488</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31160,28 +31160,28 @@
         <v>0.0992</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3835850835031514</v>
+        <v>0.369166212996583</v>
       </c>
       <c r="J4" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K4" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04145669399255314</v>
+        <v>0.03856891851879263</v>
       </c>
       <c r="M4" t="n">
-        <v>11.6111613924537</v>
+        <v>11.64691196151537</v>
       </c>
       <c r="N4" t="n">
-        <v>200.3295277940881</v>
+        <v>200.894543979211</v>
       </c>
       <c r="O4" t="n">
-        <v>14.15378139558783</v>
+        <v>14.17372724371437</v>
       </c>
       <c r="P4" t="n">
-        <v>345.6967512476252</v>
+        <v>345.8404032925665</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31238,28 +31238,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3974611596962221</v>
+        <v>0.3818220998529661</v>
       </c>
       <c r="J5" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K5" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05173706567929026</v>
+        <v>0.04788215368832316</v>
       </c>
       <c r="M5" t="n">
-        <v>10.70221863817718</v>
+        <v>10.74472978150487</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5554388886335</v>
+        <v>172.5110680260998</v>
       </c>
       <c r="O5" t="n">
-        <v>13.09791734928242</v>
+        <v>13.13434688235771</v>
       </c>
       <c r="P5" t="n">
-        <v>348.8747689626088</v>
+        <v>349.0287416867516</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31316,28 +31316,28 @@
         <v>0.0795</v>
       </c>
       <c r="I6" t="n">
-        <v>0.382137611526976</v>
+        <v>0.3693990482826354</v>
       </c>
       <c r="J6" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K6" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05119053501336024</v>
+        <v>0.04807144269176844</v>
       </c>
       <c r="M6" t="n">
-        <v>10.34438427150615</v>
+        <v>10.3709654221614</v>
       </c>
       <c r="N6" t="n">
-        <v>160.9513981244664</v>
+        <v>161.3817423237271</v>
       </c>
       <c r="O6" t="n">
-        <v>12.68666221369775</v>
+        <v>12.70361138903922</v>
       </c>
       <c r="P6" t="n">
-        <v>352.7303807473197</v>
+        <v>352.8554416435705</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31394,28 +31394,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.350960279365542</v>
+        <v>0.3309755924764921</v>
       </c>
       <c r="J7" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K7" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04680023640003361</v>
+        <v>0.04134936704443226</v>
       </c>
       <c r="M7" t="n">
-        <v>9.764980168747616</v>
+        <v>9.839677694680868</v>
       </c>
       <c r="N7" t="n">
-        <v>148.1727497022564</v>
+        <v>150.6568391449293</v>
       </c>
       <c r="O7" t="n">
-        <v>12.1726229590116</v>
+        <v>12.27423476820161</v>
       </c>
       <c r="P7" t="n">
-        <v>347.1384767662308</v>
+        <v>347.3352628633975</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31472,28 +31472,28 @@
         <v>0.08160000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2948251533823513</v>
+        <v>0.2758110897637556</v>
       </c>
       <c r="J8" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K8" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03297732058650094</v>
+        <v>0.0286391626968191</v>
       </c>
       <c r="M8" t="n">
-        <v>9.608414042370509</v>
+        <v>9.670312939496819</v>
       </c>
       <c r="N8" t="n">
-        <v>145.8887597786697</v>
+        <v>148.3259954093639</v>
       </c>
       <c r="O8" t="n">
-        <v>12.07844194334144</v>
+        <v>12.1789160194725</v>
       </c>
       <c r="P8" t="n">
-        <v>347.7680036465831</v>
+        <v>347.9598796880614</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31550,28 +31550,28 @@
         <v>0.0815</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2324377609883877</v>
+        <v>0.218155195804406</v>
       </c>
       <c r="J9" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K9" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02253755541871694</v>
+        <v>0.01986409560922409</v>
       </c>
       <c r="M9" t="n">
-        <v>9.193631922474415</v>
+        <v>9.2328732605752</v>
       </c>
       <c r="N9" t="n">
-        <v>136.1169563144046</v>
+        <v>137.0043819161232</v>
       </c>
       <c r="O9" t="n">
-        <v>11.66691717268982</v>
+        <v>11.70488709540264</v>
       </c>
       <c r="P9" t="n">
-        <v>351.6401496611973</v>
+        <v>351.7830276773799</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31628,28 +31628,28 @@
         <v>0.0788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2381885173251536</v>
+        <v>0.2279956122992954</v>
       </c>
       <c r="J10" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K10" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02580838768135063</v>
+        <v>0.0237741934931075</v>
       </c>
       <c r="M10" t="n">
-        <v>9.097974134207595</v>
+        <v>9.114978361658391</v>
       </c>
       <c r="N10" t="n">
-        <v>125.1709039819641</v>
+        <v>125.3245335404896</v>
       </c>
       <c r="O10" t="n">
-        <v>11.18798033525105</v>
+        <v>11.19484406057045</v>
       </c>
       <c r="P10" t="n">
-        <v>355.3589583647221</v>
+        <v>355.459853294994</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31706,28 +31706,28 @@
         <v>0.0736</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1664985662506172</v>
+        <v>0.1623335889456085</v>
       </c>
       <c r="J11" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K11" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01058802622611754</v>
+        <v>0.01013878240625954</v>
       </c>
       <c r="M11" t="n">
-        <v>9.702593390228142</v>
+        <v>9.688533322844536</v>
       </c>
       <c r="N11" t="n">
-        <v>150.174706268067</v>
+        <v>149.8348335837496</v>
       </c>
       <c r="O11" t="n">
-        <v>12.25457899187349</v>
+        <v>12.24070396602048</v>
       </c>
       <c r="P11" t="n">
-        <v>356.299130065774</v>
+        <v>356.3403578981426</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31784,28 +31784,28 @@
         <v>0.0543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3859577098842565</v>
+        <v>0.3886023836845823</v>
       </c>
       <c r="J12" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K12" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04172212528744501</v>
+        <v>0.04247656887622386</v>
       </c>
       <c r="M12" t="n">
-        <v>11.5705240376718</v>
+        <v>11.57756620938124</v>
       </c>
       <c r="N12" t="n">
-        <v>198.6640163830895</v>
+        <v>198.6125600843716</v>
       </c>
       <c r="O12" t="n">
-        <v>14.09482232534662</v>
+        <v>14.09299684539706</v>
       </c>
       <c r="P12" t="n">
-        <v>347.4063523761702</v>
+        <v>347.3803108729358</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31862,28 +31862,28 @@
         <v>0.0395</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5151727048154072</v>
+        <v>0.5197623597376398</v>
       </c>
       <c r="J13" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K13" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04871168147884775</v>
+        <v>0.04976110497728881</v>
       </c>
       <c r="M13" t="n">
-        <v>13.52426038660244</v>
+        <v>13.51029725433177</v>
       </c>
       <c r="N13" t="n">
-        <v>284.3460372929517</v>
+        <v>283.7578732034129</v>
       </c>
       <c r="O13" t="n">
-        <v>16.86256318870152</v>
+        <v>16.84511422351932</v>
       </c>
       <c r="P13" t="n">
-        <v>342.5326220292464</v>
+        <v>342.4841060308531</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -30995,13 +30995,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0585</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0853</v>
+        <v>0.0743</v>
       </c>
       <c r="I2" t="n">
         <v>0.292787773442068</v>
@@ -31073,13 +31073,13 @@
         <v>0.9088960405490185</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0699</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0871</v>
+        <v>0.0788</v>
       </c>
       <c r="I3" t="n">
         <v>0.4740221543063675</v>
@@ -31151,13 +31151,13 @@
         <v>0.8180004915297407</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0694</v>
+        <v>0.075</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0992</v>
+        <v>0.1008</v>
       </c>
       <c r="I4" t="n">
         <v>0.36913763089248</v>
@@ -31229,13 +31229,13 @@
         <v>0.726896532080209</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0623</v>
+        <v>0.0679</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.1071</v>
       </c>
       <c r="I5" t="n">
         <v>0.3818013931446038</v>
@@ -31307,13 +31307,13 @@
         <v>0.6361103564211222</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0614</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0795</v>
+        <v>0.0898</v>
       </c>
       <c r="I6" t="n">
         <v>0.3693756099955902</v>
@@ -31385,13 +31385,13 @@
         <v>0.545006396972945</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0678</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.0914</v>
       </c>
       <c r="I7" t="n">
         <v>0.330942508003212</v>
@@ -31463,13 +31463,13 @@
         <v>0.4539214876803671</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0626</v>
+        <v>0.057</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.2757847407169703</v>
@@ -31544,10 +31544,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0629</v>
+        <v>0.0582</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0815</v>
+        <v>0.083</v>
       </c>
       <c r="I9" t="n">
         <v>0.2181229096087698</v>
@@ -31622,10 +31622,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0614</v>
+        <v>0.0596</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0788</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>0.2279754100663546</v>
@@ -31700,10 +31700,10 @@
         <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0569</v>
+        <v>0.0531</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0736</v>
+        <v>0.0882</v>
       </c>
       <c r="I11" t="n">
         <v>0.1623147331378059</v>
@@ -31775,13 +31775,13 @@
         <v>0.0902776190989056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G12" t="n">
-        <v>0.043</v>
+        <v>0.0355</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0543</v>
+        <v>0.0505</v>
       </c>
       <c r="I12" t="n">
         <v>0.3886023836845826</v>
@@ -31853,13 +31853,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0296</v>
+        <v>0.0413</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0395</v>
+        <v>0.0733</v>
       </c>
       <c r="I13" t="n">
         <v>0.5197421356871796</v>

--- a/data/nzd0036/nzd0036.xlsx
+++ b/data/nzd0036/nzd0036.xlsx
@@ -592,7 +592,7 @@
         <v>333.51</v>
       </c>
       <c r="M3" t="n">
-        <v>306.07</v>
+        <v>306.49</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         <v>320.99</v>
       </c>
       <c r="M4" t="n">
-        <v>317.57</v>
+        <v>317.88</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         <v>314.97</v>
       </c>
       <c r="M6" t="n">
-        <v>377.78</v>
+        <v>376.34</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>350.45</v>
       </c>
       <c r="M8" t="n">
-        <v>339.53</v>
+        <v>340.06</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>365.2</v>
       </c>
       <c r="M9" t="n">
-        <v>375</v>
+        <v>376.64</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>353.79</v>
       </c>
       <c r="M10" t="n">
-        <v>350.03</v>
+        <v>348.81</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>365.43</v>
       </c>
       <c r="M11" t="n">
-        <v>354.33</v>
+        <v>353.26</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>331.79</v>
       </c>
       <c r="M15" t="n">
-        <v>323.71</v>
+        <v>324.04</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>366.51</v>
       </c>
       <c r="M16" t="n">
-        <v>366.09</v>
+        <v>365.6</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>371.92</v>
       </c>
       <c r="M17" t="n">
-        <v>365.16</v>
+        <v>366.76</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>358.91</v>
       </c>
       <c r="M18" t="n">
-        <v>347.37</v>
+        <v>349.44</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>344.44</v>
       </c>
       <c r="M27" t="n">
-        <v>338.32</v>
+        <v>339.74</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>338.17</v>
       </c>
       <c r="M28" t="n">
-        <v>342.6</v>
+        <v>341.64</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>349.92</v>
       </c>
       <c r="M29" t="n">
-        <v>329.83</v>
+        <v>331.1</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>359.15</v>
       </c>
       <c r="M30" t="n">
-        <v>363.32</v>
+        <v>362.85</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>351.26</v>
       </c>
       <c r="M31" t="n">
-        <v>330.04</v>
+        <v>331.55</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>358.36</v>
       </c>
       <c r="M32" t="n">
-        <v>360.13</v>
+        <v>361.78</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>348.52</v>
       </c>
       <c r="M33" t="n">
-        <v>341.02</v>
+        <v>341.18</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>333.16</v>
       </c>
       <c r="M37" t="n">
-        <v>310.54</v>
+        <v>310.45</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>366.54</v>
       </c>
       <c r="M41" t="n">
-        <v>350.27</v>
+        <v>350.43</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>361.17</v>
       </c>
       <c r="M42" t="n">
-        <v>345.94</v>
+        <v>345.56</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>369.46</v>
       </c>
       <c r="M43" t="n">
-        <v>341.46</v>
+        <v>342.59</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>349.81</v>
       </c>
       <c r="M44" t="n">
-        <v>299.42</v>
+        <v>299.69</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>366.41</v>
       </c>
       <c r="M45" t="n">
-        <v>335.52</v>
+        <v>335.65</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>336.07</v>
       </c>
       <c r="M47" t="n">
-        <v>321.72</v>
+        <v>321.9</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>333.85</v>
       </c>
       <c r="M52" t="n">
-        <v>354.3</v>
+        <v>355.74</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>360.22</v>
       </c>
       <c r="M53" t="n">
-        <v>376.28</v>
+        <v>375.03</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>349.3</v>
       </c>
       <c r="M56" t="n">
-        <v>334.88</v>
+        <v>336.17</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>351.23</v>
       </c>
       <c r="M59" t="n">
-        <v>348.43</v>
+        <v>348.3</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>319.52</v>
+        <v>319.34</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>351.18</v>
       </c>
       <c r="M62" t="n">
-        <v>332.05</v>
+        <v>332.89</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>350.1</v>
       </c>
       <c r="M70" t="n">
-        <v>329.08</v>
+        <v>328.79</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>354.09</v>
       </c>
       <c r="M74" t="n">
-        <v>353.67</v>
+        <v>354.09</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>358.67</v>
       </c>
       <c r="M76" t="n">
-        <v>363.09</v>
+        <v>362.54</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>329.68</v>
       </c>
       <c r="M77" t="n">
-        <v>339.18</v>
+        <v>340.34</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>357.24</v>
       </c>
       <c r="M78" t="n">
-        <v>339</v>
+        <v>340.91</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>369.82</v>
       </c>
       <c r="M79" t="n">
-        <v>341.75</v>
+        <v>343.82</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>378.87</v>
       </c>
       <c r="M80" t="n">
-        <v>358.17</v>
+        <v>359.77</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>354.52</v>
       </c>
       <c r="M81" t="n">
-        <v>355.77</v>
+        <v>355.22</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>352.97</v>
+        <v>353.01</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>357.33</v>
       </c>
       <c r="M83" t="n">
-        <v>358.24</v>
+        <v>358.59</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>379.3</v>
       </c>
       <c r="M84" t="n">
-        <v>371.25</v>
+        <v>372.12</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>366.22</v>
       </c>
       <c r="M85" t="n">
-        <v>362.5</v>
+        <v>362.46</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>355.93</v>
       </c>
       <c r="M86" t="n">
-        <v>353</v>
+        <v>352.36</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>354.49</v>
       </c>
       <c r="M87" t="n">
-        <v>358.4</v>
+        <v>357.42</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>377.18</v>
       </c>
       <c r="M88" t="n">
-        <v>354.78</v>
+        <v>356.2</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>345.78</v>
       </c>
       <c r="M89" t="n">
-        <v>336.03</v>
+        <v>335.68</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>344.11</v>
       </c>
       <c r="M90" t="n">
-        <v>323.81</v>
+        <v>323.52</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>362.97</v>
       </c>
       <c r="M92" t="n">
-        <v>334.15</v>
+        <v>334.3</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>349.79</v>
       </c>
       <c r="M95" t="n">
-        <v>314.41</v>
+        <v>314.97</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>350.16</v>
       </c>
       <c r="M101" t="n">
-        <v>338.7</v>
+        <v>339.14</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>332.66</v>
+        <v>332.55</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         <v>350.23</v>
       </c>
       <c r="M103" t="n">
-        <v>331.85</v>
+        <v>332.34</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         <v>322.03</v>
       </c>
       <c r="M104" t="n">
-        <v>319.9</v>
+        <v>321.52</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>354.24</v>
       </c>
       <c r="M105" t="n">
-        <v>381.77</v>
+        <v>380.97</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>366.71</v>
       </c>
       <c r="M106" t="n">
-        <v>375.54</v>
+        <v>374.52</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>375.72</v>
       </c>
       <c r="M108" t="n">
-        <v>368.5</v>
+        <v>368.81</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>354.87</v>
       </c>
       <c r="M109" t="n">
-        <v>354.92</v>
+        <v>355.1</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>350.77</v>
       </c>
       <c r="M110" t="n">
-        <v>337.98</v>
+        <v>339.31</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>336.76</v>
       </c>
       <c r="M111" t="n">
-        <v>320.68</v>
+        <v>320.64</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>358.24</v>
       </c>
       <c r="M113" t="n">
-        <v>357.77</v>
+        <v>356.86</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>371.24</v>
       </c>
       <c r="M115" t="n">
-        <v>358.05</v>
+        <v>358.03</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>378.83</v>
       </c>
       <c r="M116" t="n">
-        <v>369.91</v>
+        <v>371.31</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>370.23</v>
       </c>
       <c r="M117" t="n">
-        <v>351.67</v>
+        <v>352.56</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>369.28</v>
       </c>
       <c r="M118" t="n">
-        <v>332.53</v>
+        <v>332.51</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>340.62</v>
       </c>
       <c r="M121" t="n">
-        <v>314.58</v>
+        <v>313.73</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>364.42</v>
       </c>
       <c r="M122" t="n">
-        <v>339.81</v>
+        <v>341.14</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>351.85</v>
       </c>
       <c r="M126" t="n">
-        <v>331.38</v>
+        <v>331.93</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>349.42</v>
       </c>
       <c r="M130" t="n">
-        <v>337.65</v>
+        <v>338.38</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>360.64</v>
       </c>
       <c r="M132" t="n">
-        <v>369.49</v>
+        <v>368.38</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>354.89</v>
       </c>
       <c r="M133" t="n">
-        <v>350.9</v>
+        <v>352.28</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>348.7</v>
       </c>
       <c r="M137" t="n">
-        <v>352.05</v>
+        <v>352.92</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>360.54</v>
       </c>
       <c r="M138" t="n">
-        <v>354.1</v>
+        <v>353.52</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         <v>361.14</v>
       </c>
       <c r="M139" t="n">
-        <v>360.28</v>
+        <v>359.59</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         <v>345.09</v>
       </c>
       <c r="M140" t="n">
-        <v>320.62</v>
+        <v>320.91</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>343.14</v>
       </c>
       <c r="M141" t="n">
-        <v>323.01</v>
+        <v>323.74</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>363.38</v>
       </c>
       <c r="M142" t="n">
-        <v>326.59</v>
+        <v>327.5</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>290.19</v>
+        <v>289.64</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>335.14</v>
       </c>
       <c r="M147" t="n">
-        <v>331.18</v>
+        <v>330.78</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>338.03</v>
       </c>
       <c r="M148" t="n">
-        <v>345.13</v>
+        <v>345.68</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>349.96</v>
       </c>
       <c r="M150" t="n">
-        <v>345.44</v>
+        <v>346.31</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>366.38</v>
       </c>
       <c r="M153" t="n">
-        <v>341.43</v>
+        <v>343.12</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>362.4</v>
       </c>
       <c r="M154" t="n">
-        <v>354.78</v>
+        <v>354.43</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>326.65</v>
       </c>
       <c r="M158" t="n">
-        <v>346.39</v>
+        <v>345.75</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>354.5</v>
       </c>
       <c r="M160" t="n">
-        <v>335.53</v>
+        <v>337.09</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>332.89</v>
       </c>
       <c r="M161" t="n">
-        <v>340.87</v>
+        <v>339.72</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>361.52</v>
       </c>
       <c r="M162" t="n">
-        <v>342.02</v>
+        <v>342.86</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>346.58</v>
       </c>
       <c r="M163" t="n">
-        <v>352.31</v>
+        <v>351.26</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>373.65</v>
       </c>
       <c r="M166" t="n">
-        <v>354.9</v>
+        <v>356.12</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>358.89</v>
       </c>
       <c r="M169" t="n">
-        <v>328.08</v>
+        <v>329.61</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>360.35</v>
       </c>
       <c r="M172" t="n">
-        <v>350.25</v>
+        <v>348.81</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>324.8</v>
       </c>
       <c r="M175" t="n">
-        <v>307.62</v>
+        <v>306.71</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>328.41</v>
       </c>
       <c r="M180" t="n">
-        <v>343.25</v>
+        <v>342.16</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>318.49</v>
       </c>
       <c r="M181" t="n">
-        <v>336.81</v>
+        <v>335.57</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>354.76</v>
       </c>
       <c r="M182" t="n">
-        <v>364.2</v>
+        <v>363.73</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>345.88</v>
+        <v>346.75</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>357.75</v>
       </c>
       <c r="M184" t="n">
-        <v>355.24</v>
+        <v>356.88</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>361.74</v>
       </c>
       <c r="M186" t="n">
-        <v>351.66</v>
+        <v>350.82</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>360.06</v>
       </c>
       <c r="M188" t="n">
-        <v>353.56</v>
+        <v>353.71</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>367.89</v>
       </c>
       <c r="M189" t="n">
-        <v>352.33</v>
+        <v>353.11</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>360.35</v>
       </c>
       <c r="M191" t="n">
-        <v>349.92</v>
+        <v>349.47</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>331.34</v>
+        <v>332.76</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>359.98</v>
       </c>
       <c r="M194" t="n">
-        <v>344.45</v>
+        <v>345.78</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>373.56</v>
       </c>
       <c r="M195" t="n">
-        <v>340.59</v>
+        <v>340.88</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
-        <v>324.31</v>
+        <v>325.67</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>330.62</v>
       </c>
       <c r="M202" t="n">
-        <v>343.09</v>
+        <v>342.09</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>333.78</v>
       </c>
       <c r="M203" t="n">
-        <v>334.7</v>
+        <v>336.46</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>335.19</v>
       </c>
       <c r="M204" t="n">
-        <v>355.64</v>
+        <v>355.97</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         <v>352.74</v>
       </c>
       <c r="M206" t="n">
-        <v>347.15</v>
+        <v>346.51</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>368.78</v>
       </c>
       <c r="M210" t="n">
-        <v>343.3</v>
+        <v>343.37</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>349.65</v>
       </c>
       <c r="M212" t="n">
-        <v>336.33</v>
+        <v>335.53</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -9277,9 +9277,7 @@
       <c r="L213" t="n">
         <v>323.06</v>
       </c>
-      <c r="M213" t="n">
-        <v>296.57</v>
-      </c>
+      <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9407,7 +9405,9 @@
       <c r="L217" t="n">
         <v>375.9</v>
       </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>369.87</v>
+      </c>
       <c r="N217" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9495,9 +9495,7 @@
       <c r="L219" t="n">
         <v>345.6</v>
       </c>
-      <c r="M219" t="n">
-        <v>314.81</v>
-      </c>
+      <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
           <t>L5</t>
@@ -9543,7 +9541,9 @@
       <c r="L220" t="n">
         <v>372.16</v>
       </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>373.49</v>
+      </c>
       <c r="N220" t="inlineStr">
         <is>
           <t>L5</t>
@@ -9579,9 +9579,7 @@
       <c r="L221" t="n">
         <v>328.83</v>
       </c>
-      <c r="M221" t="n">
-        <v>312.49</v>
-      </c>
+      <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9610,7 +9608,7 @@
         <v>340.88</v>
       </c>
       <c r="M222" t="n">
-        <v>373.18</v>
+        <v>372.29</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -9648,7 +9646,7 @@
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>351.27</v>
+        <v>350</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -9680,7 +9678,7 @@
         <v>346.21</v>
       </c>
       <c r="M224" t="n">
-        <v>352.7</v>
+        <v>351.63</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -9716,7 +9714,7 @@
         <v>343.88</v>
       </c>
       <c r="M225" t="n">
-        <v>342.92</v>
+        <v>344.97</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -9786,7 +9784,7 @@
         <v>344.48</v>
       </c>
       <c r="M227" t="n">
-        <v>333.35</v>
+        <v>332.46</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -9826,7 +9824,7 @@
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
-        <v>326.83</v>
+        <v>328.5</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -9858,7 +9856,7 @@
         <v>326.66</v>
       </c>
       <c r="M229" t="n">
-        <v>321.32</v>
+        <v>320.08</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -9888,7 +9886,7 @@
         <v>344.54</v>
       </c>
       <c r="M230" t="n">
-        <v>334.85</v>
+        <v>333.2</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -10016,7 +10014,7 @@
         <v>354.36</v>
       </c>
       <c r="M233" t="n">
-        <v>364.48</v>
+        <v>364.83</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -10054,7 +10052,7 @@
         <v>340.65</v>
       </c>
       <c r="M234" t="n">
-        <v>337.25</v>
+        <v>337.96</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -10194,7 +10192,7 @@
         <v>357.11</v>
       </c>
       <c r="M237" t="n">
-        <v>349.07</v>
+        <v>349.25</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -10242,7 +10240,7 @@
         <v>366.78</v>
       </c>
       <c r="M238" t="n">
-        <v>337.16</v>
+        <v>338.16</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -10328,7 +10326,7 @@
         <v>348.31</v>
       </c>
       <c r="M240" t="n">
-        <v>351.06</v>
+        <v>349.73</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -10376,7 +10374,7 @@
         <v>353.58</v>
       </c>
       <c r="M241" t="n">
-        <v>330.94</v>
+        <v>332.69</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -10582,7 +10580,7 @@
         <v>345.06</v>
       </c>
       <c r="M246" t="n">
-        <v>328.33</v>
+        <v>329.22</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -10708,7 +10706,7 @@
         <v>342.61</v>
       </c>
       <c r="M249" t="n">
-        <v>321.75</v>
+        <v>321.77</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -10870,7 +10868,7 @@
         <v>341.94</v>
       </c>
       <c r="M253" t="n">
-        <v>332.06</v>
+        <v>333.68</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -10918,7 +10916,7 @@
         <v>355.16</v>
       </c>
       <c r="M254" t="n">
-        <v>339.14</v>
+        <v>340.72</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -10966,7 +10964,7 @@
         <v>362.09</v>
       </c>
       <c r="M255" t="n">
-        <v>368.05</v>
+        <v>367.18</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -10998,7 +10996,7 @@
         <v>340.21</v>
       </c>
       <c r="M256" t="n">
-        <v>337.24</v>
+        <v>338.17</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -11044,7 +11042,7 @@
         <v>353.62</v>
       </c>
       <c r="M257" t="n">
-        <v>355.76</v>
+        <v>356.21</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -11092,7 +11090,7 @@
         <v>346.91</v>
       </c>
       <c r="M258" t="n">
-        <v>341.38</v>
+        <v>343.53</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -11140,7 +11138,7 @@
         <v>366.11</v>
       </c>
       <c r="M259" t="n">
-        <v>366.56</v>
+        <v>365.96</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -11234,7 +11232,7 @@
         <v>358.45</v>
       </c>
       <c r="M261" t="n">
-        <v>363.24</v>
+        <v>364.48</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -11282,7 +11280,7 @@
         <v>362.03</v>
       </c>
       <c r="M262" t="n">
-        <v>367.52</v>
+        <v>368.17</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -11330,7 +11328,7 @@
         <v>363.58</v>
       </c>
       <c r="M263" t="n">
-        <v>357.83</v>
+        <v>359.34</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -11378,7 +11376,7 @@
         <v>356.09</v>
       </c>
       <c r="M264" t="n">
-        <v>339.22</v>
+        <v>340.69</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -11426,7 +11424,7 @@
         <v>360.33</v>
       </c>
       <c r="M265" t="n">
-        <v>357.84</v>
+        <v>357.37</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -11518,7 +11516,7 @@
         <v>360.45</v>
       </c>
       <c r="M267" t="n">
-        <v>352.43</v>
+        <v>351.58</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -11596,7 +11594,7 @@
         <v>358.4</v>
       </c>
       <c r="M269" t="n">
-        <v>366.33</v>
+        <v>365</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -11644,7 +11642,7 @@
         <v>379.39</v>
       </c>
       <c r="M270" t="n">
-        <v>354.36</v>
+        <v>354.98</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -11690,7 +11688,7 @@
         <v>365.76</v>
       </c>
       <c r="M271" t="n">
-        <v>367.25</v>
+        <v>366.52</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -11738,7 +11736,7 @@
         <v>361.12</v>
       </c>
       <c r="M272" t="n">
-        <v>360.51</v>
+        <v>360.75</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -11770,7 +11768,7 @@
         <v>336.11</v>
       </c>
       <c r="M273" t="n">
-        <v>338.16</v>
+        <v>338.92</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -11818,7 +11816,7 @@
         <v>366.2</v>
       </c>
       <c r="M274" t="n">
-        <v>351.07</v>
+        <v>351.23</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -11856,7 +11854,7 @@
         <v>371.15</v>
       </c>
       <c r="M275" t="n">
-        <v>341.51</v>
+        <v>342.46</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -12122,7 +12120,7 @@
         <v>345.25</v>
       </c>
       <c r="M281" t="n">
-        <v>321.2</v>
+        <v>321.4</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -12164,7 +12162,7 @@
         <v>335.29</v>
       </c>
       <c r="M282" t="n">
-        <v>336.69</v>
+        <v>338.6</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -12256,7 +12254,7 @@
         <v>349.08</v>
       </c>
       <c r="M284" t="n">
-        <v>347.93</v>
+        <v>348.46</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -12332,7 +12330,7 @@
         <v>332.84</v>
       </c>
       <c r="M286" t="n">
-        <v>371.32</v>
+        <v>373.08</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -12380,7 +12378,7 @@
         <v>368.27</v>
       </c>
       <c r="M287" t="n">
-        <v>358.45</v>
+        <v>357.87</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -12422,7 +12420,7 @@
         <v>371.3</v>
       </c>
       <c r="M288" t="n">
-        <v>372.85</v>
+        <v>374.38</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -12470,7 +12468,7 @@
         <v>349.55</v>
       </c>
       <c r="M289" t="n">
-        <v>361.21</v>
+        <v>362.52</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -12508,7 +12506,7 @@
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
-        <v>348.16</v>
+        <v>348.4</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -12554,7 +12552,7 @@
       </c>
       <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
-        <v>360.31</v>
+        <v>361.76</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -12590,7 +12588,7 @@
         <v>350.03</v>
       </c>
       <c r="M292" t="n">
-        <v>351.27</v>
+        <v>350.4</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -12622,7 +12620,7 @@
         <v>350.32</v>
       </c>
       <c r="M293" t="n">
-        <v>357.02</v>
+        <v>356.24</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -12670,7 +12668,7 @@
         <v>357.59</v>
       </c>
       <c r="M294" t="n">
-        <v>346.73</v>
+        <v>347.17</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -12706,7 +12704,7 @@
         <v>349.4</v>
       </c>
       <c r="M295" t="n">
-        <v>330.98</v>
+        <v>330.83</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -12754,7 +12752,7 @@
         <v>358.56</v>
       </c>
       <c r="M296" t="n">
-        <v>340.59</v>
+        <v>340.81</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -12802,7 +12800,7 @@
         <v>328.37</v>
       </c>
       <c r="M297" t="n">
-        <v>329.65</v>
+        <v>329.89</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -12894,7 +12892,7 @@
         <v>340.8</v>
       </c>
       <c r="M299" t="n">
-        <v>347.76</v>
+        <v>346.47</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -12934,7 +12932,7 @@
         <v>341.67</v>
       </c>
       <c r="M300" t="n">
-        <v>329.65</v>
+        <v>331.25</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -12982,7 +12980,7 @@
         <v>351.64</v>
       </c>
       <c r="M301" t="n">
-        <v>336.59</v>
+        <v>337.77</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -13022,7 +13020,7 @@
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
-        <v>306</v>
+        <v>306.76</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -13116,7 +13114,7 @@
         <v>338.7</v>
       </c>
       <c r="M304" t="n">
-        <v>314.2</v>
+        <v>315.25</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -13210,7 +13208,7 @@
         <v>349.91</v>
       </c>
       <c r="M306" t="n">
-        <v>328.22</v>
+        <v>328.6</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -13292,7 +13290,7 @@
         <v>364.79</v>
       </c>
       <c r="M308" t="n">
-        <v>372.4</v>
+        <v>371.2</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -13340,7 +13338,7 @@
         <v>355.82</v>
       </c>
       <c r="M309" t="n">
-        <v>354.6</v>
+        <v>353.05</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -13388,7 +13386,7 @@
         <v>370.83</v>
       </c>
       <c r="M310" t="n">
-        <v>360.59</v>
+        <v>361.34</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -13436,7 +13434,7 @@
         <v>357.63</v>
       </c>
       <c r="M311" t="n">
-        <v>364.76</v>
+        <v>363.54</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -13484,7 +13482,7 @@
         <v>374.96</v>
       </c>
       <c r="M312" t="n">
-        <v>362.05</v>
+        <v>363.87</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -13520,7 +13518,7 @@
         <v>356.45</v>
       </c>
       <c r="M313" t="n">
-        <v>356.13</v>
+        <v>358.02</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -13568,7 +13566,7 @@
         <v>349.82</v>
       </c>
       <c r="M314" t="n">
-        <v>346.02</v>
+        <v>348</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -13616,7 +13614,7 @@
         <v>357.86</v>
       </c>
       <c r="M315" t="n">
-        <v>357.14</v>
+        <v>358.01</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -13656,7 +13654,7 @@
         <v>336.96</v>
       </c>
       <c r="M316" t="n">
-        <v>332.96</v>
+        <v>333.01</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -13704,7 +13702,7 @@
         <v>349.47</v>
       </c>
       <c r="M317" t="n">
-        <v>353.53</v>
+        <v>354.86</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -13752,7 +13750,7 @@
         <v>354.17</v>
       </c>
       <c r="M318" t="n">
-        <v>348.67</v>
+        <v>350.16</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -13800,7 +13798,7 @@
         <v>377.47</v>
       </c>
       <c r="M319" t="n">
-        <v>365.03</v>
+        <v>366.19</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -13836,7 +13834,7 @@
         <v>346.26</v>
       </c>
       <c r="M320" t="n">
-        <v>335.79</v>
+        <v>335.72</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -13884,7 +13882,7 @@
         <v>350.5</v>
       </c>
       <c r="M321" t="n">
-        <v>337.95</v>
+        <v>338.11</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -13978,7 +13976,7 @@
         <v>355.56</v>
       </c>
       <c r="M323" t="n">
-        <v>343.37</v>
+        <v>342.37</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -14102,7 +14100,7 @@
         <v>329.74</v>
       </c>
       <c r="M326" t="n">
-        <v>312.76</v>
+        <v>311.58</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -14196,7 +14194,7 @@
         <v>366.34</v>
       </c>
       <c r="M328" t="n">
-        <v>378.99</v>
+        <v>378.24</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -14244,7 +14242,7 @@
         <v>350.64</v>
       </c>
       <c r="M329" t="n">
-        <v>366.74</v>
+        <v>365.87</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -14292,7 +14290,7 @@
         <v>372.57</v>
       </c>
       <c r="M330" t="n">
-        <v>379.92</v>
+        <v>379.16</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -14386,7 +14384,7 @@
         <v>355.12</v>
       </c>
       <c r="M332" t="n">
-        <v>358.7</v>
+        <v>359.06</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -14434,7 +14432,7 @@
         <v>357.31</v>
       </c>
       <c r="M333" t="n">
-        <v>360.78</v>
+        <v>360</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -14482,7 +14480,7 @@
         <v>352.98</v>
       </c>
       <c r="M334" t="n">
-        <v>367.49</v>
+        <v>368.42</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -14520,7 +14518,7 @@
         <v>335.81</v>
       </c>
       <c r="M335" t="n">
-        <v>367.33</v>
+        <v>368.73</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -14702,7 +14700,7 @@
         <v>376.36</v>
       </c>
       <c r="M339" t="n">
-        <v>352.83</v>
+        <v>354.16</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -14740,7 +14738,7 @@
         <v>376.85</v>
       </c>
       <c r="M340" t="n">
-        <v>361.17</v>
+        <v>361.68</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -14788,7 +14786,7 @@
         <v>341.49</v>
       </c>
       <c r="M341" t="n">
-        <v>330.81</v>
+        <v>332.01</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -14824,7 +14822,7 @@
         <v>329.33</v>
       </c>
       <c r="M342" t="n">
-        <v>335.13</v>
+        <v>334</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -14872,7 +14870,7 @@
         <v>353.76</v>
       </c>
       <c r="M343" t="n">
-        <v>332.35</v>
+        <v>333.84</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -14919,7 +14917,9 @@
       <c r="L344" t="n">
         <v>368.48</v>
       </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="M344" t="n">
+        <v>372.56</v>
+      </c>
       <c r="N344" t="inlineStr">
         <is>
           <t>L8</t>
@@ -14965,7 +14965,9 @@
       <c r="L345" t="n">
         <v>369</v>
       </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="M345" t="n">
+        <v>381.51</v>
+      </c>
       <c r="N345" t="inlineStr">
         <is>
           <t>L8</t>
@@ -15136,7 +15138,7 @@
         <v>349.43</v>
       </c>
       <c r="M349" t="n">
-        <v>324.89</v>
+        <v>324.96</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -15368,7 +15370,7 @@
         <v>356.17</v>
       </c>
       <c r="M354" t="n">
-        <v>362.94</v>
+        <v>362.09</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -15416,7 +15418,7 @@
         <v>363.26</v>
       </c>
       <c r="M355" t="n">
-        <v>364.06</v>
+        <v>363.1</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -15506,7 +15508,7 @@
         <v>367.88</v>
       </c>
       <c r="M357" t="n">
-        <v>361.11</v>
+        <v>361.22</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -15542,7 +15544,7 @@
         <v>348.65</v>
       </c>
       <c r="M358" t="n">
-        <v>347.3</v>
+        <v>346.08</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -15590,7 +15592,7 @@
         <v>359.04</v>
       </c>
       <c r="M359" t="n">
-        <v>346.4</v>
+        <v>347.87</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -15638,7 +15640,7 @@
         <v>370.82</v>
       </c>
       <c r="M360" t="n">
-        <v>370.21</v>
+        <v>369.36</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -15898,7 +15900,7 @@
         <v>343.38</v>
       </c>
       <c r="M366" t="n">
-        <v>367.79</v>
+        <v>366.44</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -16056,7 +16058,7 @@
         <v>353.02</v>
       </c>
       <c r="M370" t="n">
-        <v>349.94</v>
+        <v>350.81</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -16104,7 +16106,7 @@
         <v>368.64</v>
       </c>
       <c r="M371" t="n">
-        <v>368.21</v>
+        <v>367.48</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -16152,7 +16154,7 @@
         <v>367.69</v>
       </c>
       <c r="M372" t="n">
-        <v>379.28</v>
+        <v>380.37</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -16200,7 +16202,7 @@
         <v>382.32</v>
       </c>
       <c r="M373" t="n">
-        <v>369.15</v>
+        <v>369.59</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -16248,7 +16250,7 @@
         <v>372.13</v>
       </c>
       <c r="M374" t="n">
-        <v>362.49</v>
+        <v>362.53</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -16378,7 +16380,7 @@
         <v>386.53</v>
       </c>
       <c r="M377" t="n">
-        <v>372.3</v>
+        <v>373.52</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -16426,7 +16428,7 @@
         <v>362.52</v>
       </c>
       <c r="M378" t="n">
-        <v>362.21</v>
+        <v>361.37</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -16474,7 +16476,7 @@
         <v>365.08</v>
       </c>
       <c r="M379" t="n">
-        <v>363.68</v>
+        <v>363.06</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -16522,7 +16524,7 @@
         <v>341.12</v>
       </c>
       <c r="M380" t="n">
-        <v>354.55</v>
+        <v>353.7</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -16570,7 +16572,7 @@
         <v>368.61</v>
       </c>
       <c r="M381" t="n">
-        <v>362.39</v>
+        <v>363.77</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -16618,7 +16620,7 @@
         <v>366.14</v>
       </c>
       <c r="M382" t="n">
-        <v>354.75</v>
+        <v>354.62</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -16666,7 +16668,7 @@
         <v>355.32</v>
       </c>
       <c r="M383" t="n">
-        <v>344.54</v>
+        <v>343.87</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -16702,7 +16704,7 @@
         <v>337.36</v>
       </c>
       <c r="M384" t="n">
-        <v>323.85</v>
+        <v>322.54</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -16750,7 +16752,7 @@
         <v>370.18</v>
       </c>
       <c r="M385" t="n">
-        <v>348.32</v>
+        <v>349.79</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -16798,7 +16800,7 @@
         <v>352.9</v>
       </c>
       <c r="M386" t="n">
-        <v>342.8</v>
+        <v>341.78</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -16846,7 +16848,7 @@
         <v>343.74</v>
       </c>
       <c r="M387" t="n">
-        <v>330.98</v>
+        <v>332.53</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -16894,7 +16896,7 @@
         <v>348.73</v>
       </c>
       <c r="M388" t="n">
-        <v>321.83</v>
+        <v>322.14</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -16988,7 +16990,7 @@
         <v>352.81</v>
       </c>
       <c r="M390" t="n">
-        <v>376.05</v>
+        <v>374.8</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -17080,7 +17082,7 @@
         <v>365.49</v>
       </c>
       <c r="M392" t="n">
-        <v>362.07</v>
+        <v>361.83</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -17128,7 +17130,7 @@
         <v>360.9</v>
       </c>
       <c r="M393" t="n">
-        <v>358.79</v>
+        <v>358.19</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -17162,7 +17164,7 @@
         <v>348.73</v>
       </c>
       <c r="M394" t="n">
-        <v>350.76</v>
+        <v>349.41</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -17210,7 +17212,7 @@
         <v>376.95</v>
       </c>
       <c r="M395" t="n">
-        <v>375.66</v>
+        <v>376.68</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -17258,7 +17260,7 @@
         <v>370.54</v>
       </c>
       <c r="M396" t="n">
-        <v>373.89</v>
+        <v>374.45</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -17290,7 +17292,7 @@
         <v>374.63</v>
       </c>
       <c r="M397" t="n">
-        <v>369.17</v>
+        <v>370.24</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -17338,7 +17340,7 @@
         <v>377.32</v>
       </c>
       <c r="M398" t="n">
-        <v>367.79</v>
+        <v>368.15</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -17430,7 +17432,7 @@
         <v>361.66</v>
       </c>
       <c r="M400" t="n">
-        <v>361.82</v>
+        <v>360.95</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -17478,7 +17480,7 @@
         <v>388.15</v>
       </c>
       <c r="M401" t="n">
-        <v>374.28</v>
+        <v>375.59</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -17570,7 +17572,7 @@
         <v>389.18</v>
       </c>
       <c r="M403" t="n">
-        <v>377.93</v>
+        <v>379.98</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -17606,7 +17608,7 @@
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
-        <v>375.31</v>
+        <v>377.42</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -17654,7 +17656,7 @@
         <v>383.62</v>
       </c>
       <c r="M405" t="n">
-        <v>365.5</v>
+        <v>366.95</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -17680,7 +17682,7 @@
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
-        <v>314.71</v>
+        <v>313.76</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -17728,7 +17730,7 @@
         <v>369.27</v>
       </c>
       <c r="M407" t="n">
-        <v>345.41</v>
+        <v>345.52</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -17776,7 +17778,7 @@
         <v>345.36</v>
       </c>
       <c r="M408" t="n">
-        <v>336.1</v>
+        <v>335.75</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -17820,7 +17822,7 @@
         <v>345.57</v>
       </c>
       <c r="M409" t="n">
-        <v>316.58</v>
+        <v>315.63</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -17864,7 +17866,7 @@
         <v>362.77</v>
       </c>
       <c r="M410" t="n">
-        <v>329.89</v>
+        <v>331.38</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -17912,7 +17914,7 @@
         <v>330.91</v>
       </c>
       <c r="M411" t="n">
-        <v>339.77</v>
+        <v>338.08</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -17986,7 +17988,7 @@
       </c>
       <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
-        <v>338.75</v>
+        <v>339.4</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -18070,7 +18072,7 @@
         <v>373.34</v>
       </c>
       <c r="M415" t="n">
-        <v>342.76</v>
+        <v>343.09</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -18336,7 +18338,7 @@
         <v>366.87</v>
       </c>
       <c r="M421" t="n">
-        <v>359.78</v>
+        <v>361.76</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -18384,7 +18386,7 @@
         <v>363.92</v>
       </c>
       <c r="M422" t="n">
-        <v>357.63</v>
+        <v>357.1</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -18470,7 +18472,7 @@
         <v>370.68</v>
       </c>
       <c r="M424" t="n">
-        <v>354.87</v>
+        <v>354.83</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -18518,7 +18520,7 @@
         <v>364.07</v>
       </c>
       <c r="M425" t="n">
-        <v>344.64</v>
+        <v>345.06</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -18566,7 +18568,7 @@
         <v>364.06</v>
       </c>
       <c r="M426" t="n">
-        <v>354.72</v>
+        <v>353.99</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -18614,7 +18616,7 @@
         <v>368.43</v>
       </c>
       <c r="M427" t="n">
-        <v>350.41</v>
+        <v>352.26</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -18650,7 +18652,7 @@
         <v>360.63</v>
       </c>
       <c r="M428" t="n">
-        <v>332.92</v>
+        <v>333.79</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -18698,7 +18700,7 @@
         <v>344.45</v>
       </c>
       <c r="M429" t="n">
-        <v>345.61</v>
+        <v>344.59</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -18746,7 +18748,7 @@
         <v>373.1</v>
       </c>
       <c r="M430" t="n">
-        <v>346.72</v>
+        <v>347.96</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -18830,7 +18832,7 @@
         <v>362.84</v>
       </c>
       <c r="M432" t="n">
-        <v>343.25</v>
+        <v>343.92</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -18918,7 +18920,7 @@
         <v>347.37</v>
       </c>
       <c r="M434" t="n">
-        <v>323.6</v>
+        <v>324.16</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -19032,7 +19034,7 @@
         <v>352.94</v>
       </c>
       <c r="M437" t="n">
-        <v>306.95</v>
+        <v>308.08</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -19164,7 +19166,7 @@
         <v>348.71</v>
       </c>
       <c r="M440" t="n">
-        <v>335.75</v>
+        <v>336.42</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -19240,7 +19242,7 @@
         <v>363.49</v>
       </c>
       <c r="M442" t="n">
-        <v>367.88</v>
+        <v>368.83</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -19288,7 +19290,7 @@
         <v>364.28</v>
       </c>
       <c r="M443" t="n">
-        <v>364.63</v>
+        <v>363.74</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -19336,7 +19338,7 @@
         <v>344.49</v>
       </c>
       <c r="M444" t="n">
-        <v>359.87</v>
+        <v>361.51</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -19364,7 +19366,7 @@
         <v>355.71</v>
       </c>
       <c r="M445" t="n">
-        <v>343.68</v>
+        <v>344.52</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -19412,7 +19414,7 @@
         <v>362.35</v>
       </c>
       <c r="M446" t="n">
-        <v>364.04</v>
+        <v>364.13</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -19460,7 +19462,7 @@
         <v>364.73</v>
       </c>
       <c r="M447" t="n">
-        <v>363.53</v>
+        <v>364.97</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -19508,7 +19510,7 @@
         <v>362.22</v>
       </c>
       <c r="M448" t="n">
-        <v>360.2</v>
+        <v>361</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -19590,7 +19592,7 @@
         <v>360.32</v>
       </c>
       <c r="M450" t="n">
-        <v>350.57</v>
+        <v>351.55</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -19626,7 +19628,7 @@
         <v>375.39</v>
       </c>
       <c r="M451" t="n">
-        <v>335.12</v>
+        <v>336.85</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -19674,7 +19676,7 @@
         <v>365.26</v>
       </c>
       <c r="M452" t="n">
-        <v>352.39</v>
+        <v>351.54</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -19722,7 +19724,7 @@
         <v>348.84</v>
       </c>
       <c r="M453" t="n">
-        <v>343.3</v>
+        <v>344.65</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -19770,7 +19772,7 @@
         <v>357.73</v>
       </c>
       <c r="M454" t="n">
-        <v>357.24</v>
+        <v>356.31</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -19818,7 +19820,7 @@
         <v>366.39</v>
       </c>
       <c r="M455" t="n">
-        <v>356.11</v>
+        <v>357.07</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -19866,7 +19868,7 @@
         <v>349.89</v>
       </c>
       <c r="M456" t="n">
-        <v>345.15</v>
+        <v>343.88</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -19962,7 +19964,7 @@
         <v>363.45</v>
       </c>
       <c r="M458" t="n">
-        <v>352.56</v>
+        <v>353.03</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -20010,7 +20012,7 @@
         <v>339.52</v>
       </c>
       <c r="M459" t="n">
-        <v>341.15</v>
+        <v>340.59</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -20058,7 +20060,7 @@
         <v>356.46</v>
       </c>
       <c r="M460" t="n">
-        <v>338.4</v>
+        <v>338.8</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -20106,7 +20108,7 @@
         <v>344.11</v>
       </c>
       <c r="M461" t="n">
-        <v>340.48</v>
+        <v>339.83</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -20314,7 +20316,7 @@
         <v>337.9</v>
       </c>
       <c r="M466" t="n">
-        <v>336.3</v>
+        <v>337.46</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -20408,7 +20410,7 @@
         <v>359.18</v>
       </c>
       <c r="M468" t="n">
-        <v>355.41</v>
+        <v>353.94</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -20456,7 +20458,7 @@
         <v>341.49</v>
       </c>
       <c r="M469" t="n">
-        <v>343.37</v>
+        <v>342.99</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -20504,7 +20506,7 @@
         <v>356.35</v>
       </c>
       <c r="M470" t="n">
-        <v>348.04</v>
+        <v>348.02</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -20552,7 +20554,7 @@
         <v>353.66</v>
       </c>
       <c r="M471" t="n">
-        <v>368.17</v>
+        <v>366.99</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -20640,7 +20642,7 @@
         <v>356</v>
       </c>
       <c r="M473" t="n">
-        <v>364.06</v>
+        <v>362.68</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -20688,7 +20690,7 @@
         <v>368.11</v>
       </c>
       <c r="M474" t="n">
-        <v>346.48</v>
+        <v>347.95</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -20736,7 +20738,7 @@
         <v>363.58</v>
       </c>
       <c r="M475" t="n">
-        <v>349.19</v>
+        <v>350.28</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -20784,7 +20786,7 @@
         <v>350.78</v>
       </c>
       <c r="M476" t="n">
-        <v>349.33</v>
+        <v>349.37</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -20832,7 +20834,7 @@
         <v>342.68</v>
       </c>
       <c r="M477" t="n">
-        <v>345.97</v>
+        <v>345.61</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -20984,7 +20986,7 @@
         <v>370</v>
       </c>
       <c r="M481" t="n">
-        <v>368.49</v>
+        <v>367.69</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -21118,7 +21120,7 @@
         <v>360.58</v>
       </c>
       <c r="M484" t="n">
-        <v>353.75</v>
+        <v>354.62</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -21166,7 +21168,7 @@
         <v>375.73</v>
       </c>
       <c r="M485" t="n">
-        <v>388.45</v>
+        <v>387</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -21214,7 +21216,7 @@
         <v>371.59</v>
       </c>
       <c r="M486" t="n">
-        <v>387.71</v>
+        <v>386.51</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -21307,7 +21309,9 @@
       <c r="L488" t="n">
         <v>353.75</v>
       </c>
-      <c r="M488" t="inlineStr"/>
+      <c r="M488" t="n">
+        <v>326.98</v>
+      </c>
       <c r="N488" t="inlineStr">
         <is>
           <t>L9</t>
@@ -21399,7 +21403,9 @@
       <c r="L490" t="n">
         <v>344.25</v>
       </c>
-      <c r="M490" t="inlineStr"/>
+      <c r="M490" t="n">
+        <v>319.02</v>
+      </c>
       <c r="N490" t="inlineStr">
         <is>
           <t>L9</t>
@@ -21491,7 +21497,9 @@
       <c r="L492" t="n">
         <v>346.42</v>
       </c>
-      <c r="M492" t="inlineStr"/>
+      <c r="M492" t="n">
+        <v>318.31</v>
+      </c>
       <c r="N492" t="inlineStr">
         <is>
           <t>L8</t>
@@ -21666,7 +21674,7 @@
         <v>380.24</v>
       </c>
       <c r="M496" t="n">
-        <v>392.68</v>
+        <v>391.26</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -21714,7 +21722,7 @@
         <v>371.39</v>
       </c>
       <c r="M497" t="n">
-        <v>363.27</v>
+        <v>363.07</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -21854,7 +21862,7 @@
         <v>329.94</v>
       </c>
       <c r="M500" t="n">
-        <v>346.73</v>
+        <v>347.35</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -21946,7 +21954,7 @@
         <v>355.33</v>
       </c>
       <c r="M502" t="n">
-        <v>368.41</v>
+        <v>369.36</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -21994,7 +22002,7 @@
         <v>352.66</v>
       </c>
       <c r="M503" t="n">
-        <v>344.55</v>
+        <v>346.1</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -22072,7 +22080,7 @@
         <v>360.97</v>
       </c>
       <c r="M505" t="n">
-        <v>374.45</v>
+        <v>375.96</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -22120,7 +22128,7 @@
         <v>368.3</v>
       </c>
       <c r="M506" t="n">
-        <v>378.86</v>
+        <v>379.61</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -22168,7 +22176,7 @@
         <v>360.39</v>
       </c>
       <c r="M507" t="n">
-        <v>372.98</v>
+        <v>373.98</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -22216,7 +22224,7 @@
         <v>352.4</v>
       </c>
       <c r="M508" t="n">
-        <v>337.44</v>
+        <v>336.64</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -22310,7 +22318,7 @@
         <v>353.59</v>
       </c>
       <c r="M510" t="n">
-        <v>356.96</v>
+        <v>358.94</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -22358,7 +22366,7 @@
         <v>367.12</v>
       </c>
       <c r="M511" t="n">
-        <v>384.89</v>
+        <v>387.11</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -22406,7 +22414,7 @@
         <v>360.87</v>
       </c>
       <c r="M512" t="n">
-        <v>358.48</v>
+        <v>357.72</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -22454,7 +22462,7 @@
         <v>389.6</v>
       </c>
       <c r="M513" t="n">
-        <v>370.06</v>
+        <v>371.5</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -22502,7 +22510,7 @@
         <v>375.88</v>
       </c>
       <c r="M514" t="n">
-        <v>366.81</v>
+        <v>367.88</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -22550,7 +22558,7 @@
         <v>369.01</v>
       </c>
       <c r="M515" t="n">
-        <v>359.71</v>
+        <v>360.06</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -22598,7 +22606,7 @@
         <v>352.45</v>
       </c>
       <c r="M516" t="n">
-        <v>351.02</v>
+        <v>350.73</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -22646,7 +22654,7 @@
         <v>345.91</v>
       </c>
       <c r="M517" t="n">
-        <v>350.89</v>
+        <v>349.94</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -22694,7 +22702,7 @@
         <v>368.36</v>
       </c>
       <c r="M518" t="n">
-        <v>356.72</v>
+        <v>357.94</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -22742,7 +22750,7 @@
         <v>368.12</v>
       </c>
       <c r="M519" t="n">
-        <v>354.48</v>
+        <v>356.01</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -22790,7 +22798,7 @@
         <v>365.55</v>
       </c>
       <c r="M520" t="n">
-        <v>347.67</v>
+        <v>348.94</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -22838,7 +22846,7 @@
         <v>370.63</v>
       </c>
       <c r="M521" t="n">
-        <v>348.79</v>
+        <v>347.15</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -22886,7 +22894,7 @@
         <v>350.75</v>
       </c>
       <c r="M522" t="n">
-        <v>358.5</v>
+        <v>359.66</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -22934,7 +22942,7 @@
         <v>351.89</v>
       </c>
       <c r="M523" t="n">
-        <v>343.1</v>
+        <v>343.61</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -23030,7 +23038,7 @@
         <v>355.02</v>
       </c>
       <c r="M525" t="n">
-        <v>337.83</v>
+        <v>338.07</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -23078,7 +23086,7 @@
         <v>342.89</v>
       </c>
       <c r="M526" t="n">
-        <v>337</v>
+        <v>337.76</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -23126,7 +23134,7 @@
         <v>359.43</v>
       </c>
       <c r="M527" t="n">
-        <v>348.55</v>
+        <v>347.93</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -23174,7 +23182,7 @@
         <v>359.36</v>
       </c>
       <c r="M528" t="n">
-        <v>345.07</v>
+        <v>346.6</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -23222,7 +23230,7 @@
         <v>370.88</v>
       </c>
       <c r="M529" t="n">
-        <v>348.03</v>
+        <v>349.92</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -23270,7 +23278,7 @@
         <v>339.91</v>
       </c>
       <c r="M530" t="n">
-        <v>332.88</v>
+        <v>331.53</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -23318,7 +23326,7 @@
         <v>357</v>
       </c>
       <c r="M531" t="n">
-        <v>339.29</v>
+        <v>340.04</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -23366,7 +23374,7 @@
         <v>368.63</v>
       </c>
       <c r="M532" t="n">
-        <v>352.22</v>
+        <v>354.17</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -23414,7 +23422,7 @@
         <v>360.32</v>
       </c>
       <c r="M533" t="n">
-        <v>355.37</v>
+        <v>354.46</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -23462,7 +23470,7 @@
         <v>381.14</v>
       </c>
       <c r="M534" t="n">
-        <v>369.79</v>
+        <v>371.3</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -23510,7 +23518,7 @@
         <v>384.88</v>
       </c>
       <c r="M535" t="n">
-        <v>366.61</v>
+        <v>368.23</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -23556,7 +23564,7 @@
       </c>
       <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
-        <v>342.61</v>
+        <v>344.21</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -23604,7 +23612,7 @@
         <v>370.84</v>
       </c>
       <c r="M537" t="n">
-        <v>365.88</v>
+        <v>365.64</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -23652,7 +23660,7 @@
         <v>365.76</v>
       </c>
       <c r="M538" t="n">
-        <v>356.64</v>
+        <v>356.6</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -23700,7 +23708,7 @@
         <v>374.55</v>
       </c>
       <c r="M539" t="n">
-        <v>330.2</v>
+        <v>331.22</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -23748,7 +23756,7 @@
         <v>363.57</v>
       </c>
       <c r="M540" t="n">
-        <v>360.93</v>
+        <v>360.26</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -23796,7 +23804,7 @@
         <v>388.22</v>
       </c>
       <c r="M541" t="n">
-        <v>367.15</v>
+        <v>368.95</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -23844,7 +23852,7 @@
         <v>369.77</v>
       </c>
       <c r="M542" t="n">
-        <v>361.53</v>
+        <v>360.66</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -23892,7 +23900,7 @@
         <v>365.71</v>
       </c>
       <c r="M543" t="n">
-        <v>363.24</v>
+        <v>362.59</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -23940,7 +23948,7 @@
         <v>368.65</v>
       </c>
       <c r="M544" t="n">
-        <v>358.54</v>
+        <v>357.56</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -23988,7 +23996,7 @@
         <v>367.89</v>
       </c>
       <c r="M545" t="n">
-        <v>367.1</v>
+        <v>366.83</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -24036,7 +24044,7 @@
         <v>374.95</v>
       </c>
       <c r="M546" t="n">
-        <v>386.74</v>
+        <v>385.94</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -24130,7 +24138,7 @@
         <v>371.18</v>
       </c>
       <c r="M548" t="n">
-        <v>380.65</v>
+        <v>380.32</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -24178,7 +24186,7 @@
         <v>363.59</v>
       </c>
       <c r="M549" t="n">
-        <v>384.71</v>
+        <v>383.73</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -24270,7 +24278,7 @@
         <v>356.81</v>
       </c>
       <c r="M551" t="n">
-        <v>349.24</v>
+        <v>348.04</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -24318,7 +24326,7 @@
         <v>343.38</v>
       </c>
       <c r="M552" t="n">
-        <v>352.52</v>
+        <v>351.28</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -24366,7 +24374,7 @@
         <v>339.29</v>
       </c>
       <c r="M553" t="n">
-        <v>343.01</v>
+        <v>343.99</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -24413,7 +24421,9 @@
       <c r="L554" t="n">
         <v>350.28</v>
       </c>
-      <c r="M554" t="inlineStr"/>
+      <c r="M554" t="n">
+        <v>382.73</v>
+      </c>
       <c r="N554" t="inlineStr">
         <is>
           <t>L9</t>
@@ -24460,7 +24470,7 @@
         <v>333.05</v>
       </c>
       <c r="M555" t="n">
-        <v>342.38</v>
+        <v>340.78</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -24508,7 +24518,7 @@
         <v>345.57</v>
       </c>
       <c r="M556" t="n">
-        <v>345.92</v>
+        <v>347.14</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -24556,7 +24566,7 @@
         <v>338.25</v>
       </c>
       <c r="M557" t="n">
-        <v>316.77</v>
+        <v>317.5</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -24648,7 +24658,7 @@
         <v>332.8</v>
       </c>
       <c r="M559" t="n">
-        <v>356.99</v>
+        <v>356.23</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -24696,7 +24706,7 @@
         <v>331</v>
       </c>
       <c r="M560" t="n">
-        <v>343.16</v>
+        <v>343.34</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -24744,7 +24754,7 @@
         <v>344.45</v>
       </c>
       <c r="M561" t="n">
-        <v>347.29</v>
+        <v>346.89</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -24792,7 +24802,7 @@
         <v>341.05</v>
       </c>
       <c r="M562" t="n">
-        <v>323.63</v>
+        <v>323.38</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -24840,7 +24850,7 @@
         <v>335.87</v>
       </c>
       <c r="M563" t="n">
-        <v>323.59</v>
+        <v>324.06</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -24916,7 +24926,7 @@
         <v>370.45</v>
       </c>
       <c r="M565" t="n">
-        <v>380.31</v>
+        <v>379.27</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -24964,7 +24974,7 @@
         <v>370.95</v>
       </c>
       <c r="M566" t="n">
-        <v>371.2</v>
+        <v>370.07</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -25058,7 +25068,7 @@
         <v>372.75</v>
       </c>
       <c r="M568" t="n">
-        <v>388.55</v>
+        <v>388.04</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -25106,7 +25116,7 @@
         <v>336.84</v>
       </c>
       <c r="M569" t="n">
-        <v>359.05</v>
+        <v>358.63</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -31944,28 +31954,28 @@
         <v>0.0723</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6155258672650781</v>
+        <v>0.5568963975268758</v>
       </c>
       <c r="J13" t="n">
         <v>568</v>
       </c>
       <c r="K13" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06880510872454881</v>
+        <v>0.05723751771766361</v>
       </c>
       <c r="M13" t="n">
-        <v>13.62591722338957</v>
+        <v>13.60274482466623</v>
       </c>
       <c r="N13" t="n">
-        <v>286.1440489537776</v>
+        <v>285.1433874220403</v>
       </c>
       <c r="O13" t="n">
-        <v>16.91579288575554</v>
+        <v>16.886189251043</v>
       </c>
       <c r="P13" t="n">
-        <v>339.2560824717829</v>
+        <v>340.8463585301834</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32210,7 +32220,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-34.95795394180003,173.6787825785597</t>
+          <t>-34.957952579127465,173.67877828656594</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -32282,7 +32292,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-34.95791663047195,173.67866505973444</t>
+          <t>-34.95791562468671,173.67866189183712</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -32422,7 +32432,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-34.95772127945598,173.67804977375386</t>
+          <t>-34.95772595156495,173.67806448908007</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -32562,7 +32572,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-34.957845381737684,173.67844065016476</t>
+          <t>-34.95784366215922,173.67843523409152</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -32634,7 +32644,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-34.95773029922031,173.6780781825101</t>
+          <t>-34.95772497820907,173.67806142338696</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -32706,7 +32716,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-34.95781131457153,173.6783333506423</t>
+          <t>-34.95781527285672,173.6783458178204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -32778,7 +32788,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-34.95779736322816,173.67828940895834</t>
+          <t>-34.95780083484301,173.67830034328298</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -33034,7 +33044,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-34.95789670942005,173.67860231494373</t>
+          <t>-34.95789563874369,173.67859894266758</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -33106,7 +33116,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-34.957759207844056,173.67816923363708</t>
+          <t>-34.95776079765414,173.67817424093994</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -33178,7 +33188,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-34.95776222523851,173.6781787372937</t>
+          <t>-34.95775703402178,173.67816238691714</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -33250,7 +33260,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-34.95781994492936,173.6783605331797</t>
+          <t>-34.95781322882437,173.67833937985122</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -33866,7 +33876,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-34.957849307566846,173.67845301516297</t>
+          <t>-34.957844700395306,173.67843850417344</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -33938,7 +33948,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-34.95783542115714,173.67840927781913</t>
+          <t>-34.95783853586724,173.6784190880632</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -34010,7 +34020,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-34.9578768532249,173.67853977456323</t>
+          <t>-34.95787273273588,173.6785267964161</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -34082,7 +34092,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-34.957768195135,173.67819754022923</t>
+          <t>-34.95776972005374,173.6782023431534</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -34154,7 +34164,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-34.957876171884294,173.6785376285703</t>
+          <t>-34.95787127271974,173.6785221978603</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -34226,7 +34236,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-34.957778545111594,173.67823013880317</t>
+          <t>-34.95777319167653,173.67821327747083</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -34298,7 +34308,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-34.95784054745042,173.67842542384625</t>
+          <t>-34.957840028332214,173.67842378880542</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -34562,7 +34572,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-34.95793943906272,173.67873689949081</t>
+          <t>-34.9579397310643,173.67873781920343</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -34818,7 +34828,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-34.957810535892335,173.67833089808278</t>
+          <t>-34.957810016772825,173.67832926304317</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -34890,7 +34900,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-34.95782458455529,173.67837514635065</t>
+          <t>-34.95782581746256,173.67837902957115</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -34962,7 +34972,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-34.957839119875295,173.67842092748407</t>
+          <t>-34.95783545360202,173.67840938000919</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -35034,7 +35044,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-34.9579755174285,173.67885053514564</t>
+          <t>-34.95797464142629,173.67884777600537</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -35106,7 +35116,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-34.95785839212532,173.6784816283864</t>
+          <t>-34.957857970342396,173.67848029991518</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -35246,7 +35256,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>-34.957903165920925,173.67862265079285</t>
+          <t>-34.95790258191595,173.67862081136917</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -35550,7 +35560,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-34.95779746056318,173.67828971552817</t>
+          <t>-34.95779278848183,173.67827500017677</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -35622,7 +35632,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-34.95772614623613,173.67806510221868</t>
+          <t>-34.95773020188476,173.67807787594074</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -35794,7 +35804,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-34.95786046859487,173.67848816855263</t>
+          <t>-34.95785628321056,173.67847498603044</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -35966,7 +35976,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-34.95781650576496,173.67834970104008</t>
+          <t>-34.95781692754932,173.67835102950997</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -36014,7 +36024,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-34.95791030375706,173.67864513263967</t>
+          <t>-34.957910887761656,173.6786469720637</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -36134,7 +36144,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-34.957869650479395,173.6785170883541</t>
+          <t>-34.9578669251151,173.6785085043841</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -36554,7 +36564,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>-34.9578792865839,173.67854743882395</t>
+          <t>-34.95788022748259,173.6785504023382</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -36786,7 +36796,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-34.95779950459819,173.6782961534949</t>
+          <t>-34.95779814190821,173.67829186151704</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -36926,7 +36936,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>-34.95776894137185,173.67819989059637</t>
+          <t>-34.9577707258511,173.6782055110397</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -36962,7 +36972,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-34.95784651730823,173.67844422681702</t>
+          <t>-34.957842753702565,173.67843237276992</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -37022,7 +37032,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-34.95784710131591,173.6784460662382</t>
+          <t>-34.95784090434419,173.67842654793682</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -37094,7 +37104,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-34.95783817897341,173.67841796397272</t>
+          <t>-34.957831462878545,173.67839681063504</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -37154,7 +37164,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-34.957784904340464,173.67825016802504</t>
+          <t>-34.95777971313348,173.6782338176396</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -37194,7 +37204,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-34.95779269114678,173.67827469360697</t>
+          <t>-34.95779447562253,173.67828031405347</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -37246,7 +37256,7 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-34.95780177574781,173.67830330679166</t>
+          <t>-34.95780164596785,173.67830289803183</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -37286,7 +37296,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>-34.957784677225206,173.67824945269564</t>
+          <t>-34.95778354164885,173.67824587604866</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -37358,7 +37368,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-34.95774246615792,173.6781165036838</t>
+          <t>-34.95773964342948,173.6781076131705</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -37394,7 +37404,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-34.957770855631395,173.6782059197992</t>
+          <t>-34.9577709854117,173.67820632855873</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -37434,7 +37444,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-34.95780167841283,173.6783030002218</t>
+          <t>-34.95780375489212,173.67830954037916</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -37506,7 +37516,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-34.95778415810461,173.67824781765702</t>
+          <t>-34.95778733771799,173.6782578322689</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -37578,7 +37588,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-34.95779590320292,173.67828481041084</t>
+          <t>-34.957791296011024,173.67827029943987</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -37626,7 +37636,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-34.9578567374384,173.6784764166917</t>
+          <t>-34.95785787300788,173.67847999334492</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -37698,7 +37708,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-34.95789638497268,173.67860129304185</t>
+          <t>-34.957897325870036,173.67860425655735</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -37802,7 +37812,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-34.95786283706751,173.67849562843017</t>
+          <t>-34.957862350395104,173.67849409557857</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -37930,7 +37940,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-34.95792688298747,173.67869735185337</t>
+          <t>-34.95792506608663,173.6786916291988</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -38274,7 +38284,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-34.95784807466196,173.67844913194025</t>
+          <t>-34.95784664708771,173.67844463557728</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -38322,7 +38332,7 @@
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-34.957867671345866,173.67851085475678</t>
+          <t>-34.95786802823881,173.6785119788481</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -38394,7 +38404,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-34.95787029937556,173.6785191321566</t>
+          <t>-34.957868709579884,173.6785141248406</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -38466,7 +38476,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-34.9579090708584,173.67864124941133</t>
+          <t>-34.957903814815296,173.67862469459692</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -38538,7 +38548,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>-34.957708333811254,173.67800900004605</t>
+          <t>-34.957710929430355,173.67801717522454</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -38578,7 +38588,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-34.95772854718028,173.678072664262</t>
+          <t>-34.957731856589,173.6780830876197</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -38718,7 +38728,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-34.957751388571054,173.67814460588497</t>
+          <t>-34.95775038277209,173.67814143800018</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -38766,7 +38776,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-34.95779544897282,173.6782833797517</t>
+          <t>-34.95779486496265,173.67828154033273</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -38810,7 +38820,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-34.957850410692174,173.6784564896255</t>
+          <t>-34.95784609552491,173.67844289834616</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -38850,7 +38860,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-34.957906540171265,173.6786332785745</t>
+          <t>-34.9579066699501,173.67863368733538</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -38946,7 +38956,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-34.957786202141875,173.6782542556217</t>
+          <t>-34.95778915463954,173.67826355490462</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -39082,7 +39092,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>-34.95778529368091,173.67825139430403</t>
+          <t>-34.95778535857097,173.67825159868386</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -39154,7 +39164,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-34.95774681380734,173.67813019711926</t>
+          <t>-34.95774227148702,173.67811589054494</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -39226,7 +39236,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-34.957805993595954,173.6783165914867</t>
+          <t>-34.95780310599238,173.67830749657995</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -39278,7 +39288,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-34.95786809312844,173.67851218322832</t>
+          <t>-34.957868158018066,173.67851238760855</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -39426,7 +39436,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-34.957926331428325,173.67869561461893</t>
+          <t>-34.957929089223875,173.6787043007914</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -39474,7 +39484,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-34.95784447328116,173.678437788843</t>
+          <t>-34.95784015811178,173.67842419756565</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -39698,7 +39708,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-34.95787182428141,173.6785239350925</t>
+          <t>-34.95787003981709,173.6785183146356</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -39930,7 +39940,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-34.95785148137253,173.67845986189803</t>
+          <t>-34.957849112897655,173.67845240202254</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -40050,7 +40060,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-34.95774817650309,173.67813448909183</t>
+          <t>-34.95775177791257,173.67814583216298</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -40122,7 +40132,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-34.95780849185918,173.67832446011437</t>
+          <t>-34.95780401445201,173.67831035789885</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -40334,7 +40344,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-34.95780476068665,173.678312708268</t>
+          <t>-34.95780193797276,173.67830381774147</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -40390,7 +40400,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-34.95779810946322,173.6782917593271</t>
+          <t>-34.95779999127314,173.67829768634417</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -40462,7 +40472,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-34.95777805843579,173.6782286059547</t>
+          <t>-34.95778029714438,173.67823565705788</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -40498,7 +40508,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-34.957906734839526,173.67863389171578</t>
+          <t>-34.9579057939429,173.67863092819962</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -40546,7 +40556,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-34.9578989805514,173.67860946825715</t>
+          <t>-34.95789661208584,173.6786020083732</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -40590,7 +40600,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-34.957887365332276,173.67857288417275</t>
+          <t>-34.9578844128586,173.67856358486802</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -40746,7 +40756,7 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-34.95800546368811,173.67894485690124</t>
+          <t>-34.95800724813244,173.67895047737636</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -40862,7 +40872,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-34.95787247317746,173.67852597889504</t>
+          <t>-34.957873770969464,173.6785300665003</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -40934,7 +40944,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-34.95782721259435,173.6783834237419</t>
+          <t>-34.957825428123456,173.678377803291</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -41026,7 +41036,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-34.95782620680169,173.67838025585138</t>
+          <t>-34.95782338409282,173.67837136532026</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -41194,7 +41204,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-34.95783921720997,173.6784212340542</t>
+          <t>-34.95783373402215,173.67840396393726</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -41238,7 +41248,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-34.95779590320292,173.67828481041084</t>
+          <t>-34.95779703877812,173.67828838705887</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -41482,7 +41492,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-34.95782312453334,173.67837054780017</t>
+          <t>-34.95782520100895,173.67837708796088</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -41590,7 +41600,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-34.95785835968049,173.67848152619632</t>
+          <t>-34.95785329828444,173.67846558454252</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -41638,7 +41648,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-34.95784103412372,173.67842695669702</t>
+          <t>-34.957844765285046,173.67843870855359</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -41674,7 +41684,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-34.95783730296124,173.6784152048415</t>
+          <t>-34.95783457758967,173.67840662087815</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -41746,7 +41756,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-34.95780391711706,173.67831005132896</t>
+          <t>-34.95780732384007,173.67832078127537</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -41942,7 +41952,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-34.95779551386282,173.67828358413155</t>
+          <t>-34.95779155557117,173.6782711169593</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -42094,7 +42104,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-34.95788253106181,173.67855765783895</t>
+          <t>-34.957877567010264,173.67854202274634</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -42258,7 +42268,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-34.95781060078226,173.67833110246278</t>
+          <t>-34.95781527285672,173.6783458178204</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -42410,7 +42420,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-34.95794891288862,173.67876673905974</t>
+          <t>-34.95795186534654,173.67877603837886</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -42662,7 +42672,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-34.95783331223837,173.6784026354668</t>
+          <t>-34.9578368487327,173.6784137741809</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -42710,7 +42720,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-34.9578542067403,173.67846844586484</t>
+          <t>-34.957858229901134,173.67848111743592</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -42758,7 +42768,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-34.95776533996748,173.6781885475206</t>
+          <t>-34.95776686488659,173.67819335044445</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -42814,7 +42824,7 @@
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-34.957824779224865,173.67837575949073</t>
+          <t>-34.95782195651565,173.67836686895993</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -42886,7 +42896,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-34.957794410732504,173.6782801096736</t>
+          <t>-34.95778908974948,173.67826335052476</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -43026,7 +43036,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-34.957806026040934,173.67831669367666</t>
+          <t>-34.95780875141896,173.67832527763414</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -43150,7 +43160,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-34.95779986149316,173.6782972775844</t>
+          <t>-34.9577993748182,173.6782957447351</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -43198,7 +43208,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-34.95780385222708,173.67830984694902</t>
+          <t>-34.95780132151793,173.67830187613228</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -43314,7 +43324,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-34.95781167146616,173.67833447473208</t>
+          <t>-34.95781313148949,173.67833907328128</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -43362,7 +43372,7 @@
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-34.95787195406063,173.678524343853</t>
+          <t>-34.95786734689772,173.6785098328556</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -43462,7 +43472,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-34.957829418848924,173.67839037266333</t>
+          <t>-34.95782510367415,173.67837678139085</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -43518,7 +43528,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-34.9578419425805,173.67842981801851</t>
+          <t>-34.95784100167884,173.67842685450697</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -43858,7 +43868,7 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-34.9578947627357,173.6785961835326</t>
+          <t>-34.95789035024999,173.6785822856683</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -43898,7 +43908,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-34.95783383135687,173.67840427050734</t>
+          <t>-34.957837075846975,173.67841448951123</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -43962,7 +43972,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>-34.95786105260188,173.67849000797446</t>
+          <t>-34.95785534231002,173.67847202251784</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -44014,7 +44024,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-34.95779311293198,173.67827602207612</t>
+          <t>-34.95779204224644,173.67827264980832</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -44154,7 +44164,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>-34.95782065871809,173.67836278135974</t>
+          <t>-34.95782273519412,173.67836932152008</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -44390,7 +44400,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>-34.95783315001385,173.67840212451662</t>
+          <t>-34.957832922899485,173.6784014091864</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -44502,7 +44512,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>-34.95785576409304,173.678473350989</t>
+          <t>-34.95785835968049,173.67848152619632</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -44540,11 +44550,7 @@
           <t>-34.95861455835938,173.67826372377053</t>
         </is>
       </c>
-      <c r="M213" t="inlineStr">
-        <is>
-          <t>-34.957984764114634,173.6788796594075</t>
-        </is>
-      </c>
+      <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr">
         <is>
           <t>L7</t>
@@ -44704,7 +44710,11 @@
           <t>-34.958395579751176,173.6777497287309</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>-34.957746943587864,173.67813060587855</t>
+        </is>
+      </c>
       <c r="N217" t="inlineStr">
         <is>
           <t>L7</t>
@@ -44832,11 +44842,7 @@
           <t>-34.95852114875458,173.67804446817453</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>-34.95792558520119,173.67869326424292</t>
-        </is>
-      </c>
+      <c r="M219" t="inlineStr"/>
       <c r="N219" t="inlineStr">
         <is>
           <t>L5</t>
@@ -44904,7 +44910,11 @@
           <t>-34.9584110790669,173.6777861090629</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>-34.957735198441995,173.67809361316804</t>
+        </is>
+      </c>
       <c r="N220" t="inlineStr">
         <is>
           <t>L5</t>
@@ -44952,11 +44962,7 @@
           <t>-34.958590646533516,173.6782075966256</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr">
-        <is>
-          <t>-34.957933112359775,173.6787169723852</t>
-        </is>
-      </c>
+      <c r="M221" t="inlineStr"/>
       <c r="N221" t="inlineStr">
         <is>
           <t>L7</t>
@@ -44990,7 +44996,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>-34.957736204242224,173.67809678105166</t>
+          <t>-34.95773909186179,173.67810587594383</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -45042,7 +45048,7 @@
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr">
         <is>
-          <t>-34.9578072913951,173.6783206790854</t>
+          <t>-34.95781141190644,173.67833365721222</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -45082,7 +45088,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>-34.95780265176255,173.6783060659205</t>
+          <t>-34.957806123375875,173.67831700024655</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -45130,7 +45136,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>-34.95783438292024,173.67840600773795</t>
+          <t>-34.95782773171311,173.6783850587822</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -45222,7 +45228,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>-34.95786543265345,173.67850380363888</t>
+          <t>-34.95786832024213,173.67851289855918</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -45278,7 +45284,7 @@
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="inlineStr">
         <is>
-          <t>-34.95788658665798,173.6785704316088</t>
+          <t>-34.957881168381206,173.67855336585257</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -45318,7 +45324,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>-34.957904463709625,173.67862673840105</t>
+          <t>-34.95790848685372,173.67863940998743</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -45354,7 +45360,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>-34.95786056592937,173.67848847512295</t>
+          <t>-34.95786591932574,173.67850533649056</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -45538,7 +45544,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>-34.95776443150495,173.67818568620436</t>
+          <t>-34.95776329592668,173.67818210955912</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -45590,7 +45596,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>-34.95785277916679,173.6784639495012</t>
+          <t>-34.95785047558189,173.67845669400563</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -45798,7 +45804,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>-34.95781442928785,173.67834316088073</t>
+          <t>-34.957813845278615,173.67834132146098</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -45870,7 +45876,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>-34.95785307117047,173.67846486921192</t>
+          <t>-34.95784982668466,173.67845465020415</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -45994,7 +46000,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>-34.95780797273959,173.67832282507482</t>
+          <t>-34.957812287920476,173.67833641634172</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -46066,7 +46072,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>-34.957873251852696,173.67852843145818</t>
+          <t>-34.95786757401142,173.67851054818644</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -46358,7 +46364,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>-34.95788171994243,173.6785551030851</t>
+          <t>-34.95787883235693,173.67854600816193</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -46538,7 +46544,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>-34.957903068586766,173.67862234422222</t>
+          <t>-34.95790300369733,173.67862213984182</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -46766,7 +46772,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>-34.957869618034586,173.67851698616397</t>
+          <t>-34.95786436197432,173.6785004313652</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -46838,7 +46844,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>-34.95784664708771,173.67844463557728</t>
+          <t>-34.95784152079701,173.67842848954783</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -46910,7 +46916,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>-34.95775284860167,173.6781492044275</t>
+          <t>-34.95775567132703,173.67815809494363</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -46950,7 +46956,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>-34.95785281161164,173.6784640516913</t>
+          <t>-34.9578497942398,173.6784545480141</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -47018,7 +47024,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>-34.957792723591794,173.6782747957969</t>
+          <t>-34.957791263565994,173.67827019724996</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -47090,7 +47096,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>-34.95783937943443,173.67842174500444</t>
+          <t>-34.95783240378093,173.67839977414587</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -47162,7 +47168,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>-34.95775768292399,173.6781644307141</t>
+          <t>-34.95775962963043,173.67817056210518</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -47302,7 +47308,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>-34.957768454695646,173.67819835774824</t>
+          <t>-34.95776443150495,173.67818568620436</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -47374,7 +47380,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>-34.957754568193046,173.678154620489</t>
+          <t>-34.95775245926019,173.6781479781495</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -47446,7 +47452,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>-34.957786007471675,173.6782536424822</t>
+          <t>-34.95778110827058,173.6782382118055</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -47518,7 +47524,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>-34.95784638752875,173.67844381805676</t>
+          <t>-34.95784161813165,173.67842879611797</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -47590,7 +47596,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>-34.95778597502664,173.6782535402923</t>
+          <t>-34.95778749994312,173.67825834321852</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -47726,7 +47732,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>-34.95780352777722,173.67830882504944</t>
+          <t>-34.957806285600775,173.67831751119638</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -47834,7 +47840,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>-34.957758429161494,173.67816678108065</t>
+          <t>-34.95776274436006,173.67818037233147</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -47906,7 +47912,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>-34.95779726589315,173.67828910238848</t>
+          <t>-34.95779525430276,173.67828276661203</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -47974,7 +47980,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>-34.957755444211216,173.67815737961476</t>
+          <t>-34.95775781270444,173.67816483947348</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -48046,7 +48052,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>-34.95777731219948,173.67822625558705</t>
+          <t>-34.95777653351809,173.67822380302957</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -48086,7 +48092,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>-34.95784982668466,173.67845465020415</t>
+          <t>-34.95784736087486,173.67844688375877</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -48158,7 +48164,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>-34.95780794029461,173.67832272288484</t>
+          <t>-34.957807421175,173.6783210878453</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -48210,7 +48216,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>-34.957838957650836,173.67842041653384</t>
+          <t>-34.95783587538574,173.6784107084797</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -48598,7 +48604,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>-34.957904853046195,173.67862796468356</t>
+          <t>-34.957904204151895,173.6786259208794</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -48658,7 +48664,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>-34.957854596078505,173.67846967214587</t>
+          <t>-34.957848399110624,173.67845015384097</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -48794,7 +48800,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>-34.95781812801245,173.6783548105398</t>
+          <t>-34.9578164084301,173.6783493944701</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -48898,7 +48904,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>-34.95774223904187,173.67811578835511</t>
+          <t>-34.95773652869389,173.67809780294965</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -48970,7 +48976,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>-34.9577839958794,173.67824730670745</t>
+          <t>-34.95778587769154,173.67825323372253</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -49030,7 +49036,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>-34.957737274932704,173.678100153315</t>
+          <t>-34.957732310821505,173.67808451827673</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -49102,7 +49108,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>-34.957775041045274,173.6782191022945</t>
+          <t>-34.95777079074126,173.67820571541944</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -49154,7 +49160,7 @@
       <c r="L290" t="inlineStr"/>
       <c r="M290" t="inlineStr">
         <is>
-          <t>-34.95781738177861,173.6783524601699</t>
+          <t>-34.9578166030998,173.67835000761005</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -49222,7 +49228,7 @@
       <c r="L291" t="inlineStr"/>
       <c r="M291" t="inlineStr">
         <is>
-          <t>-34.957777961100604,173.678228299385</t>
+          <t>-34.957773256566675,173.6782134818506</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -49270,7 +49276,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>-34.9578072913951,173.6783206790854</t>
+          <t>-34.95781011410773,173.67832956961308</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -49310,7 +49316,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>-34.95778863551912,173.6782619198658</t>
+          <t>-34.95779116623094,173.67826989068016</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -49382,7 +49388,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>-34.95782202140553,173.67836707333996</t>
+          <t>-34.957820593828195,173.67836257697974</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -49430,7 +49436,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>-34.957873122073494,173.67852802269766</t>
+          <t>-34.95787360874547,173.67852955554963</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -49502,7 +49508,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>-34.9578419425805,173.67842981801851</t>
+          <t>-34.95784122879304,173.67842756983734</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -49574,7 +49580,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>-34.95787743723111,173.67854161398577</t>
+          <t>-34.95787665855617,173.6785391614224</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -49710,7 +49716,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>-34.95781867957653,173.67835654776974</t>
+          <t>-34.957822864973856,173.6783697302801</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -49766,7 +49772,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>-34.95787743723111,173.67854161398577</t>
+          <t>-34.95787224606384,173.67852526356415</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -49838,7 +49844,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>-34.957854920527,173.67847069404672</t>
+          <t>-34.957851092034225,173.6784586356171</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -49894,7 +49900,7 @@
       <c r="L302" t="inlineStr"/>
       <c r="M302" t="inlineStr">
         <is>
-          <t>-34.95795416891212,173.678783293892</t>
+          <t>-34.957951703123605,173.6787755274272</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -50034,7 +50040,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>-34.95792756432523,173.6786994978489</t>
+          <t>-34.95792415763609,173.67868876787162</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -50174,7 +50180,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>-34.95788207683496,173.67855622717678</t>
+          <t>-34.95788084393341,173.67855234395105</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -50290,7 +50296,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>-34.95773873496503,173.678104751856</t>
+          <t>-34.95774262838368,173.67811701463287</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -50362,7 +50368,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>-34.95779648721304,173.67828664982983</t>
+          <t>-34.957801516187864,173.67830248927203</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -50434,7 +50440,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>-34.95777705263903,173.6782254380679</t>
+          <t>-34.95777461925945,173.6782177738259</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -50506,7 +50512,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>-34.95776352304235,173.67818282488815</t>
+          <t>-34.95776748134319,173.678195292052</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -50578,7 +50584,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>-34.95777231565967,173.67821051834392</t>
+          <t>-34.95776641065539,173.67819191978626</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -50626,7 +50632,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>-34.957791523126154,173.6782710147694</t>
+          <t>-34.95778539101602,173.6782517008738</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -50698,7 +50704,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>-34.95782432499583,173.67837432883056</t>
+          <t>-34.9578179008978,173.6783540952098</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -50770,7 +50776,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>-34.957788246178794,173.67826069358674</t>
+          <t>-34.95778542346105,173.6782518030637</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -50826,7 +50832,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>-34.95786669800138,173.6785077890533</t>
+          <t>-34.9578665357773,173.67850727810273</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -50898,7 +50904,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>-34.95779995882815,173.67829758415422</t>
+          <t>-34.95779564364286,173.67828399289132</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -50970,7 +50976,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>-34.95781572708608,173.67834724848026</t>
+          <t>-34.957810892786966,173.67833202217255</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -51042,7 +51048,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>-34.95776264702477,173.67818006576186</t>
+          <t>-34.957758883393,173.67816821173855</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -51090,7 +51096,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>-34.95785751611462,173.6784788692539</t>
+          <t>-34.95785774322852,173.67847958458452</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -51162,7 +51168,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>-34.95785050802676,173.67845679619572</t>
+          <t>-34.95784998890897,173.67845516115452</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -51302,7 +51308,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>-34.957832922899485,173.6784014091864</t>
+          <t>-34.957836167389836,173.67841162819005</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -51478,7 +51484,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>-34.95793223635448,173.67871421324773</t>
+          <t>-34.95793606482155,173.67872627170078</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -51618,7 +51624,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>-34.95771735358524,173.6780374087935</t>
+          <t>-34.95771978697635,173.678045073025</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
@@ -51690,7 +51696,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>-34.957757098912005,173.67816259129683</t>
+          <t>-34.95775992163635,173.67817148181388</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -51762,7 +51768,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>-34.95771433617958,173.67802790514708</t>
+          <t>-34.95771680201653,173.67803567156776</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
@@ -51902,7 +51908,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>-34.957783184753396,173.67824475195965</t>
+          <t>-34.95778201673186,173.6782410731229</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -51974,7 +51980,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>-34.95777643618292,173.67822349645988</t>
+          <t>-34.957778966897294,173.6782314672719</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -52046,7 +52052,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>-34.957754665528405,173.67815492705853</t>
+          <t>-34.95775164813207,173.67814542340363</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -52098,7 +52104,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>-34.95775518465029,173.67815656209598</t>
+          <t>-34.957750642333124,173.67814225551882</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -52366,7 +52372,7 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>-34.95780222997768,173.67830473745107</t>
+          <t>-34.95779791479321,173.67829114618743</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -52418,7 +52424,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>-34.95777517082553,173.67821951105407</t>
+          <t>-34.95777351612722,173.67821429936967</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -52490,7 +52496,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>-34.95787367363507,173.6785297599299</t>
+          <t>-34.95786978025862,173.6785174971146</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -52538,7 +52544,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>-34.957859657473996,173.67848561380018</t>
+          <t>-34.95786332373993,173.67849716128174</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -52610,7 +52616,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>-34.95786867713508,173.67851402265046</t>
+          <t>-34.95786384285713,173.67849879632345</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -52680,7 +52686,11 @@
           <t>-34.958426329719664,173.67782190576645</t>
         </is>
       </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-34.957738215842426,173.6781031168192</t>
+        </is>
+      </c>
       <c r="N344" t="inlineStr">
         <is>
           <t>L8</t>
@@ -52748,7 +52758,11 @@
           <t>-34.958424174736784,173.6778168475358</t>
         </is>
       </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-34.95770917738753,173.678011656979</t>
+        </is>
+      </c>
       <c r="N345" t="inlineStr">
         <is>
           <t>L8</t>
@@ -52994,7 +53008,7 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>-34.95789288094051,173.67859025650205</t>
+          <t>-34.95789265382729,173.6785895411708</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
@@ -53338,7 +53352,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>-34.95776942804804,173.6782014234445</t>
+          <t>-34.957772185879385,173.6782101095844</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
@@ -53410,7 +53424,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>-34.95776579419873,173.67818997817875</t>
+          <t>-34.95776890892678,173.6781997884065</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
@@ -53542,7 +53556,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>-34.957775365495905,173.67822012419342</t>
+          <t>-34.95777500860022,173.6782190001046</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -53590,7 +53604,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>-34.957820172043974,173.67836124850973</t>
+          <t>-34.95782413032625,173.6783737156905</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -53662,7 +53676,7 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>-34.95782309208841,173.67837044561017</t>
+          <t>-34.957818322682115,173.67835542367976</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
@@ -53734,7 +53748,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>-34.957745840453114,173.67812713142462</t>
+          <t>-34.95774859828985,173.6781358175596</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -54110,7 +54124,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>-34.95775369217483,173.67815186136332</t>
+          <t>-34.95775807226531,173.6781656569923</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -54330,7 +54344,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>-34.95781160657622,173.6783342703521</t>
+          <t>-34.95780878386393,173.67832537982412</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -54402,7 +54416,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>-34.95775232947968,173.67814756939018</t>
+          <t>-34.95775469797352,173.6781550292484</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
@@ -54474,7 +54488,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>-34.957716412673875,173.6780344452908</t>
+          <t>-34.95771287614431,173.67802330660876</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
@@ -54546,7 +54560,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>-34.95774927963764,173.67813796354596</t>
+          <t>-34.957747852051725,173.6781334671936</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
@@ -54618,7 +54632,7 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>-34.957770888076475,173.67820602198907</t>
+          <t>-34.95777075829618,173.67820561322955</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
@@ -54806,7 +54820,7 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>-34.957739059416625,173.67810577375406</t>
+          <t>-34.95773510110648,173.67809330659864</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
@@ -54878,7 +54892,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>-34.957771796538516,173.67820888330579</t>
+          <t>-34.95777452192427,173.67821746725625</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
@@ -54950,7 +54964,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>-34.95776702711201,173.67819386139382</t>
+          <t>-34.95776903870709,173.67820019716598</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
@@ -55022,7 +55036,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>-34.95779664943807,173.67828716077955</t>
+          <t>-34.95779940726321,173.67829584692507</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
@@ -55094,7 +55108,7 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>-34.95777121252722,173.67820704388788</t>
+          <t>-34.95776673510624,173.67819294168498</t>
         </is>
       </c>
       <c r="N381" t="inlineStr">
@@ -55166,7 +55180,7 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>-34.95779600053795,173.67828511698067</t>
+          <t>-34.957796422323035,173.67828644544994</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
@@ -55238,7 +55252,7 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>-34.957829126844665,173.67838945295313</t>
+          <t>-34.957831300653986,173.67839629968486</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
@@ -55286,7 +55300,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>-34.957896255193724,173.6786008842811</t>
+          <t>-34.957900505453644,173.67861427119635</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -55358,7 +55372,7 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>-34.957816862659435,173.67835082512997</t>
+          <t>-34.95781209325069,173.67833580320183</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
@@ -55430,7 +55444,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>-34.95783477225909,173.67840723401838</t>
+          <t>-34.95783808163873,173.6784176574026</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -55502,7 +55516,7 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>-34.957873122073494,173.67852802269766</t>
+          <t>-34.95786809312844,173.67851218322832</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
@@ -55574,7 +55588,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>-34.957902809028994,173.6786215267006</t>
+          <t>-34.95790180324263,173.67861835880433</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
@@ -55714,7 +55728,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>-34.957726892475584,173.67806745258343</t>
+          <t>-34.95773094812396,173.67808022630575</t>
         </is>
       </c>
       <c r="N390" t="inlineStr">
@@ -55850,7 +55864,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>-34.957772250769516,173.67821031396414</t>
+          <t>-34.9577730294512,173.6782127665214</t>
         </is>
       </c>
       <c r="N392" t="inlineStr">
@@ -55922,7 +55936,7 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>-34.957782892748035,173.67824383225047</t>
+          <t>-34.95778483945041,173.67824996364521</t>
         </is>
       </c>
       <c r="N393" t="inlineStr">
@@ -55966,7 +55980,7 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>-34.95780894608879,173.67832589077398</t>
+          <t>-34.95781332615925,173.6783396864212</t>
         </is>
       </c>
       <c r="N394" t="inlineStr">
@@ -56038,7 +56052,7 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>-34.95772815783802,173.67807143798467</t>
+          <t>-34.957724848428285,173.67806101462787</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
@@ -56110,7 +56124,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>-34.95773390063511,173.67808952557635</t>
+          <t>-34.95773208370526,173.6780838029482</t>
         </is>
       </c>
       <c r="N396" t="inlineStr">
@@ -56150,7 +56164,7 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>-34.95774921474737,173.6781377591663</t>
+          <t>-34.95774574311769,173.67812682485518</t>
         </is>
       </c>
       <c r="N397" t="inlineStr">
@@ -56222,7 +56236,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>-34.95775369217483,173.67815186136332</t>
+          <t>-34.95775252415042,173.67814818252918</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
@@ -56358,7 +56372,7 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>-34.95777306189626,173.67821286871128</t>
+          <t>-34.9577758846169,173.6782217592317</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
@@ -56430,7 +56444,7 @@
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>-34.957732635273274,173.67808554017458</t>
+          <t>-34.957728384954336,173.6780721533131</t>
         </is>
       </c>
       <c r="N401" t="inlineStr">
@@ -56566,7 +56580,7 @@
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>-34.957720792777856,173.67804824090746</t>
+          <t>-34.95771414150822,173.67802729200864</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
@@ -56614,7 +56628,7 @@
       <c r="L404" t="inlineStr"/>
       <c r="M404" t="inlineStr">
         <is>
-          <t>-34.95772929341958,173.6780750146269</t>
+          <t>-34.957722447483405,173.67805345258523</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
@@ -56686,7 +56700,7 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>-34.957761122105154,173.67817526283852</t>
+          <t>-34.957756417564646,173.67816044531006</t>
         </is>
       </c>
       <c r="N405" t="inlineStr">
@@ -56714,7 +56728,7 @@
       <c r="L406" t="inlineStr"/>
       <c r="M406" t="inlineStr">
         <is>
-          <t>-34.95792590964777,173.67869428614554</t>
+          <t>-34.95792899188992,173.67870399422057</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
@@ -56786,7 +56800,7 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>-34.957826304136475,173.67838056242138</t>
+          <t>-34.95782594724228,173.67837943833123</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
@@ -56858,7 +56872,7 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>-34.95785651032448,173.67847570136104</t>
+          <t>-34.957857645893995,173.67847927801427</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
@@ -56922,7 +56936,7 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>-34.957919842495144,173.67867517656833</t>
+          <t>-34.95792292473884,173.67868488464197</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
@@ -56986,7 +57000,7 @@
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>-34.95787665855617,173.6785391614224</t>
+          <t>-34.95787182428141,173.6785239350925</t>
         </is>
       </c>
       <c r="N410" t="inlineStr">
@@ -57058,7 +57072,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>-34.95784460306067,173.67843819760327</t>
+          <t>-34.95785008624355,173.67845546772475</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -57158,7 +57172,7 @@
       <c r="L413" t="inlineStr"/>
       <c r="M413" t="inlineStr">
         <is>
-          <t>-34.95784791243763,173.6784486209899</t>
+          <t>-34.95784580352103,173.6784419786356</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
@@ -57278,7 +57292,7 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>-34.957834902038705,173.67840764277855</t>
+          <t>-34.95783383135687,173.67840427050734</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
@@ -57666,7 +57680,7 @@
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>-34.95777968068843,173.67823371544972</t>
+          <t>-34.957773256566675,173.6782134818506</t>
         </is>
       </c>
       <c r="N421" t="inlineStr">
@@ -57738,7 +57752,7 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>-34.957786656372335,173.67825568628058</t>
+          <t>-34.95778837595892,173.67826110234643</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
@@ -57862,7 +57876,7 @@
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>-34.95779561119786,173.67828389070138</t>
+          <t>-34.957795740977886,173.67828429946115</t>
         </is>
       </c>
       <c r="N424" t="inlineStr">
@@ -57934,7 +57948,7 @@
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>-34.95782880239548,173.67838843105292</t>
+          <t>-34.957827439708815,173.67838413907202</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
@@ -58006,7 +58020,7 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>-34.95779609787297,173.6782854235505</t>
+          <t>-34.95779846635822,173.67829288341653</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
@@ -58078,7 +58092,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>-34.957810081662764,173.6783294674231</t>
+          <t>-34.957804079341976,173.6783105622788</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
@@ -58126,7 +58140,7 @@
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>-34.95786682778064,173.67850819781376</t>
+          <t>-34.957864005081255,173.678499307274</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
@@ -58198,7 +58212,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>-34.95782565523794,173.67837851862112</t>
+          <t>-34.95782896462008,173.678388942003</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
@@ -58270,7 +58284,7 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>-34.957822053850464,173.67836717552996</t>
+          <t>-34.95781803067759,173.67835450396979</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
@@ -58390,7 +58404,7 @@
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>-34.95783331223837,173.6784026354668</t>
+          <t>-34.95783113842941,173.67839578873475</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
@@ -58518,7 +58532,7 @@
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>-34.95789706631215,173.67860343903584</t>
+          <t>-34.95789524940682,173.67859771638535</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
@@ -58674,7 +58688,7 @@
       </c>
       <c r="M437" t="inlineStr">
         <is>
-          <t>-34.95795108667638,173.6787735858111</t>
+          <t>-34.95794742043708,173.67876203830528</t>
         </is>
       </c>
       <c r="N437" t="inlineStr">
@@ -58866,7 +58880,7 @@
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>-34.957857645893995,173.67847927801427</t>
+          <t>-34.95785547208943,173.6784724312782</t>
         </is>
       </c>
       <c r="N440" t="inlineStr">
@@ -58970,7 +58984,7 @@
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>-34.95775340016875,173.67815094165476</t>
+          <t>-34.95775031788183,173.6781412336205</t>
         </is>
       </c>
       <c r="N442" t="inlineStr">
@@ -59042,7 +59056,7 @@
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>-34.957763944828564,173.67818415335637</t>
+          <t>-34.95776683244149,173.6781932482546</t>
         </is>
       </c>
       <c r="N443" t="inlineStr">
@@ -59114,7 +59128,7 @@
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>-34.95777938868297,173.6782327957406</t>
+          <t>-34.95777406769334,173.67821603659777</t>
         </is>
       </c>
       <c r="N444" t="inlineStr">
@@ -59146,7 +59160,7 @@
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t>-34.95783191710728,173.67839824129544</t>
+          <t>-34.957829191734504,173.67838965733318</t>
         </is>
       </c>
       <c r="N445" t="inlineStr">
@@ -59218,7 +59232,7 @@
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>-34.95776585908891,173.67819018255847</t>
+          <t>-34.9577655670831,173.67818926284966</t>
         </is>
       </c>
       <c r="N446" t="inlineStr">
@@ -59290,7 +59304,7 @@
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>-34.957767513788276,173.6781953942419</t>
+          <t>-34.95776284169535,173.67818067890104</t>
         </is>
       </c>
       <c r="N447" t="inlineStr">
@@ -59362,7 +59376,7 @@
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>-34.95777831799622,173.67822942347388</t>
+          <t>-34.95777572239159,173.67822124828223</t>
         </is>
       </c>
       <c r="N448" t="inlineStr">
@@ -59478,7 +59492,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>-34.95780956254325,173.6783278323835</t>
+          <t>-34.957806382935715,173.67831781776627</t>
         </is>
       </c>
       <c r="N450" t="inlineStr">
@@ -59526,7 +59540,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>-34.957859689918834,173.6784857159903</t>
+          <t>-34.95785407696089,173.67846803710452</t>
         </is>
       </c>
       <c r="N451" t="inlineStr">
@@ -59598,7 +59612,7 @@
       </c>
       <c r="M452" t="inlineStr">
         <is>
-          <t>-34.957803657557164,173.67830923380927</t>
+          <t>-34.957806415380695,173.67831791995624</t>
         </is>
       </c>
       <c r="N452" t="inlineStr">
@@ -59670,7 +59684,7 @@
       </c>
       <c r="M453" t="inlineStr">
         <is>
-          <t>-34.95783315001385,173.67840212451662</t>
+          <t>-34.95782876995057,173.6783883288629</t>
         </is>
       </c>
       <c r="N453" t="inlineStr">
@@ -59742,7 +59756,7 @@
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>-34.957787921728524,173.6782596716875</t>
+          <t>-34.9577909391158,173.67826917535064</t>
         </is>
       </c>
       <c r="N454" t="inlineStr">
@@ -59814,7 +59828,7 @@
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>-34.9577915880162,173.67827121914925</t>
+          <t>-34.957788473293995,173.67826140891617</t>
         </is>
       </c>
       <c r="N455" t="inlineStr">
@@ -59886,7 +59900,7 @@
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>-34.9578271477045,173.67838321936188</t>
+          <t>-34.957831268209056,173.67839619749483</t>
         </is>
       </c>
       <c r="N456" t="inlineStr">
@@ -60030,7 +60044,7 @@
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>-34.95780310599238,173.67830749657995</t>
+          <t>-34.95780158107786,173.67830269365194</t>
         </is>
       </c>
       <c r="N458" t="inlineStr">
@@ -60102,7 +60116,7 @@
       </c>
       <c r="M459" t="inlineStr">
         <is>
-          <t>-34.957840125666884,173.6784240953756</t>
+          <t>-34.9578419425805,173.67842981801851</t>
         </is>
       </c>
       <c r="N459" t="inlineStr">
@@ -60174,7 +60188,7 @@
       </c>
       <c r="M460" t="inlineStr">
         <is>
-          <t>-34.95784904800794,173.6784521976424</t>
+          <t>-34.95784775021328,173.67844811003957</t>
         </is>
       </c>
       <c r="N460" t="inlineStr">
@@ -60246,7 +60260,7 @@
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>-34.957842299474216,173.67843094210915</t>
+          <t>-34.9578444083914,173.67843758446293</t>
         </is>
       </c>
       <c r="N461" t="inlineStr">
@@ -60542,7 +60556,7 @@
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>-34.95785586142758,173.67847365755924</t>
+          <t>-34.95785209782482,173.67846180350952</t>
         </is>
       </c>
       <c r="N466" t="inlineStr">
@@ -60682,7 +60696,7 @@
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>-34.957793859167296,173.67827837244465</t>
+          <t>-34.957798628583205,173.67829339436628</t>
         </is>
       </c>
       <c r="N468" t="inlineStr">
@@ -60754,7 +60768,7 @@
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>-34.957832922899485,173.6784014091864</t>
+          <t>-34.95783415580592,173.6784052924077</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
@@ -60826,7 +60840,7 @@
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>-34.95781777111802,173.67835368644984</t>
+          <t>-34.95781783600791,173.6783538908298</t>
         </is>
       </c>
       <c r="N470" t="inlineStr">
@@ -60898,7 +60912,7 @@
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>-34.95775245926019,173.6781479781495</t>
+          <t>-34.957756287784186,173.67816003655068</t>
         </is>
       </c>
       <c r="N471" t="inlineStr">
@@ -61026,7 +61040,7 @@
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>-34.95776579419873,173.67818997817875</t>
+          <t>-34.95777027162004,173.67820408038136</t>
         </is>
       </c>
       <c r="N473" t="inlineStr">
@@ -61098,7 +61112,7 @@
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>-34.95782283252892,173.6783696280901</t>
+          <t>-34.95781806312255,173.6783546061598</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
@@ -61170,7 +61184,7 @@
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>-34.95781403994835,173.67834193460087</t>
+          <t>-34.95781050344736,173.6783307958928</t>
         </is>
       </c>
       <c r="N475" t="inlineStr">
@@ -61242,7 +61256,7 @@
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>-34.95781358571893,173.67834050394106</t>
+          <t>-34.95781345593909,173.67834009518114</t>
         </is>
       </c>
       <c r="N476" t="inlineStr">
@@ -61314,7 +61328,7 @@
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>-34.9578244872205,173.6783748397806</t>
+          <t>-34.95782565523794,173.67837851862112</t>
         </is>
       </c>
       <c r="N477" t="inlineStr">
@@ -61522,7 +61536,7 @@
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>-34.957751421016184,173.6781447080748</t>
+          <t>-34.95775401662603,173.67815288326173</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
@@ -61718,7 +61732,7 @@
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>-34.95779924503821,173.67829533597532</t>
+          <t>-34.957796422323035,173.67828644544994</t>
         </is>
       </c>
       <c r="N484" t="inlineStr">
@@ -61790,7 +61804,7 @@
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>-34.95768666037001,173.67794073732543</t>
+          <t>-34.95769136493765,173.67795555482917</t>
         </is>
       </c>
       <c r="N485" t="inlineStr">
@@ -61862,7 +61876,7 @@
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>-34.95768906132199,173.67794829936162</t>
+          <t>-34.95769295475665,173.6779605621239</t>
         </is>
       </c>
       <c r="N486" t="inlineStr">
@@ -62000,7 +62014,11 @@
           <t>-34.95848737366519,173.67796518998583</t>
         </is>
       </c>
-      <c r="M488" t="inlineStr"/>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>-34.9578860999865,173.67856889875634</t>
+        </is>
+      </c>
       <c r="N488" t="inlineStr">
         <is>
           <t>L9</t>
@@ -62136,7 +62154,11 @@
           <t>-34.95852674339621,173.67805760015068</t>
         </is>
       </c>
-      <c r="M490" t="inlineStr"/>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>-34.95791192599196,173.6786502421509</t>
+        </is>
+      </c>
       <c r="N490" t="inlineStr">
         <is>
           <t>L9</t>
@@ -62272,7 +62294,11 @@
           <t>-34.958517750527115,173.67803649171583</t>
         </is>
       </c>
-      <c r="M492" t="inlineStr"/>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>-34.95791422956515,173.6786574976571</t>
+        </is>
+      </c>
       <c r="N492" t="inlineStr">
         <is>
           <t>L8</t>
@@ -62526,7 +62552,7 @@
       </c>
       <c r="M496" t="inlineStr">
         <is>
-          <t>-34.95767293600013,173.67789751109999</t>
+          <t>-34.95767754323713,173.67791202202986</t>
         </is>
       </c>
       <c r="N496" t="inlineStr">
@@ -62598,7 +62624,7 @@
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>-34.95776835736041,173.67819805117858</t>
+          <t>-34.95776900626202,173.67820009497612</t>
         </is>
       </c>
       <c r="N497" t="inlineStr">
@@ -62806,7 +62832,7 @@
       </c>
       <c r="M500" t="inlineStr">
         <is>
-          <t>-34.95782202140553,173.67836707333996</t>
+          <t>-34.95782000981926,173.6783607375597</t>
         </is>
       </c>
       <c r="N500" t="inlineStr">
@@ -62942,7 +62968,7 @@
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>-34.95775168057719,173.67814552559346</t>
+          <t>-34.95774859828985,173.6781358175596</t>
         </is>
       </c>
       <c r="N502" t="inlineStr">
@@ -63014,7 +63040,7 @@
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t>-34.957829094399756,173.6783893507631</t>
+          <t>-34.95782406543639,173.67837351131047</t>
         </is>
       </c>
       <c r="N503" t="inlineStr">
@@ -63122,7 +63148,7 @@
       </c>
       <c r="M505" t="inlineStr">
         <is>
-          <t>-34.95773208370526,173.6780838029482</t>
+          <t>-34.95772718448231,173.67806837229142</t>
         </is>
       </c>
       <c r="N505" t="inlineStr">
@@ -63194,7 +63220,7 @@
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>-34.95771777537307,173.67803873726024</t>
+          <t>-34.95771534198155,173.67803107302916</t>
         </is>
       </c>
       <c r="N506" t="inlineStr">
@@ -63266,7 +63292,7 @@
       </c>
       <c r="M507" t="inlineStr">
         <is>
-          <t>-34.95773685314555,173.6780988248476</t>
+          <t>-34.95773360862855,173.67808860586825</t>
         </is>
       </c>
       <c r="N507" t="inlineStr">
@@ -63338,7 +63364,7 @@
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>-34.95785216271453,173.67846200788966</t>
+          <t>-34.95785475830275,173.6784701830963</t>
         </is>
       </c>
       <c r="N508" t="inlineStr">
@@ -63478,7 +63504,7 @@
       </c>
       <c r="M510" t="inlineStr">
         <is>
-          <t>-34.95778883018928,173.67826253300535</t>
+          <t>-34.95778240607238,173.6782422994018</t>
         </is>
       </c>
       <c r="N510" t="inlineStr">
@@ -63550,7 +63576,7 @@
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>-34.95769821089143,173.67797711685478</t>
+          <t>-34.957691008039475,173.6779544307426</t>
         </is>
       </c>
       <c r="N511" t="inlineStr">
@@ -63622,7 +63648,7 @@
       </c>
       <c r="M512" t="inlineStr">
         <is>
-          <t>-34.957783898544285,173.6782470001377</t>
+          <t>-34.95778636436703,173.6782547665713</t>
         </is>
       </c>
       <c r="N512" t="inlineStr">
@@ -63694,7 +63720,7 @@
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t>-34.95774632713023,173.67812866427192</t>
+          <t>-34.95774165502913,173.67811394893855</t>
         </is>
       </c>
       <c r="N513" t="inlineStr">
@@ -63766,7 +63792,7 @@
       </c>
       <c r="M514" t="inlineStr">
         <is>
-          <t>-34.95775687179622,173.6781618759679</t>
+          <t>-34.95775340016875,173.67815094165476</t>
         </is>
       </c>
       <c r="N514" t="inlineStr">
@@ -63838,7 +63864,7 @@
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>-34.95777990780378,173.67823443077904</t>
+          <t>-34.957778772226966,173.6782308541325</t>
         </is>
       </c>
       <c r="N515" t="inlineStr">
@@ -63910,7 +63936,7 @@
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>-34.957808102519486,173.67832323383467</t>
+          <t>-34.957809043423715,173.67832619734392</t>
         </is>
       </c>
       <c r="N516" t="inlineStr">
@@ -63982,7 +64008,7 @@
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>-34.95780852430414,173.67832456230434</t>
+          <t>-34.95781160657622,173.6783342703521</t>
         </is>
       </c>
       <c r="N517" t="inlineStr">
@@ -64054,7 +64080,7 @@
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>-34.95778960886989,173.67826498556357</t>
+          <t>-34.9577856505763,173.6782525183931</t>
         </is>
       </c>
       <c r="N518" t="inlineStr">
@@ -64126,7 +64152,7 @@
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>-34.957796876553104,173.67828787610915</t>
+          <t>-34.95779191246639,173.67827224104857</t>
         </is>
       </c>
       <c r="N519" t="inlineStr">
@@ -64198,7 +64224,7 @@
       </c>
       <c r="M520" t="inlineStr">
         <is>
-          <t>-34.95781897158105,173.67835746747974</t>
+          <t>-34.9578148510723,173.67834448935056</t>
         </is>
       </c>
       <c r="N520" t="inlineStr">
@@ -64270,7 +64296,7 @@
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t>-34.95781533774662,173.67834602220037</t>
+          <t>-34.95782065871809,173.67836278135974</t>
         </is>
       </c>
       <c r="N521" t="inlineStr">
@@ -64342,7 +64368,7 @@
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>-34.95778383365421,173.67824679575787</t>
+          <t>-34.957780070029024,173.67823494172856</t>
         </is>
       </c>
       <c r="N522" t="inlineStr">
@@ -64414,7 +64440,7 @@
       </c>
       <c r="M523" t="inlineStr">
         <is>
-          <t>-34.95783379891197,173.67840416831731</t>
+          <t>-34.95783214422167,173.67839895662564</t>
         </is>
       </c>
       <c r="N523" t="inlineStr">
@@ -64558,7 +64584,7 @@
       </c>
       <c r="M525" t="inlineStr">
         <is>
-          <t>-34.95785089736508,173.6784580224766</t>
+          <t>-34.95785011868842,173.67845556991483</t>
         </is>
       </c>
       <c r="N525" t="inlineStr">
@@ -64630,7 +64656,7 @@
       </c>
       <c r="M526" t="inlineStr">
         <is>
-          <t>-34.957853590288124,173.67846650425327</t>
+          <t>-34.95785112447909,173.67845873780715</t>
         </is>
       </c>
       <c r="N526" t="inlineStr">
@@ -64702,7 +64728,7 @@
       </c>
       <c r="M527" t="inlineStr">
         <is>
-          <t>-34.95781611642554,173.67834847476016</t>
+          <t>-34.95781812801245,173.6783548105398</t>
         </is>
       </c>
       <c r="N527" t="inlineStr">
@@ -64774,7 +64800,7 @@
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>-34.957827407263885,173.678384036882</t>
+          <t>-34.957822443189706,173.67836840181002</t>
         </is>
       </c>
       <c r="N528" t="inlineStr">
@@ -64846,7 +64872,7 @@
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>-34.95781780356295,173.6783537886398</t>
+          <t>-34.95781167146616,173.67833447473208</t>
         </is>
       </c>
       <c r="N529" t="inlineStr">
@@ -64918,7 +64944,7 @@
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t>-34.95786695755992,173.67850860657424</t>
+          <t>-34.957871337609355,173.67852240224056</t>
         </is>
       </c>
       <c r="N530" t="inlineStr">
@@ -64990,7 +65016,7 @@
       </c>
       <c r="M531" t="inlineStr">
         <is>
-          <t>-34.95784616041465,173.6784431027263</t>
+          <t>-34.95784372704897,173.67843543847167</t>
         </is>
       </c>
       <c r="N531" t="inlineStr">
@@ -65062,7 +65088,7 @@
       </c>
       <c r="M532" t="inlineStr">
         <is>
-          <t>-34.95780420912192,173.67831097103863</t>
+          <t>-34.9577978823482,173.67829104399746</t>
         </is>
       </c>
       <c r="N532" t="inlineStr">
@@ -65134,7 +65160,7 @@
       </c>
       <c r="M533" t="inlineStr">
         <is>
-          <t>-34.95779398894735,173.6782787812044</t>
+          <t>-34.957796941443114,173.67828808048904</t>
         </is>
       </c>
       <c r="N533" t="inlineStr">
@@ -65206,7 +65232,7 @@
       </c>
       <c r="M534" t="inlineStr">
         <is>
-          <t>-34.95774720314898,173.6781314233971</t>
+          <t>-34.95774230393217,173.67811599273477</t>
         </is>
       </c>
       <c r="N534" t="inlineStr">
@@ -65278,7 +65304,7 @@
       </c>
       <c r="M535" t="inlineStr">
         <is>
-          <t>-34.95775752069845,173.67816391976487</t>
+          <t>-34.95775226458945,173.6781473650105</t>
         </is>
       </c>
       <c r="N535" t="inlineStr">
@@ -65346,7 +65372,7 @@
       <c r="L536" t="inlineStr"/>
       <c r="M536" t="inlineStr">
         <is>
-          <t>-34.957835388712226,173.67840917562913</t>
+          <t>-34.95783019752691,173.67839282522397</t>
         </is>
       </c>
       <c r="N536" t="inlineStr">
@@ -65418,7 +65444,7 @@
       </c>
       <c r="M537" t="inlineStr">
         <is>
-          <t>-34.95775988919126,173.678171379624</t>
+          <t>-34.95776066787372,173.6781738321805</t>
         </is>
       </c>
       <c r="N537" t="inlineStr">
@@ -65490,7 +65516,7 @@
       </c>
       <c r="M538" t="inlineStr">
         <is>
-          <t>-34.95778986843008,173.678265803083</t>
+          <t>-34.95778999821017,173.6782662118427</t>
         </is>
       </c>
       <c r="N538" t="inlineStr">
@@ -65562,7 +65588,7 @@
       </c>
       <c r="M539" t="inlineStr">
         <is>
-          <t>-34.95787565276761,173.6785359935281</t>
+          <t>-34.957872343398265,173.67852557013452</t>
         </is>
       </c>
       <c r="N539" t="inlineStr">
@@ -65634,7 +65660,7 @@
       </c>
       <c r="M540" t="inlineStr">
         <is>
-          <t>-34.95777594950702,173.6782219636115</t>
+          <t>-34.957778123325895,173.6782288103345</t>
         </is>
       </c>
       <c r="N540" t="inlineStr">
@@ -65706,7 +65732,7 @@
       </c>
       <c r="M541" t="inlineStr">
         <is>
-          <t>-34.95775576866237,173.67815840151317</t>
+          <t>-34.957749928540274,173.67814000734253</t>
         </is>
       </c>
       <c r="N541" t="inlineStr">
@@ -65778,7 +65804,7 @@
       </c>
       <c r="M542" t="inlineStr">
         <is>
-          <t>-34.95777400280322,173.678215832218</t>
+          <t>-34.957776825523624,173.67822472273863</t>
         </is>
       </c>
       <c r="N542" t="inlineStr">
@@ -65850,7 +65876,7 @@
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>-34.957768454695646,173.67819835774824</t>
+          <t>-34.95777056362572,173.67820500009026</t>
         </is>
       </c>
       <c r="N543" t="inlineStr">
@@ -65922,7 +65948,7 @@
       </c>
       <c r="M544" t="inlineStr">
         <is>
-          <t>-34.95778370387406,173.67824638699824</t>
+          <t>-34.95778688348755,173.67825640161</t>
         </is>
       </c>
       <c r="N544" t="inlineStr">
@@ -65994,7 +66020,7 @@
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>-34.957755930887934,173.67815891246238</t>
+          <t>-34.957756806906,173.67816167158824</t>
         </is>
       </c>
       <c r="N545" t="inlineStr">
@@ -66066,7 +66092,7 @@
       </c>
       <c r="M546" t="inlineStr">
         <is>
-          <t>-34.9576922085151,173.67795821176102</t>
+          <t>-34.95769480413766,173.67796638693636</t>
         </is>
       </c>
       <c r="N546" t="inlineStr">
@@ -66206,7 +66232,7 @@
       </c>
       <c r="M548" t="inlineStr">
         <is>
-          <t>-34.957711967677845,173.67802044529608</t>
+          <t>-34.95771303837047,173.67802381755743</t>
         </is>
       </c>
       <c r="N548" t="inlineStr">
@@ -66278,7 +66304,7 @@
       </c>
       <c r="M549" t="inlineStr">
         <is>
-          <t>-34.95769879490627,173.67797895626944</t>
+          <t>-34.957701974542104,173.67798897086087</t>
         </is>
       </c>
       <c r="N549" t="inlineStr">
@@ -66414,7 +66440,7 @@
       </c>
       <c r="M551" t="inlineStr">
         <is>
-          <t>-34.95781387772357,173.67834142365095</t>
+          <t>-34.95781777111802,173.67835368644984</t>
         </is>
       </c>
       <c r="N551" t="inlineStr">
@@ -66486,7 +66512,7 @@
       </c>
       <c r="M552" t="inlineStr">
         <is>
-          <t>-34.957803235772325,173.67830790533978</t>
+          <t>-34.95780725895011,173.67832057689543</t>
         </is>
       </c>
       <c r="N552" t="inlineStr">
@@ -66558,7 +66584,7 @@
       </c>
       <c r="M553" t="inlineStr">
         <is>
-          <t>-34.95783409091611,173.6784050880276</t>
+          <t>-34.95783091131502,173.67839507340454</t>
         </is>
       </c>
       <c r="N553" t="inlineStr">
@@ -66628,7 +66654,11 @@
           <t>-34.958501753985765,173.67799894400432</t>
         </is>
       </c>
-      <c r="M554" t="inlineStr"/>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>-34.957705219067606,173.67799918983252</t>
+        </is>
+      </c>
       <c r="N554" t="inlineStr">
         <is>
           <t>L9</t>
@@ -66698,7 +66728,7 @@
       </c>
       <c r="M555" t="inlineStr">
         <is>
-          <t>-34.95783613494493,173.67841152600002</t>
+          <t>-34.957841326127706,173.67842787640748</t>
         </is>
       </c>
       <c r="N555" t="inlineStr">
@@ -66770,7 +66800,7 @@
       </c>
       <c r="M556" t="inlineStr">
         <is>
-          <t>-34.957824649445136,173.67837535073068</t>
+          <t>-34.95782069116302,173.67836288354977</t>
         </is>
       </c>
       <c r="N556" t="inlineStr">
@@ -66842,7 +66872,7 @@
       </c>
       <c r="M557" t="inlineStr">
         <is>
-          <t>-34.95791922604632,173.6786732349537</t>
+          <t>-34.957916857584735,173.67866577506612</t>
         </is>
       </c>
       <c r="N557" t="inlineStr">
@@ -66978,7 +67008,7 @@
       </c>
       <c r="M559" t="inlineStr">
         <is>
-          <t>-34.957788732854205,173.67826222643558</t>
+          <t>-34.95779119867596,173.67826999287007</t>
         </is>
       </c>
       <c r="N559" t="inlineStr">
@@ -67050,7 +67080,7 @@
       </c>
       <c r="M560" t="inlineStr">
         <is>
-          <t>-34.95783360424253,173.67840355517708</t>
+          <t>-34.95783302023421,173.6784017157565</t>
         </is>
       </c>
       <c r="N560" t="inlineStr">
@@ -67122,7 +67152,7 @@
       </c>
       <c r="M561" t="inlineStr">
         <is>
-          <t>-34.95782020448892,173.67836135069973</t>
+          <t>-34.957821502286514,173.67836543829983</t>
         </is>
       </c>
       <c r="N561" t="inlineStr">
@@ -67194,7 +67224,7 @@
       </c>
       <c r="M562" t="inlineStr">
         <is>
-          <t>-34.95789696897794,173.67860313246524</t>
+          <t>-34.95789778009631,173.67860568722</t>
         </is>
       </c>
       <c r="N562" t="inlineStr">
@@ -67266,7 +67296,7 @@
       </c>
       <c r="M563" t="inlineStr">
         <is>
-          <t>-34.95789709875689,173.678603541226</t>
+          <t>-34.95789557385421,173.67859873828718</t>
         </is>
       </c>
       <c r="N563" t="inlineStr">
@@ -67370,7 +67400,7 @@
       </c>
       <c r="M565" t="inlineStr">
         <is>
-          <t>-34.95771307081569,173.67802391974718</t>
+          <t>-34.957716445119104,173.67803454748054</t>
         </is>
       </c>
       <c r="N565" t="inlineStr">
@@ -67442,7 +67472,7 @@
       </c>
       <c r="M566" t="inlineStr">
         <is>
-          <t>-34.95774262838368,173.67811701463287</t>
+          <t>-34.95774629468509,173.67812856208212</t>
         </is>
       </c>
       <c r="N566" t="inlineStr">
@@ -67582,7 +67612,7 @@
       </c>
       <c r="M568" t="inlineStr">
         <is>
-          <t>-34.957686335917,173.6779397154287</t>
+          <t>-34.95768799062724,173.67794492710217</t>
         </is>
       </c>
       <c r="N568" t="inlineStr">
@@ -67654,7 +67684,7 @@
       </c>
       <c r="M569" t="inlineStr">
         <is>
-          <t>-34.9577820491769,173.67824117531282</t>
+          <t>-34.957783411868675,173.67824546728903</t>
         </is>
       </c>
       <c r="N569" t="inlineStr">
